--- a/gabi.xlsx
+++ b/gabi.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C309"/>
+  <dimension ref="A1:C331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,160 +477,156 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+5517991073503</t>
+          <t>+5511932101366</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5521976786452</t>
+          <t>+553298344288</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5511951777030</t>
+          <t>+5519999605608</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+553172410975</t>
+          <t>+5511989074358</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+553183156928</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+          <t>+56996163824</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr"/>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5512992150616</t>
+          <t>+5511986610154</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5515991165537</t>
+          <t>+5511981755261</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5521992200288</t>
+          <t>+5511970224460</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+556196779704</t>
+          <t>+553183201160</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5511915810965</t>
+          <t>+5511992576005</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -640,99 +636,99 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5521981348191</t>
+          <t>+5519997544249</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5524999461825</t>
+          <t>+555384745327</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+556196698353</t>
+          <t>+5514996501813</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5513996671783</t>
+          <t>+5511972435655</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5518996829002</t>
+          <t>+5521976709956</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5511991871576</t>
+          <t>+5511946397297</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -742,201 +738,201 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+5514981509955</t>
+          <t>+553397075362</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+555184777056</t>
+          <t>+5513991020783</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5513991081873</t>
+          <t>+5521969440520</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+555197040253</t>
+          <t>+553193672938</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5511977945054</t>
+          <t>+5522981479241</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+553496724472</t>
+          <t>+5521979251504</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+553186960521</t>
+          <t>+556198475033</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+5511978823483</t>
+          <t>+5516992236142</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+5516988023377</t>
+          <t>+5511948893274</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+553492249633</t>
+          <t>+5521968278744</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+553898315347</t>
+          <t>+555196384525</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5511996339968</t>
+          <t>+5511972915535</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -946,65 +942,65 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+553899926253</t>
+          <t>+553180135415</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+555596010082</t>
+          <t>+5521992200288</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+5521984364734</t>
+          <t>+556196779704</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+5511964334834</t>
+          <t>+5511915810965</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1014,303 +1010,303 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+553196748836</t>
+          <t>+5521981348191</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+556196182173</t>
+          <t>+5524999461825</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+5515988279142</t>
+          <t>+556196698353</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+551974071078</t>
+          <t>+5513996671783</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+5511943458186</t>
+          <t>+5518996829002</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+553175675075</t>
+          <t>+5511991871576</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+558186914048</t>
+          <t>+5514981509955</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+553898196155</t>
+          <t>+555184777056</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+5514997419977</t>
+          <t>+5513991081873</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+5511964838163</t>
+          <t>+555197040253</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+555191485515</t>
+          <t>+5511977945054</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+5519983005530</t>
+          <t>+553496724472</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+5511930120190</t>
+          <t>+553186960521</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+554799404683</t>
+          <t>+5511978823483</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+5521989929657</t>
+          <t>+5516988023377</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+5511986633336</t>
+          <t>+553492249633</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+5511965540947</t>
+          <t>+553898315347</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+5511963264394</t>
+          <t>+5511996339968</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -1320,65 +1316,65 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+555399629079</t>
+          <t>+553899926253</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+555194536598</t>
+          <t>+555596010082</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+5516991290210</t>
+          <t>+5521984364734</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+5511985014090</t>
+          <t>+5511964334834</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -1388,99 +1384,99 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+555195148251</t>
+          <t>+553196748836</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+5511998608825</t>
+          <t>+556196182173</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+5521985463090</t>
+          <t>+5515988279142</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+5511971885642</t>
+          <t>+551974071078</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+556192235590</t>
+          <t>+5511943458186</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+553197910058</t>
+          <t>+553175675075</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -1490,65 +1486,65 @@
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+555196847608</t>
+          <t>+558186914048</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+5517981329411</t>
+          <t>+553898196155</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+5511945037623</t>
+          <t>+5514997419977</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+5511986092299</t>
+          <t>+5511964838163</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -1558,19 +1554,19 @@
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+556293091196</t>
+          <t>+555191485515</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
@@ -1582,12 +1578,12 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+5521980732023</t>
+          <t>+5519983005530</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -1599,12 +1595,12 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+558586569439</t>
+          <t>+5511930120190</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -1616,12 +1612,12 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+5511984289529</t>
+          <t>+554799404683</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -1633,12 +1629,12 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+5511971176538</t>
+          <t>+5521989929657</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -1650,7 +1646,7 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+5511934629890</t>
+          <t>+5511986633336</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -1667,24 +1663,24 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+5521971413810</t>
+          <t>+5511965540947</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+5511986546912</t>
+          <t>+5511963264394</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -1694,82 +1690,82 @@
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+553171606494</t>
+          <t>+555399629079</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+553171858800</t>
+          <t>+555194536598</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+5513996171453</t>
+          <t>+5516991290210</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+556191917174</t>
+          <t>+5511985014090</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+555181699628</t>
+          <t>+555195148251</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -1779,218 +1775,218 @@
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+558994526750</t>
+          <t>+5511998608825</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+5522988764337</t>
+          <t>+5521985463090</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+5522999490720</t>
+          <t>+5511971885642</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+5511959161877</t>
+          <t>+556192235590</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+5515996341306</t>
+          <t>+553197910058</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+555492618052</t>
+          <t>+555196847608</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+5512991532012</t>
+          <t>+5517981329411</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+556293410347</t>
+          <t>+5511945037623</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+553171722790</t>
+          <t>+5511986092299</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+555186041958</t>
+          <t>+556293091196</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+5522999557124</t>
+          <t>+5521980732023</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+5511956194781</t>
+          <t>+558586569439</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+5511949693265</t>
+          <t>+5511984289529</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
@@ -2000,218 +1996,218 @@
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+553399550487</t>
+          <t>+5511971176538</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+555193334094</t>
+          <t>+5511934629890</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+553191181765</t>
+          <t>+5521971413810</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+553492868099</t>
+          <t>+5511986546912</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+556198163313</t>
+          <t>+553171606494</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+556286223947</t>
+          <t>+553171858800</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+5522992578488</t>
+          <t>+5513996171453</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+5519981594572</t>
+          <t>+556191917174</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+556196054585</t>
+          <t>+555181699628</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+5511987670856</t>
+          <t>+558994526750</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+556293568821</t>
+          <t>+5522988764337</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+556296704284</t>
+          <t>+5522999490720</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+5511993877662</t>
+          <t>+5511959161877</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -2221,82 +2217,82 @@
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+5511959898968</t>
+          <t>+5515996341306</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+5519999136362</t>
+          <t>+555492618052</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+5519993254501</t>
+          <t>+5512991532012</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+556384939482</t>
+          <t>+556293410347</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+553187320810</t>
+          <t>+553171722790</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
@@ -2306,184 +2302,184 @@
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+555186041958</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+5511930092193</t>
+          <t>+5522999557124</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+5521977601201</t>
+          <t>+5511956194781</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+553897450448</t>
+          <t>+5511949693265</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+553899341338</t>
+          <t>+553399550487</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+5521965730495</t>
+          <t>+555193334094</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+5512996345540</t>
+          <t>+553191181765</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+553284127574</t>
+          <t>+553492868099</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+553384499379</t>
+          <t>+556198163313</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+5511945704788</t>
+          <t>+556286223947</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+5522999416651</t>
+          <t>+5522992578488</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
@@ -2493,48 +2489,48 @@
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+553496487520</t>
+          <t>+5519981594572</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+5511953903531</t>
+          <t>+556196054585</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+5511963380338</t>
+          <t>+5511987670856</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
@@ -2544,405 +2540,405 @@
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+556181106946</t>
+          <t>+556293568821</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+5521966430435</t>
+          <t>+556296704284</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+5517981343490</t>
+          <t>+5511993877662</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+5517992750891</t>
+          <t>+5511959898968</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+5521988953632</t>
+          <t>+5519999136362</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+5511977696904</t>
+          <t>+5519993254501</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+556194435831</t>
+          <t>+556384939482</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+556192815706</t>
+          <t>+553187320810</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+555194681350</t>
+          <t>+5511966134418</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+5516993340146</t>
+          <t>+5511930092193</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+5511969710184</t>
+          <t>+5521977601201</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+555184228607</t>
+          <t>+553897450448</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+553899341338</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+5516991501083</t>
+          <t>+5521965730495</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+5512996345540</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+5519974133120</t>
+          <t>+553284127574</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+5511971165356</t>
+          <t>+553384499379</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+5528999143242</t>
+          <t>+5511945704788</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+5521992992344</t>
+          <t>+5522999416651</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+553599864153</t>
+          <t>+553496487520</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+5521976969000</t>
+          <t>+5511953903531</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+553199111438</t>
+          <t>+5511963380338</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+5511991868062</t>
+          <t>+556181106946</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+5521965163770</t>
+          <t>+5521966430435</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
@@ -2952,99 +2948,99 @@
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+556191281418</t>
+          <t>+5517981343490</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+5511970484790</t>
+          <t>+5517992750891</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+553888359308</t>
+          <t>+5521988953632</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+5519999395027</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+553187556222</t>
+          <t>+556194435831</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+556181344711</t>
+          <t>+556192815706</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
@@ -3054,218 +3050,218 @@
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+5511937138186</t>
+          <t>+555194681350</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+553175235564</t>
+          <t>+5516993340146</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+5521970987542</t>
+          <t>+5511969710184</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+553398575480</t>
+          <t>+555184228607</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+553193590683</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+5519999480730</t>
+          <t>+5516991501083</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+5522997230806</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+5511985698796</t>
+          <t>+5519974133120</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+5521965096539</t>
+          <t>+5511971165356</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+5521986678801</t>
+          <t>+5528999143242</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+555197496105</t>
+          <t>+5521992992344</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+5511947650170</t>
+          <t>+553599864153</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+5521965396788</t>
+          <t>+5521976969000</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
@@ -3275,14 +3271,14 @@
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+553191829450</t>
+          <t>+553199111438</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
@@ -3292,14 +3288,14 @@
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+5511976440031</t>
+          <t>+5511991868062</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
@@ -3309,286 +3305,286 @@
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+556195931183</t>
+          <t>+5521965163770</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+556293286544</t>
+          <t>+556191281418</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+553399068179</t>
+          <t>+5511970484790</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+5511939479374</t>
+          <t>+553888359308</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+556194662595</t>
+          <t>+5519999395027</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+555181664215</t>
+          <t>+553187556222</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+5521978927776</t>
+          <t>+556181344711</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+553484319009</t>
+          <t>+5511937138186</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+553499089476</t>
+          <t>+553175235564</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+5524999964686</t>
+          <t>+5521970987542</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+556293941304</t>
+          <t>+553398575480</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+5514997100570</t>
+          <t>+553193590683</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+5511956996383</t>
+          <t>+5519999480730</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+5524999215405</t>
+          <t>+5522997230806</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+5513974102524</t>
+          <t>+5511985698796</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+5511985663846</t>
+          <t>+5521965096539</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+5521997117322</t>
+          <t>+5521986678801</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
@@ -3598,14 +3594,14 @@
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+555185802949</t>
+          <t>+555197496105</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
@@ -3615,490 +3611,490 @@
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+5519997204476</t>
+          <t>+5511947650170</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+555185452466</t>
+          <t>+5521965396788</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+556296767169</t>
+          <t>+553191829450</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+5521973809282</t>
+          <t>+5511976440031</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+553399941825</t>
+          <t>+556195931183</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+555199100909</t>
+          <t>+556293286544</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+5511951575822</t>
+          <t>+553399068179</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+5517982091490</t>
+          <t>+5511939479374</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+5511960197823</t>
+          <t>+556194662595</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+5516993905706</t>
+          <t>+555181664215</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+555491229014</t>
+          <t>+5521978927776</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+553183316751</t>
+          <t>+553484319009</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+5511960297061</t>
+          <t>+553499089476</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+5511967618163</t>
+          <t>+5524999964686</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+5511953782520</t>
+          <t>+556293941304</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>+555194565879</t>
+          <t>+5514997100570</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>+5519987116584</t>
+          <t>+5511956996383</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>+5511963669553</t>
+          <t>+5524999215405</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>+5511967026448</t>
+          <t>+5513974102524</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>+556198857512</t>
+          <t>+5511985663846</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>+5511970838412</t>
+          <t>+5521997117322</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>+553597695870</t>
+          <t>+555185802949</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>+5517997886011</t>
+          <t>+5519997204476</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>+5519994161076</t>
+          <t>+555185452466</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>+5512974073721</t>
+          <t>+556296767169</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>+553899272884</t>
+          <t>+5521973809282</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>+555185474443</t>
+          <t>+553399941825</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>+5513974277521</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>+5511959480908</t>
+          <t>+5511951575822</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
@@ -4108,48 +4104,48 @@
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>+553173039716</t>
+          <t>+5517982091490</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>+5519983138652</t>
+          <t>+5511960197823</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>+5516981621753</t>
+          <t>+5516993905706</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
@@ -4159,150 +4155,150 @@
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>+5513996269435</t>
+          <t>+555491229014</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>+5511946858778</t>
+          <t>+553183316751</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>+553498008945</t>
+          <t>+5511960297061</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+5511967618163</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>+555198093042</t>
+          <t>+5511953782520</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>+5519992746058</t>
+          <t>+555194565879</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>+5511959327333</t>
+          <t>+5519987116584</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>+5519991342511</t>
+          <t>+5511963669553</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>+5511910662570</t>
+          <t>+5511967026448</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
@@ -4312,155 +4308,155 @@
       </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>+5511979754910</t>
+          <t>+556198857512</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>+5519984563784</t>
+          <t>+5511970838412</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C229" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>+5524978358315</t>
+          <t>+553597695870</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>+5521964816197</t>
+          <t>+5517997886011</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>+554497202222</t>
+          <t>+5519994161076</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>+553187980853</t>
+          <t>+5512974073721</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>+555191226749</t>
+          <t>+553899272884</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>+5511982048012</t>
+          <t>+555185474443</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>+5511960946166</t>
+          <t>+5513974277521</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
@@ -4472,12 +4468,12 @@
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>+5519991426273</t>
+          <t>+5511959480908</t>
         </is>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C237" s="2" t="inlineStr">
@@ -4489,12 +4485,12 @@
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>+5519981472020</t>
+          <t>+553173039716</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
@@ -4506,12 +4502,12 @@
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>+5521978835599</t>
+          <t>+5519983138652</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr">
@@ -4523,41 +4519,41 @@
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>+555180176562</t>
+          <t>+5516981621753</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>+5511942185569</t>
+          <t>+5513996269435</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>+5511947261969</t>
+          <t>+5511946858778</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
@@ -4567,116 +4563,116 @@
       </c>
       <c r="C242" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>+5519992124887</t>
+          <t>+553498008945</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>+553195359312</t>
+          <t>+5521965489343</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>+5511962993512</t>
+          <t>+555198093042</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>+5511993564173</t>
+          <t>+5519992746058</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>+553391919105</t>
+          <t>+5511959327333</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>+5511985800906</t>
+          <t>+5519991342511</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>+5511959248300</t>
+          <t>+5511910662570</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
@@ -4686,65 +4682,65 @@
       </c>
       <c r="C249" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>+5519994486599</t>
+          <t>+5511979754910</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>+556286415391</t>
+          <t>+5519984563784</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>+5511987774053</t>
+          <t>+5524978358315</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+5521964816197</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
@@ -4754,48 +4750,48 @@
       </c>
       <c r="C253" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>+553184640938</t>
+          <t>+554497202222</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>+5521990575799</t>
+          <t>+553187980853</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>+555191899807</t>
+          <t>+555191226749</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
@@ -4805,201 +4801,201 @@
       </c>
       <c r="C256" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>+556194027204</t>
+          <t>+5511982048012</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>+5516999494445</t>
+          <t>+5511960946166</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>+5511952489850</t>
+          <t>+5519991426273</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>+5521981400589</t>
+          <t>+5519981472020</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>+5511957982446</t>
+          <t>+5521978835599</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>+5511948883579</t>
+          <t>+555180176562</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>+555197184596</t>
+          <t>+5511942185569</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>+556284316928</t>
+          <t>+5511947261969</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>+5511983534806</t>
+          <t>+5519992124887</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>+5511974919907</t>
+          <t>+553195359312</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>+553298585881</t>
+          <t>+5511962993512</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>+5511996693536</t>
+          <t>+5511993564173</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
@@ -5009,218 +5005,218 @@
       </c>
       <c r="C268" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>+553196634240</t>
+          <t>+553391919105</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>+555186391577</t>
+          <t>+5511985800906</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>+555194687691</t>
+          <t>+5511959248300</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>+5511913167865</t>
+          <t>+5519994486599</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>+5511978691664</t>
+          <t>+556286415391</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>+553497201121</t>
+          <t>+5511987774053</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>+558881220317</t>
+          <t>+5521985109311</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>+5511952172793</t>
+          <t>+553184640938</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>+5513997769440</t>
+          <t>+5521990575799</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C277" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>+5511989993229</t>
+          <t>+555191899807</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C278" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>+5511994902251</t>
+          <t>+556194027204</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>+5519993039822</t>
+          <t>+5516999494445</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>+5511990067914</t>
+          <t>+5511952489850</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
@@ -5230,14 +5226,14 @@
       </c>
       <c r="C281" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>+5521966715011</t>
+          <t>+5521981400589</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
@@ -5247,99 +5243,99 @@
       </c>
       <c r="C282" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>+5521965551832</t>
+          <t>+5511957982446</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>+5512978144084</t>
+          <t>+5511948883579</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C284" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>+555496011266</t>
+          <t>+555197184596</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C285" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>+5521965910269</t>
+          <t>+556284316928</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>+5521981376833</t>
+          <t>+5511983534806</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>+5511986157257</t>
+          <t>+5511974919907</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
@@ -5349,201 +5345,201 @@
       </c>
       <c r="C288" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>+5512996683720</t>
+          <t>+553298585881</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C289" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>+5514996744793</t>
+          <t>+5511996693536</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C290" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>+555199788369</t>
+          <t>+553196634240</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>+553199854571</t>
+          <t>+555186391577</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>+5511932110481</t>
+          <t>+555194687691</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C293" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>+556193189092</t>
+          <t>+5511913167865</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C294" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>+5517992036626</t>
+          <t>+5511978691664</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>+553199616643</t>
+          <t>+553497201121</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>+5521977008499</t>
+          <t>+558881220317</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C297" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>+5521977084479</t>
+          <t>+5511952172793</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>+553496442965</t>
+          <t>+5513997769440</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>+5511997041769</t>
+          <t>+5511989993229</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
@@ -5553,158 +5549,532 @@
       </c>
       <c r="C300" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>+5518997151251</t>
+          <t>+5511994902251</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>+556198606157</t>
+          <t>+5519993039822</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C302" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>+555195284929</t>
+          <t>+5511990067914</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C303" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>+5511987594244</t>
+          <t>+5521966715011</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C304" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>+5511959227230</t>
+          <t>+5521965551832</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C305" s="2" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>+555599102946</t>
+          <t>+5512978144084</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>+5511970726796</t>
+          <t>+555496011266</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C307" s="2" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>+5519996017926</t>
+          <t>+5521965910269</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
+          <t>+5521981376833</t>
+        </is>
+      </c>
+      <c r="B309" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C309" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="inlineStr">
+        <is>
+          <t>+5511986157257</t>
+        </is>
+      </c>
+      <c r="B310" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C310" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="inlineStr">
+        <is>
+          <t>+5512996683720</t>
+        </is>
+      </c>
+      <c r="B311" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C311" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="inlineStr">
+        <is>
+          <t>+5514996744793</t>
+        </is>
+      </c>
+      <c r="B312" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C312" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="inlineStr">
+        <is>
+          <t>+555199788369</t>
+        </is>
+      </c>
+      <c r="B313" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C313" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="inlineStr">
+        <is>
+          <t>+553199854571</t>
+        </is>
+      </c>
+      <c r="B314" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C314" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="inlineStr">
+        <is>
+          <t>+5511932110481</t>
+        </is>
+      </c>
+      <c r="B315" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C315" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="inlineStr">
+        <is>
+          <t>+556193189092</t>
+        </is>
+      </c>
+      <c r="B316" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C316" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="inlineStr">
+        <is>
+          <t>+5517992036626</t>
+        </is>
+      </c>
+      <c r="B317" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C317" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="inlineStr">
+        <is>
+          <t>+553199616643</t>
+        </is>
+      </c>
+      <c r="B318" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C318" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="inlineStr">
+        <is>
+          <t>+5521977008499</t>
+        </is>
+      </c>
+      <c r="B319" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C319" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="inlineStr">
+        <is>
+          <t>+5521977084479</t>
+        </is>
+      </c>
+      <c r="B320" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C320" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="inlineStr">
+        <is>
+          <t>+553496442965</t>
+        </is>
+      </c>
+      <c r="B321" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C321" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="inlineStr">
+        <is>
+          <t>+5511997041769</t>
+        </is>
+      </c>
+      <c r="B322" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C322" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="inlineStr">
+        <is>
+          <t>+5518997151251</t>
+        </is>
+      </c>
+      <c r="B323" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C323" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="inlineStr">
+        <is>
+          <t>+556198606157</t>
+        </is>
+      </c>
+      <c r="B324" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C324" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="inlineStr">
+        <is>
+          <t>+555195284929</t>
+        </is>
+      </c>
+      <c r="B325" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C325" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="inlineStr">
+        <is>
+          <t>+5511987594244</t>
+        </is>
+      </c>
+      <c r="B326" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C326" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="inlineStr">
+        <is>
+          <t>+5511959227230</t>
+        </is>
+      </c>
+      <c r="B327" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C327" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="inlineStr">
+        <is>
+          <t>+555599102946</t>
+        </is>
+      </c>
+      <c r="B328" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C328" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="inlineStr">
+        <is>
+          <t>+5511970726796</t>
+        </is>
+      </c>
+      <c r="B329" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C329" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="inlineStr">
+        <is>
+          <t>+5519996017926</t>
+        </is>
+      </c>
+      <c r="B330" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C330" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="inlineStr">
+        <is>
           <t>+5511949288154</t>
         </is>
       </c>
-      <c r="B309" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C309" s="2" t="inlineStr">
+      <c r="B331" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C331" s="2" t="inlineStr">
         <is>
           <t>2024-08-26</t>
         </is>

--- a/gabi.xlsx
+++ b/gabi.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C331"/>
+  <dimension ref="A1:C353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,7 +477,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+5511932101366</t>
+          <t>+5511999318706</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -487,78 +487,82 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+553298344288</t>
+          <t>+5511972768186</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5519999605608</t>
+          <t>+5521992761358</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+5511989074358</t>
+          <t>+556198289593</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+56996163824</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr"/>
+          <t>+5521979898353</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5511986610154</t>
+          <t>+5511951735066</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -568,31 +572,31 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5511981755261</t>
+          <t>+5521968066779</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5511970224460</t>
+          <t>+5511940052132</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -602,31 +606,31 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+553183201160</t>
+          <t>+555584586767</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5511992576005</t>
+          <t>+5511959504956</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -636,14 +640,14 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5519997544249</t>
+          <t>+5519991884271</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -653,48 +657,48 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+555384745327</t>
+          <t>+5521999546007</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5514996501813</t>
+          <t>+5521971985918</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5511972435655</t>
+          <t>+5511982403910</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -704,31 +708,31 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5521976709956</t>
+          <t>+555194713402</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5511946397297</t>
+          <t>+5511979869629</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -738,422 +742,418 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+553397075362</t>
+          <t>+553491497775</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+5513991020783</t>
+          <t>+5511952202576</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5521969440520</t>
+          <t>+556496241313</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+553193672938</t>
+          <t>+5521966659271</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5522981479241</t>
+          <t>+5511958383006</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+5521979251504</t>
+          <t>+5512982473711</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+556198475033</t>
+          <t>+555193033662</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+5516992236142</t>
+          <t>+5511932101366</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+5511948893274</t>
+          <t>+553298344288</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+5521968278744</t>
+          <t>+5519999605608</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+555196384525</t>
+          <t>+5511989074358</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5511972915535</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>+56996163824</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr"/>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+553180135415</t>
+          <t>+5511986610154</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+5521992200288</t>
+          <t>+5511981755261</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+556196779704</t>
+          <t>+5511970224460</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+5511915810965</t>
+          <t>+553183201160</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+5521981348191</t>
+          <t>+5511992576005</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+5524999461825</t>
+          <t>+5519997544249</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+556196698353</t>
+          <t>+555384745327</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+5513996671783</t>
+          <t>+5514996501813</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+5518996829002</t>
+          <t>+5511972435655</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+5511991871576</t>
+          <t>+5521976709956</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+5514981509955</t>
+          <t>+5511946397297</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+555184777056</t>
+          <t>+553397075362</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+5513991081873</t>
+          <t>+5513991020783</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -1163,99 +1163,99 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+555197040253</t>
+          <t>+5521969440520</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+5511977945054</t>
+          <t>+553193672938</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+553496724472</t>
+          <t>+5522981479241</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+553186960521</t>
+          <t>+5521979251504</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+5511978823483</t>
+          <t>+556198475033</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+5516988023377</t>
+          <t>+5516992236142</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -1265,99 +1265,99 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+553492249633</t>
+          <t>+5511948893274</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+553898315347</t>
+          <t>+5521968278744</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+5511996339968</t>
+          <t>+555196384525</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+553899926253</t>
+          <t>+5511972915535</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+555596010082</t>
+          <t>+553180135415</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+5521984364734</t>
+          <t>+5521992200288</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
@@ -1367,201 +1367,201 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+5511964334834</t>
+          <t>+556196779704</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+553196748836</t>
+          <t>+5511915810965</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+556196182173</t>
+          <t>+5521981348191</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+5515988279142</t>
+          <t>+5524999461825</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+551974071078</t>
+          <t>+556196698353</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+5511943458186</t>
+          <t>+5513996671783</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+553175675075</t>
+          <t>+5518996829002</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+558186914048</t>
+          <t>+5511991871576</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+553898196155</t>
+          <t>+5514981509955</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+5514997419977</t>
+          <t>+555184777056</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+5511964838163</t>
+          <t>+5513991081873</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+555191485515</t>
+          <t>+555197040253</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -1571,393 +1571,393 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+5519983005530</t>
+          <t>+5511977945054</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+5511930120190</t>
+          <t>+553496724472</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+554799404683</t>
+          <t>+553186960521</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+5521989929657</t>
+          <t>+5511978823483</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+5511986633336</t>
+          <t>+5516988023377</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+5511965540947</t>
+          <t>+553492249633</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+5511963264394</t>
+          <t>+553898315347</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+555399629079</t>
+          <t>+5511996339968</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+555194536598</t>
+          <t>+553899926253</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+5516991290210</t>
+          <t>+555596010082</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+5511985014090</t>
+          <t>+5521984364734</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+555195148251</t>
+          <t>+5511964334834</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+5511998608825</t>
+          <t>+553196748836</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+5521985463090</t>
+          <t>+556196182173</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+5511971885642</t>
+          <t>+5515988279142</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+556192235590</t>
+          <t>+551974071078</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+553197910058</t>
+          <t>+5511943458186</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+555196847608</t>
+          <t>+553175675075</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+5517981329411</t>
+          <t>+558186914048</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+5511945037623</t>
+          <t>+553898196155</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+5511986092299</t>
+          <t>+5514997419977</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+556293091196</t>
+          <t>+5511964838163</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+5521980732023</t>
+          <t>+555191485515</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
@@ -1969,12 +1969,12 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+558586569439</t>
+          <t>+5519983005530</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
@@ -1986,7 +1986,7 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+5511984289529</t>
+          <t>+5511930120190</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
@@ -2003,12 +2003,12 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+5511971176538</t>
+          <t>+554799404683</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
@@ -2020,12 +2020,12 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+5511934629890</t>
+          <t>+5521989929657</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
@@ -2037,24 +2037,24 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+5521971413810</t>
+          <t>+5511986633336</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+5511986546912</t>
+          <t>+5511965540947</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -2064,150 +2064,150 @@
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+553171606494</t>
+          <t>+5511963264394</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+553171858800</t>
+          <t>+555399629079</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+5513996171453</t>
+          <t>+555194536598</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+556191917174</t>
+          <t>+5516991290210</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+555181699628</t>
+          <t>+5511985014090</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+558994526750</t>
+          <t>+555195148251</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+5522988764337</t>
+          <t>+5511998608825</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+5522999490720</t>
+          <t>+5521985463090</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+5511959161877</t>
+          <t>+5511971885642</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -2217,150 +2217,150 @@
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+5515996341306</t>
+          <t>+556192235590</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+555492618052</t>
+          <t>+553197910058</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+5512991532012</t>
+          <t>+555196847608</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+556293410347</t>
+          <t>+5511945037623</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+553171722790</t>
+          <t>+5511986092299</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+555186041958</t>
+          <t>+556293091196</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+5522999557124</t>
+          <t>+5521980732023</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+5511956194781</t>
+          <t>+558586569439</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+5511949693265</t>
+          <t>+5511984289529</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -2370,218 +2370,218 @@
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+553399550487</t>
+          <t>+5511971176538</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+555193334094</t>
+          <t>+5511934629890</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+553191181765</t>
+          <t>+5521971413810</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+553492868099</t>
+          <t>+5511986546912</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+556198163313</t>
+          <t>+553171606494</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+556286223947</t>
+          <t>+553171858800</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+5522992578488</t>
+          <t>+5513996171453</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+5519981594572</t>
+          <t>+556191917174</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+556196054585</t>
+          <t>+555181699628</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+5511987670856</t>
+          <t>+558994526750</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+556293568821</t>
+          <t>+5522988764337</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+556296704284</t>
+          <t>+5522999490720</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+5511993877662</t>
+          <t>+5511959161877</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
@@ -2591,82 +2591,82 @@
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+5511959898968</t>
+          <t>+5515996341306</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+5519999136362</t>
+          <t>+555492618052</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+5519993254501</t>
+          <t>+5512991532012</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+556384939482</t>
+          <t>+556293410347</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+553187320810</t>
+          <t>+553171722790</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
@@ -2676,184 +2676,184 @@
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+555186041958</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+5511930092193</t>
+          <t>+5522999557124</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+5521977601201</t>
+          <t>+5511956194781</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+553897450448</t>
+          <t>+5511949693265</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+553899341338</t>
+          <t>+553399550487</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+5521965730495</t>
+          <t>+555193334094</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+5512996345540</t>
+          <t>+553191181765</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+553284127574</t>
+          <t>+553492868099</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+553384499379</t>
+          <t>+556198163313</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+5511945704788</t>
+          <t>+556286223947</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+5522999416651</t>
+          <t>+5522992578488</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
@@ -2863,48 +2863,48 @@
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+553496487520</t>
+          <t>+5519981594572</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+5511953903531</t>
+          <t>+556196054585</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+5511963380338</t>
+          <t>+5511987670856</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
@@ -2914,405 +2914,405 @@
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+556181106946</t>
+          <t>+556293568821</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+5521966430435</t>
+          <t>+556296704284</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+5517981343490</t>
+          <t>+5511993877662</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+5517992750891</t>
+          <t>+5511959898968</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+5521988953632</t>
+          <t>+5519999136362</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+5511977696904</t>
+          <t>+5519993254501</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+556194435831</t>
+          <t>+556384939482</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+556192815706</t>
+          <t>+553187320810</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+555194681350</t>
+          <t>+5511966134418</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+5516993340146</t>
+          <t>+5511930092193</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+5511969710184</t>
+          <t>+5521977601201</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+555184228607</t>
+          <t>+553897450448</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+553899341338</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+5516991501083</t>
+          <t>+5521965730495</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+5512996345540</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+5519974133120</t>
+          <t>+553284127574</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+5511971165356</t>
+          <t>+553384499379</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+5528999143242</t>
+          <t>+5511945704788</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+5521992992344</t>
+          <t>+5522999416651</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+553599864153</t>
+          <t>+553496487520</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+5521976969000</t>
+          <t>+5511953903531</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+553199111438</t>
+          <t>+5511963380338</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+5511991868062</t>
+          <t>+556181106946</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+5521965163770</t>
+          <t>+5521966430435</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
@@ -3322,99 +3322,99 @@
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+556191281418</t>
+          <t>+5517981343490</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+5511970484790</t>
+          <t>+5517992750891</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+553888359308</t>
+          <t>+5521988953632</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+5519999395027</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+553187556222</t>
+          <t>+556194435831</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+556181344711</t>
+          <t>+556192815706</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
@@ -3424,218 +3424,218 @@
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+5511937138186</t>
+          <t>+555194681350</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+553175235564</t>
+          <t>+5516993340146</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+5521970987542</t>
+          <t>+5511969710184</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+553398575480</t>
+          <t>+555184228607</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+553193590683</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+5519999480730</t>
+          <t>+5516991501083</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+5522997230806</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+5511985698796</t>
+          <t>+5519974133120</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+5521965096539</t>
+          <t>+5511971165356</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+5521986678801</t>
+          <t>+5528999143242</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+555197496105</t>
+          <t>+5521992992344</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+5511947650170</t>
+          <t>+553599864153</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+5521965396788</t>
+          <t>+5521976969000</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
@@ -3645,14 +3645,14 @@
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+553191829450</t>
+          <t>+553199111438</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
@@ -3662,14 +3662,14 @@
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+5511976440031</t>
+          <t>+5511991868062</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
@@ -3679,286 +3679,286 @@
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+556195931183</t>
+          <t>+5521965163770</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+556293286544</t>
+          <t>+556191281418</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+553399068179</t>
+          <t>+5511970484790</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+5511939479374</t>
+          <t>+553888359308</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+556194662595</t>
+          <t>+5519999395027</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+555181664215</t>
+          <t>+553187556222</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+5521978927776</t>
+          <t>+556181344711</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+553484319009</t>
+          <t>+5511937138186</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+553499089476</t>
+          <t>+553175235564</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+5524999964686</t>
+          <t>+5521970987542</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+556293941304</t>
+          <t>+553398575480</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>+5514997100570</t>
+          <t>+553193590683</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>+5511956996383</t>
+          <t>+5519999480730</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>+5524999215405</t>
+          <t>+5522997230806</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>+5513974102524</t>
+          <t>+5511985698796</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>+5511985663846</t>
+          <t>+5521965096539</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>+5521997117322</t>
+          <t>+5521986678801</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
@@ -3968,14 +3968,14 @@
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>+555185802949</t>
+          <t>+555197496105</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
@@ -3985,490 +3985,490 @@
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>+5519997204476</t>
+          <t>+5511947650170</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>+555185452466</t>
+          <t>+5521965396788</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>+556296767169</t>
+          <t>+553191829450</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>+5521973809282</t>
+          <t>+5511976440031</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>+553399941825</t>
+          <t>+556195931183</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>+555199100909</t>
+          <t>+556293286544</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>+5511951575822</t>
+          <t>+553399068179</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>+5517982091490</t>
+          <t>+5511939479374</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>+5511960197823</t>
+          <t>+556194662595</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>+5516993905706</t>
+          <t>+555181664215</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>+555491229014</t>
+          <t>+5521978927776</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>+553183316751</t>
+          <t>+553484319009</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>+5511960297061</t>
+          <t>+553499089476</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>+5511967618163</t>
+          <t>+5524999964686</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>+5511953782520</t>
+          <t>+556293941304</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>+555194565879</t>
+          <t>+5514997100570</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>+5519987116584</t>
+          <t>+5511956996383</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>+5511963669553</t>
+          <t>+5524999215405</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>+5511967026448</t>
+          <t>+5513974102524</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>+556198857512</t>
+          <t>+5511985663846</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>+5511970838412</t>
+          <t>+5521997117322</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C229" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>+553597695870</t>
+          <t>+555185802949</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>+5517997886011</t>
+          <t>+5519997204476</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>+5519994161076</t>
+          <t>+555185452466</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>+5512974073721</t>
+          <t>+556296767169</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>+553899272884</t>
+          <t>+5521973809282</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>+555185474443</t>
+          <t>+553399941825</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>+5513974277521</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>+5511959480908</t>
+          <t>+5511951575822</t>
         </is>
       </c>
       <c r="B237" s="2" t="inlineStr">
@@ -4478,48 +4478,48 @@
       </c>
       <c r="C237" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>+553173039716</t>
+          <t>+5517982091490</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>+5519983138652</t>
+          <t>+5511960197823</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>+5516981621753</t>
+          <t>+5516993905706</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
@@ -4529,150 +4529,150 @@
       </c>
       <c r="C240" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>+5513996269435</t>
+          <t>+555491229014</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>+5511946858778</t>
+          <t>+553183316751</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>+553498008945</t>
+          <t>+5511960297061</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+5511967618163</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>+555198093042</t>
+          <t>+5511953782520</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>+5519992746058</t>
+          <t>+555194565879</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>+5511959327333</t>
+          <t>+5519987116584</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>+5519991342511</t>
+          <t>+5511963669553</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>+5511910662570</t>
+          <t>+5511967026448</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
@@ -4682,155 +4682,155 @@
       </c>
       <c r="C249" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>+5511979754910</t>
+          <t>+556198857512</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>+5519984563784</t>
+          <t>+5511970838412</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>+5524978358315</t>
+          <t>+553597695870</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>+5521964816197</t>
+          <t>+5517997886011</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>+554497202222</t>
+          <t>+5519994161076</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>+553187980853</t>
+          <t>+5512974073721</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>+555191226749</t>
+          <t>+553899272884</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>+5511982048012</t>
+          <t>+555185474443</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>+5511960946166</t>
+          <t>+5513974277521</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
@@ -4842,12 +4842,12 @@
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>+5519991426273</t>
+          <t>+5511959480908</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
@@ -4859,12 +4859,12 @@
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>+5519981472020</t>
+          <t>+553173039716</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
@@ -4876,12 +4876,12 @@
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>+5521978835599</t>
+          <t>+5519983138652</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
@@ -4893,41 +4893,41 @@
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>+555180176562</t>
+          <t>+5516981621753</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>+5511942185569</t>
+          <t>+5513996269435</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>+5511947261969</t>
+          <t>+5511946858778</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
@@ -4937,116 +4937,116 @@
       </c>
       <c r="C264" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>+5519992124887</t>
+          <t>+553498008945</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>+553195359312</t>
+          <t>+5521965489343</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>+5511962993512</t>
+          <t>+555198093042</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>+5511993564173</t>
+          <t>+5519992746058</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>+553391919105</t>
+          <t>+5511959327333</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>+5511985800906</t>
+          <t>+5519991342511</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>+5511959248300</t>
+          <t>+5511910662570</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
@@ -5056,65 +5056,65 @@
       </c>
       <c r="C271" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>+5519994486599</t>
+          <t>+5511979754910</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>+556286415391</t>
+          <t>+5519984563784</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>+5511987774053</t>
+          <t>+5524978358315</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+5521964816197</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
@@ -5124,48 +5124,48 @@
       </c>
       <c r="C275" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>+553184640938</t>
+          <t>+554497202222</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>+5521990575799</t>
+          <t>+553187980853</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C277" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>+555191899807</t>
+          <t>+555191226749</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
@@ -5175,201 +5175,201 @@
       </c>
       <c r="C278" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>+556194027204</t>
+          <t>+5511982048012</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>+5516999494445</t>
+          <t>+5511960946166</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>+5511952489850</t>
+          <t>+5519991426273</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>+5521981400589</t>
+          <t>+5519981472020</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C282" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>+5511957982446</t>
+          <t>+5521978835599</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>+5511948883579</t>
+          <t>+555180176562</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C284" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>+555197184596</t>
+          <t>+5511942185569</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C285" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>+556284316928</t>
+          <t>+5511947261969</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>+5511983534806</t>
+          <t>+5519992124887</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>+5511974919907</t>
+          <t>+553195359312</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C288" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>+553298585881</t>
+          <t>+5511962993512</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C289" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>+5511996693536</t>
+          <t>+5511993564173</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
@@ -5379,218 +5379,218 @@
       </c>
       <c r="C290" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>+553196634240</t>
+          <t>+553391919105</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>+555186391577</t>
+          <t>+5511985800906</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>+555194687691</t>
+          <t>+5511959248300</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C293" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>+5511913167865</t>
+          <t>+5519994486599</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C294" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>+5511978691664</t>
+          <t>+556286415391</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>+553497201121</t>
+          <t>+5511987774053</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>+558881220317</t>
+          <t>+5521985109311</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C297" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>+5511952172793</t>
+          <t>+553184640938</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>+5513997769440</t>
+          <t>+5521990575799</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>+5511989993229</t>
+          <t>+555191899807</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>+5511994902251</t>
+          <t>+556194027204</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>+5519993039822</t>
+          <t>+5516999494445</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C302" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>+5511990067914</t>
+          <t>+5511952489850</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
@@ -5600,14 +5600,14 @@
       </c>
       <c r="C303" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>+5521966715011</t>
+          <t>+5521981400589</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
@@ -5617,99 +5617,99 @@
       </c>
       <c r="C304" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>+5521965551832</t>
+          <t>+5511957982446</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C305" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>+5512978144084</t>
+          <t>+5511948883579</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>+555496011266</t>
+          <t>+555197184596</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C307" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>+5521965910269</t>
+          <t>+556284316928</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>+5521981376833</t>
+          <t>+5511983534806</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C309" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>+5511986157257</t>
+          <t>+5511974919907</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
@@ -5719,201 +5719,201 @@
       </c>
       <c r="C310" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>+5512996683720</t>
+          <t>+553298585881</t>
         </is>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>+5514996744793</t>
+          <t>+5511996693536</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>+555199788369</t>
+          <t>+553196634240</t>
         </is>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>+553199854571</t>
+          <t>+555186391577</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C314" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>+5511932110481</t>
+          <t>+555194687691</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>+556193189092</t>
+          <t>+5511913167865</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>+5517992036626</t>
+          <t>+5511978691664</t>
         </is>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C317" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>+553199616643</t>
+          <t>+553497201121</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C318" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="inlineStr">
         <is>
-          <t>+5521977008499</t>
+          <t>+558881220317</t>
         </is>
       </c>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C319" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="inlineStr">
         <is>
-          <t>+5521977084479</t>
+          <t>+5511952172793</t>
         </is>
       </c>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C320" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="inlineStr">
         <is>
-          <t>+553496442965</t>
+          <t>+5513997769440</t>
         </is>
       </c>
       <c r="B321" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C321" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t>+5511997041769</t>
+          <t>+5511989993229</t>
         </is>
       </c>
       <c r="B322" s="2" t="inlineStr">
@@ -5923,158 +5923,532 @@
       </c>
       <c r="C322" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="inlineStr">
         <is>
-          <t>+5518997151251</t>
+          <t>+5511994902251</t>
         </is>
       </c>
       <c r="B323" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C323" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="inlineStr">
         <is>
-          <t>+556198606157</t>
+          <t>+5519993039822</t>
         </is>
       </c>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C324" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="inlineStr">
         <is>
-          <t>+555195284929</t>
+          <t>+5511990067914</t>
         </is>
       </c>
       <c r="B325" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C325" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="inlineStr">
         <is>
-          <t>+5511987594244</t>
+          <t>+5521966715011</t>
         </is>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C326" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="inlineStr">
         <is>
-          <t>+5511959227230</t>
+          <t>+5521965551832</t>
         </is>
       </c>
       <c r="B327" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C327" s="2" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="inlineStr">
         <is>
-          <t>+555599102946</t>
+          <t>+5512978144084</t>
         </is>
       </c>
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C328" s="2" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="inlineStr">
         <is>
-          <t>+5511970726796</t>
+          <t>+555496011266</t>
         </is>
       </c>
       <c r="B329" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C329" s="2" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="inlineStr">
         <is>
-          <t>+5519996017926</t>
+          <t>+5521965910269</t>
         </is>
       </c>
       <c r="B330" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C330" s="2" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="inlineStr">
         <is>
+          <t>+5521981376833</t>
+        </is>
+      </c>
+      <c r="B331" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C331" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="inlineStr">
+        <is>
+          <t>+5511986157257</t>
+        </is>
+      </c>
+      <c r="B332" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C332" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="inlineStr">
+        <is>
+          <t>+5512996683720</t>
+        </is>
+      </c>
+      <c r="B333" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C333" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="inlineStr">
+        <is>
+          <t>+5514996744793</t>
+        </is>
+      </c>
+      <c r="B334" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C334" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="inlineStr">
+        <is>
+          <t>+555199788369</t>
+        </is>
+      </c>
+      <c r="B335" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C335" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="inlineStr">
+        <is>
+          <t>+553199854571</t>
+        </is>
+      </c>
+      <c r="B336" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C336" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="inlineStr">
+        <is>
+          <t>+5511932110481</t>
+        </is>
+      </c>
+      <c r="B337" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C337" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="inlineStr">
+        <is>
+          <t>+556193189092</t>
+        </is>
+      </c>
+      <c r="B338" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C338" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="inlineStr">
+        <is>
+          <t>+5517992036626</t>
+        </is>
+      </c>
+      <c r="B339" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C339" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="inlineStr">
+        <is>
+          <t>+553199616643</t>
+        </is>
+      </c>
+      <c r="B340" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C340" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="inlineStr">
+        <is>
+          <t>+5521977008499</t>
+        </is>
+      </c>
+      <c r="B341" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C341" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="inlineStr">
+        <is>
+          <t>+5521977084479</t>
+        </is>
+      </c>
+      <c r="B342" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C342" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="inlineStr">
+        <is>
+          <t>+553496442965</t>
+        </is>
+      </c>
+      <c r="B343" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C343" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="inlineStr">
+        <is>
+          <t>+5511997041769</t>
+        </is>
+      </c>
+      <c r="B344" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C344" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="inlineStr">
+        <is>
+          <t>+5518997151251</t>
+        </is>
+      </c>
+      <c r="B345" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C345" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="inlineStr">
+        <is>
+          <t>+556198606157</t>
+        </is>
+      </c>
+      <c r="B346" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C346" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="inlineStr">
+        <is>
+          <t>+555195284929</t>
+        </is>
+      </c>
+      <c r="B347" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C347" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="inlineStr">
+        <is>
+          <t>+5511987594244</t>
+        </is>
+      </c>
+      <c r="B348" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C348" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="inlineStr">
+        <is>
+          <t>+5511959227230</t>
+        </is>
+      </c>
+      <c r="B349" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C349" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="inlineStr">
+        <is>
+          <t>+555599102946</t>
+        </is>
+      </c>
+      <c r="B350" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C350" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="inlineStr">
+        <is>
+          <t>+5511970726796</t>
+        </is>
+      </c>
+      <c r="B351" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C351" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="inlineStr">
+        <is>
+          <t>+5519996017926</t>
+        </is>
+      </c>
+      <c r="B352" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C352" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="inlineStr">
+        <is>
           <t>+5511949288154</t>
         </is>
       </c>
-      <c r="B331" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C331" s="2" t="inlineStr">
+      <c r="B353" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C353" s="2" t="inlineStr">
         <is>
           <t>2024-08-26</t>
         </is>

--- a/gabi.xlsx
+++ b/gabi.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C353"/>
+  <dimension ref="A1:C318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,24 +477,24 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+5511999318706</t>
+          <t>+5522992752597</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5511972768186</t>
+          <t>+5511911086295</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -504,19 +504,19 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5521992761358</t>
+          <t>+5511999318706</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -528,29 +528,29 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+556198289593</t>
+          <t>+5521992761358</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5521979898353</t>
+          <t>+556198289593</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -562,12 +562,12 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5511951735066</t>
+          <t>+5521979898353</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -579,12 +579,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5521968066779</t>
+          <t>+5511951735066</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -596,12 +596,12 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5511940052132</t>
+          <t>+5521968066779</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -613,12 +613,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+555584586767</t>
+          <t>+5511940052132</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -630,29 +630,29 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5511959504956</t>
+          <t>+555584586767</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5519991884271</t>
+          <t>+5511959504956</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -664,12 +664,12 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5521999546007</t>
+          <t>+5519991884271</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5521971985918</t>
+          <t>+5521999546007</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5511982403910</t>
+          <t>+5521971985918</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+555194713402</t>
+          <t>+5511982403910</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -732,12 +732,12 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5511979869629</t>
+          <t>+555194713402</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+553491497775</t>
+          <t>+5511979869629</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -766,12 +766,12 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+5511952202576</t>
+          <t>+553491497775</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -783,12 +783,12 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+556496241313</t>
+          <t>+5511952202576</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -800,12 +800,12 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5521966659271</t>
+          <t>+556496241313</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5511958383006</t>
+          <t>+5521966659271</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -834,12 +834,12 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+5512982473711</t>
+          <t>+5511958383006</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -851,12 +851,12 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+555193033662</t>
+          <t>+5512982473711</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -868,29 +868,29 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+5511932101366</t>
+          <t>+555193033662</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+553298344288</t>
+          <t>+5511932101366</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+5519999605608</t>
+          <t>+553298344288</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -919,27 +919,31 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+5511989074358</t>
+          <t>+5519999605608</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+56996163824</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr"/>
+          <t>+5511989074358</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
           <t>2024-10-06</t>
@@ -949,14 +953,10 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+5511986610154</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>+56996163824</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr"/>
       <c r="C30" s="2" t="inlineStr">
         <is>
           <t>2024-10-06</t>
@@ -966,7 +966,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+5511981755261</t>
+          <t>+5511986610154</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+5511970224460</t>
+          <t>+5511981755261</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1000,12 +1000,12 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+553183201160</t>
+          <t>+5511970224460</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -1017,12 +1017,12 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+5511992576005</t>
+          <t>+553183201160</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
@@ -1034,29 +1034,29 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+5519997544249</t>
+          <t>+5511992576005</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+555384745327</t>
+          <t>+5519997544249</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -1068,12 +1068,12 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+5514996501813</t>
+          <t>+555384745327</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -1085,12 +1085,12 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+5511972435655</t>
+          <t>+5514996501813</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
@@ -1102,12 +1102,12 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+5521976709956</t>
+          <t>+5511972435655</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -1680,12 +1680,12 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+553898315347</t>
+          <t>+5511996339968</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
@@ -1697,12 +1697,12 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+5511996339968</t>
+          <t>+553899926253</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
@@ -1714,12 +1714,12 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+553899926253</t>
+          <t>+555596010082</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
@@ -1731,12 +1731,12 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+555596010082</t>
+          <t>+5521984364734</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
@@ -1748,12 +1748,12 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+5521984364734</t>
+          <t>+5511964334834</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
@@ -1765,12 +1765,12 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+5511964334834</t>
+          <t>+553196748836</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
@@ -1782,12 +1782,12 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+553196748836</t>
+          <t>+556196182173</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
@@ -1799,12 +1799,12 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+556196182173</t>
+          <t>+5515988279142</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
@@ -1816,12 +1816,12 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+5515988279142</t>
+          <t>+551974071078</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+551974071078</t>
+          <t>+5511943458186</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
@@ -1850,12 +1850,12 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+5511943458186</t>
+          <t>+553175675075</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
@@ -1867,12 +1867,12 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+553175675075</t>
+          <t>+558186914048</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
@@ -1884,12 +1884,12 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+558186914048</t>
+          <t>+5514997419977</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
@@ -1901,12 +1901,12 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+553898196155</t>
+          <t>+5511964838163</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
@@ -1918,46 +1918,46 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+5514997419977</t>
+          <t>+555191485515</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+5511964838163</t>
+          <t>+5521989929657</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+555191485515</t>
+          <t>+5511986633336</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
@@ -1969,12 +1969,12 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+5519983005530</t>
+          <t>+5511963264394</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
@@ -1986,12 +1986,12 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+5511930120190</t>
+          <t>+555399629079</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
@@ -2003,12 +2003,12 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+554799404683</t>
+          <t>+555194536598</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
@@ -2020,12 +2020,12 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+5521989929657</t>
+          <t>+5516991290210</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+5511986633336</t>
+          <t>+5511985014090</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
@@ -2054,7 +2054,7 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+5511965540947</t>
+          <t>+5511971885642</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -2071,12 +2071,12 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+5511963264394</t>
+          <t>+556192235590</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
@@ -2088,12 +2088,12 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+555399629079</t>
+          <t>+553197910058</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
@@ -2105,12 +2105,12 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+555194536598</t>
+          <t>+5511945037623</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+5516991290210</t>
+          <t>+558586569439</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
@@ -2139,7 +2139,7 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+5511985014090</t>
+          <t>+5511971176538</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
@@ -2156,12 +2156,12 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+555195148251</t>
+          <t>+5511934629890</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
@@ -2173,483 +2173,483 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+5511998608825</t>
+          <t>+5521971413810</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+5521985463090</t>
+          <t>+5511986546912</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+5511971885642</t>
+          <t>+553171606494</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+556192235590</t>
+          <t>+553171858800</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+553197910058</t>
+          <t>+5513996171453</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+555196847608</t>
+          <t>+556191917174</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+5511945037623</t>
+          <t>+555181699628</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+5511986092299</t>
+          <t>+558994526750</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+556293091196</t>
+          <t>+5522999490720</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+5521980732023</t>
+          <t>+5515996341306</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+558586569439</t>
+          <t>+555492618052</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+5511984289529</t>
+          <t>+5512991532012</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+5511971176538</t>
+          <t>+556293410347</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+5511934629890</t>
+          <t>+553171722790</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+5521971413810</t>
+          <t>+555186041958</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+5511986546912</t>
+          <t>+5522999557124</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+553171606494</t>
+          <t>+5511956194781</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+553171858800</t>
+          <t>+5511949693265</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+5513996171453</t>
+          <t>+553399550487</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+556191917174</t>
+          <t>+555193334094</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+555181699628</t>
+          <t>+553191181765</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+558994526750</t>
+          <t>+553492868099</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+5522988764337</t>
+          <t>+556198163313</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+5522999490720</t>
+          <t>+556286223947</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+5511959161877</t>
+          <t>+5522992578488</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+5515996341306</t>
+          <t>+5519981594572</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+555492618052</t>
+          <t>+556196054585</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+5512991532012</t>
+          <t>+5511987670856</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+556293410347</t>
+          <t>+556296704284</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
@@ -2659,320 +2659,320 @@
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+553171722790</t>
+          <t>+5511993877662</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+555186041958</t>
+          <t>+5511959898968</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+5522999557124</t>
+          <t>+5519999136362</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+5511956194781</t>
+          <t>+5519993254501</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+5511949693265</t>
+          <t>+556384939482</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+553399550487</t>
+          <t>+553187320810</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+555193334094</t>
+          <t>+5511966134418</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+553191181765</t>
+          <t>+5511930092193</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+553492868099</t>
+          <t>+5521977601201</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+556198163313</t>
+          <t>+553897450448</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+556286223947</t>
+          <t>+553899341338</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+5522992578488</t>
+          <t>+5521965730495</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+5519981594572</t>
+          <t>+5512996345540</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+556196054585</t>
+          <t>+553284127574</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+5511987670856</t>
+          <t>+553384499379</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+556293568821</t>
+          <t>+5511945704788</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+556296704284</t>
+          <t>+5522999416651</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+5511993877662</t>
+          <t>+553496487520</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+5511959898968</t>
+          <t>+5511953903531</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
@@ -2982,286 +2982,286 @@
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+5519999136362</t>
+          <t>+5511963380338</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+5519993254501</t>
+          <t>+556181106946</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+556384939482</t>
+          <t>+5521966430435</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+553187320810</t>
+          <t>+5517981343490</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+5517992750891</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+5511930092193</t>
+          <t>+556194435831</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+5521977601201</t>
+          <t>+556192815706</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+553897450448</t>
+          <t>+555194681350</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+553899341338</t>
+          <t>+5521990024205</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+5521965730495</t>
+          <t>+5516993340146</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+5512996345540</t>
+          <t>+5511969710184</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+553284127574</t>
+          <t>+555184228607</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+553384499379</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+5511945704788</t>
+          <t>+5516991501083</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+5522999416651</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+553496487520</t>
+          <t>+5519974133120</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+5511953903531</t>
+          <t>+5511971165356</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
@@ -3271,116 +3271,116 @@
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+5511963380338</t>
+          <t>+5528999143242</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+556181106946</t>
+          <t>+5521992992344</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+5521966430435</t>
+          <t>+553199111438</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+5517981343490</t>
+          <t>+5511991868062</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+5517992750891</t>
+          <t>+5521965163770</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+5521988953632</t>
+          <t>+556191281418</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+5511977696904</t>
+          <t>+5511970484790</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
@@ -3390,82 +3390,82 @@
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+556194435831</t>
+          <t>+553888359308</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+556192815706</t>
+          <t>+5519999395027</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+555194681350</t>
+          <t>+553187556222</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+5516993340146</t>
+          <t>+556181344711</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+5511969710184</t>
+          <t>+5511937138186</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
@@ -3475,99 +3475,99 @@
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+555184228607</t>
+          <t>+553175235564</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+5521970987542</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+5516991501083</t>
+          <t>+553398575480</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+553193590683</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+5519974133120</t>
+          <t>+5522997230806</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+5511971165356</t>
+          <t>+5511985698796</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
@@ -3577,31 +3577,31 @@
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+5528999143242</t>
+          <t>+5521965096539</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+5521992992344</t>
+          <t>+5521986678801</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
@@ -3611,48 +3611,48 @@
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+553599864153</t>
+          <t>+555197496105</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+5521976969000</t>
+          <t>+5511947650170</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+553199111438</t>
+          <t>+553191829450</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
@@ -3662,14 +3662,14 @@
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+5511991868062</t>
+          <t>+5511976440031</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
@@ -3679,31 +3679,31 @@
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+5521965163770</t>
+          <t>+556293286544</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+556191281418</t>
+          <t>+556194662595</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
@@ -3713,99 +3713,99 @@
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+5511970484790</t>
+          <t>+555181664215</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+553888359308</t>
+          <t>+5521978927776</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+5519999395027</t>
+          <t>+553499089476</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+553187556222</t>
+          <t>+5524999964686</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+556181344711</t>
+          <t>+5514997100570</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+5511937138186</t>
+          <t>+5511956996383</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
@@ -3815,235 +3815,235 @@
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+553175235564</t>
+          <t>+5524999215405</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+5521970987542</t>
+          <t>+5513974102524</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+553398575480</t>
+          <t>+5511985663846</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>+553193590683</t>
+          <t>+5521997117322</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>+5519999480730</t>
+          <t>+555185802949</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>+5522997230806</t>
+          <t>+5519997204476</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>+5511985698796</t>
+          <t>+556296767169</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>+5521965096539</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>+5521986678801</t>
+          <t>+5511960197823</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>+555197496105</t>
+          <t>+5516993905706</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>+5511947650170</t>
+          <t>+555491229014</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>+5521965396788</t>
+          <t>+553183316751</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>+553191829450</t>
+          <t>+5511960297061</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>+5511976440031</t>
+          <t>+5511967618163</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
@@ -4053,65 +4053,65 @@
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>+556195931183</t>
+          <t>+5511953782520</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>+556293286544</t>
+          <t>+555194565879</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>+553399068179</t>
+          <t>+5519987116584</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>+5511939479374</t>
+          <t>+5511963669553</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
@@ -4121,388 +4121,388 @@
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>+556194662595</t>
+          <t>+5511967026448</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>+555181664215</t>
+          <t>+556198857512</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>+5521978927776</t>
+          <t>+5511970838412</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>+553484319009</t>
+          <t>+553597695870</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>+553499089476</t>
+          <t>+5519994161076</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>+5524999964686</t>
+          <t>+5512974073721</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>+556293941304</t>
+          <t>+553899272884</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>+5514997100570</t>
+          <t>+555185474443</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>+5511956996383</t>
+          <t>+5513974277521</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>+5524999215405</t>
+          <t>+5511959480908</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>+5513974102524</t>
+          <t>+553173039716</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>+5511985663846</t>
+          <t>+5519983138652</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>+5521997117322</t>
+          <t>+5516981621753</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C229" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>+555185802949</t>
+          <t>+5513996269435</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>+5519997204476</t>
+          <t>+5511946858778</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>+555185452466</t>
+          <t>+553498008945</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>+556296767169</t>
+          <t>+5521965489343</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>+5521973809282</t>
+          <t>+555198093042</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>+553399941825</t>
+          <t>+5519992746058</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>+555199100909</t>
+          <t>+5511959327333</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>+5511951575822</t>
+          <t>+5519991342511</t>
         </is>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C237" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>+5517982091490</t>
+          <t>+5511910662570</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>+5511960197823</t>
+          <t>+5511979754910</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
@@ -4512,252 +4512,252 @@
       </c>
       <c r="C239" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>+5516993905706</t>
+          <t>+5519984563784</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>+555491229014</t>
+          <t>+5524978358315</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>+553183316751</t>
+          <t>+5521964816197</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>+5511960297061</t>
+          <t>+554497202222</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>+5511967618163</t>
+          <t>+553187980853</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>+5511953782520</t>
+          <t>+555191226749</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>+555194565879</t>
+          <t>+5511982048012</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>+5519987116584</t>
+          <t>+5511960946166</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>+5511963669553</t>
+          <t>+5519991426273</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>+5511967026448</t>
+          <t>+5519981472020</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C249" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>+556198857512</t>
+          <t>+5521978835599</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>+5511970838412</t>
+          <t>+555180176562</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>+553597695870</t>
+          <t>+5511942185569</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>+5517997886011</t>
+          <t>+5511947261969</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>+5519994161076</t>
+          <t>+5519992124887</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
@@ -4767,82 +4767,82 @@
       </c>
       <c r="C254" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>+5512974073721</t>
+          <t>+553195359312</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>+553899272884</t>
+          <t>+5511962993512</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>+555185474443</t>
+          <t>+5511993564173</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>+5513974277521</t>
+          <t>+553391919105</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>+5511959480908</t>
+          <t>+5511985800906</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
@@ -4852,31 +4852,31 @@
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>+553173039716</t>
+          <t>+5511959248300</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>+5519983138652</t>
+          <t>+5519994486599</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
@@ -4886,133 +4886,133 @@
       </c>
       <c r="C261" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>+5516981621753</t>
+          <t>+5511987774053</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>+5513996269435</t>
+          <t>+5521985109311</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>+5511946858778</t>
+          <t>+553184640938</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>+553498008945</t>
+          <t>+5521990575799</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+555191899807</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>+555198093042</t>
+          <t>+556194027204</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>+5519992746058</t>
+          <t>+5516999494445</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>+5511959327333</t>
+          <t>+5511952489850</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
@@ -5022,31 +5022,31 @@
       </c>
       <c r="C269" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>+5519991342511</t>
+          <t>+5521981400589</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>+5511910662570</t>
+          <t>+5511957982446</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
@@ -5056,14 +5056,14 @@
       </c>
       <c r="C271" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>+5511979754910</t>
+          <t>+5511948883579</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
@@ -5073,235 +5073,235 @@
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>+5519984563784</t>
+          <t>+555197184596</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>+5524978358315</t>
+          <t>+556284316928</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>+5521964816197</t>
+          <t>+5511983534806</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>+554497202222</t>
+          <t>+5511974919907</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>+553187980853</t>
+          <t>+553298585881</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C277" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>+555191226749</t>
+          <t>+5511996693536</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C278" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>+5511982048012</t>
+          <t>+553196634240</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>+5511960946166</t>
+          <t>+555186391577</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>+5519991426273</t>
+          <t>+555194687691</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>+5519981472020</t>
+          <t>+5511913167865</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C282" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>+5521978835599</t>
+          <t>+5511978691664</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>+555180176562</t>
+          <t>+553497201121</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C284" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>+5511942185569</t>
+          <t>+558881220317</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C285" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>+5511947261969</t>
+          <t>+5511952172793</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
@@ -5311,48 +5311,48 @@
       </c>
       <c r="C286" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>+5519992124887</t>
+          <t>+5513997769440</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>+553195359312</t>
+          <t>+5511989993229</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C288" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>+5511962993512</t>
+          <t>+5511994902251</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
@@ -5362,133 +5362,133 @@
       </c>
       <c r="C289" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>+5511993564173</t>
+          <t>+5519993039822</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C290" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>+553391919105</t>
+          <t>+5511990067914</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>+5511985800906</t>
+          <t>+5521966715011</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>+5511959248300</t>
+          <t>+5521965551832</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C293" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>+5519994486599</t>
+          <t>+5512978144084</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C294" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>+556286415391</t>
+          <t>+555496011266</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>+5511987774053</t>
+          <t>+5521965910269</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+5521981376833</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
@@ -5498,99 +5498,99 @@
       </c>
       <c r="C297" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>+553184640938</t>
+          <t>+5511986157257</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>+5521990575799</t>
+          <t>+5512996683720</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>+555191899807</t>
+          <t>+5514996744793</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>+556194027204</t>
+          <t>+555199788369</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>+5516999494445</t>
+          <t>+553199854571</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C302" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>+5511952489850</t>
+          <t>+5511932110481</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
@@ -5600,218 +5600,218 @@
       </c>
       <c r="C303" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>+5521981400589</t>
+          <t>+556193189092</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C304" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>+5511957982446</t>
+          <t>+5517992036626</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C305" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>+5511948883579</t>
+          <t>+553199616643</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-02</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>+555197184596</t>
+          <t>+5521977008499</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C307" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-02</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>+556284316928</t>
+          <t>+5521977084479</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-02</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>+5511983534806</t>
+          <t>+553496442965</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C309" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>+5511974919907</t>
+          <t>+5518997151251</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C310" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>+553298585881</t>
+          <t>+556198606157</t>
         </is>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>+5511996693536</t>
+          <t>+555195284929</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>+553196634240</t>
+          <t>+5511987594244</t>
         </is>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>+555186391577</t>
+          <t>+5511959227230</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C314" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-08-29</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>+555194687691</t>
+          <t>+555599102946</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-08-28</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>+5511913167865</t>
+          <t>+5511970726796</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
@@ -5821,634 +5821,39 @@
       </c>
       <c r="C316" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-08-28</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>+5511978691664</t>
+          <t>+5519996017926</t>
         </is>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C317" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-08-27</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>+553497201121</t>
+          <t>+5511949288154</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C318" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="2" t="inlineStr">
-        <is>
-          <t>+558881220317</t>
-        </is>
-      </c>
-      <c r="B319" s="2" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="C319" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="2" t="inlineStr">
-        <is>
-          <t>+5511952172793</t>
-        </is>
-      </c>
-      <c r="B320" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C320" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="2" t="inlineStr">
-        <is>
-          <t>+5513997769440</t>
-        </is>
-      </c>
-      <c r="B321" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="C321" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="2" t="inlineStr">
-        <is>
-          <t>+5511989993229</t>
-        </is>
-      </c>
-      <c r="B322" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C322" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="2" t="inlineStr">
-        <is>
-          <t>+5511994902251</t>
-        </is>
-      </c>
-      <c r="B323" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C323" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="2" t="inlineStr">
-        <is>
-          <t>+5519993039822</t>
-        </is>
-      </c>
-      <c r="B324" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="C324" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="2" t="inlineStr">
-        <is>
-          <t>+5511990067914</t>
-        </is>
-      </c>
-      <c r="B325" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C325" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="2" t="inlineStr">
-        <is>
-          <t>+5521966715011</t>
-        </is>
-      </c>
-      <c r="B326" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C326" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="2" t="inlineStr">
-        <is>
-          <t>+5521965551832</t>
-        </is>
-      </c>
-      <c r="B327" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C327" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="2" t="inlineStr">
-        <is>
-          <t>+5512978144084</t>
-        </is>
-      </c>
-      <c r="B328" s="2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C328" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="2" t="inlineStr">
-        <is>
-          <t>+555496011266</t>
-        </is>
-      </c>
-      <c r="B329" s="2" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="C329" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="2" t="inlineStr">
-        <is>
-          <t>+5521965910269</t>
-        </is>
-      </c>
-      <c r="B330" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C330" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="2" t="inlineStr">
-        <is>
-          <t>+5521981376833</t>
-        </is>
-      </c>
-      <c r="B331" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C331" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="2" t="inlineStr">
-        <is>
-          <t>+5511986157257</t>
-        </is>
-      </c>
-      <c r="B332" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C332" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="2" t="inlineStr">
-        <is>
-          <t>+5512996683720</t>
-        </is>
-      </c>
-      <c r="B333" s="2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C333" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="2" t="inlineStr">
-        <is>
-          <t>+5514996744793</t>
-        </is>
-      </c>
-      <c r="B334" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="C334" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="2" t="inlineStr">
-        <is>
-          <t>+555199788369</t>
-        </is>
-      </c>
-      <c r="B335" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="C335" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="2" t="inlineStr">
-        <is>
-          <t>+553199854571</t>
-        </is>
-      </c>
-      <c r="B336" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="C336" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="2" t="inlineStr">
-        <is>
-          <t>+5511932110481</t>
-        </is>
-      </c>
-      <c r="B337" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C337" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="2" t="inlineStr">
-        <is>
-          <t>+556193189092</t>
-        </is>
-      </c>
-      <c r="B338" s="2" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="C338" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="2" t="inlineStr">
-        <is>
-          <t>+5517992036626</t>
-        </is>
-      </c>
-      <c r="B339" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C339" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="2" t="inlineStr">
-        <is>
-          <t>+553199616643</t>
-        </is>
-      </c>
-      <c r="B340" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="C340" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="2" t="inlineStr">
-        <is>
-          <t>+5521977008499</t>
-        </is>
-      </c>
-      <c r="B341" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C341" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="2" t="inlineStr">
-        <is>
-          <t>+5521977084479</t>
-        </is>
-      </c>
-      <c r="B342" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C342" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="2" t="inlineStr">
-        <is>
-          <t>+553496442965</t>
-        </is>
-      </c>
-      <c r="B343" s="2" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="C343" s="2" t="inlineStr">
-        <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="2" t="inlineStr">
-        <is>
-          <t>+5511997041769</t>
-        </is>
-      </c>
-      <c r="B344" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C344" s="2" t="inlineStr">
-        <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="2" t="inlineStr">
-        <is>
-          <t>+5518997151251</t>
-        </is>
-      </c>
-      <c r="B345" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="C345" s="2" t="inlineStr">
-        <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="2" t="inlineStr">
-        <is>
-          <t>+556198606157</t>
-        </is>
-      </c>
-      <c r="B346" s="2" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="C346" s="2" t="inlineStr">
-        <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="2" t="inlineStr">
-        <is>
-          <t>+555195284929</t>
-        </is>
-      </c>
-      <c r="B347" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="C347" s="2" t="inlineStr">
-        <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="2" t="inlineStr">
-        <is>
-          <t>+5511987594244</t>
-        </is>
-      </c>
-      <c r="B348" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C348" s="2" t="inlineStr">
-        <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="2" t="inlineStr">
-        <is>
-          <t>+5511959227230</t>
-        </is>
-      </c>
-      <c r="B349" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C349" s="2" t="inlineStr">
-        <is>
-          <t>2024-08-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="2" t="inlineStr">
-        <is>
-          <t>+555599102946</t>
-        </is>
-      </c>
-      <c r="B350" s="2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="C350" s="2" t="inlineStr">
-        <is>
-          <t>2024-08-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="2" t="inlineStr">
-        <is>
-          <t>+5511970726796</t>
-        </is>
-      </c>
-      <c r="B351" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C351" s="2" t="inlineStr">
-        <is>
-          <t>2024-08-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="2" t="inlineStr">
-        <is>
-          <t>+5519996017926</t>
-        </is>
-      </c>
-      <c r="B352" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="C352" s="2" t="inlineStr">
-        <is>
-          <t>2024-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="2" t="inlineStr">
-        <is>
-          <t>+5511949288154</t>
-        </is>
-      </c>
-      <c r="B353" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C353" s="2" t="inlineStr">
         <is>
           <t>2024-08-26</t>
         </is>

--- a/gabi.xlsx
+++ b/gabi.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C318"/>
+  <dimension ref="A1:C320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,92 +477,92 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+5522992752597</t>
+          <t>+555192717667</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5511911086295</t>
+          <t>+5522997104652</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5511999318706</t>
+          <t>+5522992752597</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+5521992761358</t>
+          <t>+5511911086295</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+556198289593</t>
+          <t>+5511999318706</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5521979898353</t>
+          <t>+5521992761358</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -572,19 +572,19 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5511951735066</t>
+          <t>+556198289593</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5521968066779</t>
+          <t>+5521979898353</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -613,7 +613,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5511940052132</t>
+          <t>+5511951735066</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -630,12 +630,12 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+555584586767</t>
+          <t>+5521968066779</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5511959504956</t>
+          <t>+5511940052132</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -657,36 +657,36 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5519991884271</t>
+          <t>+555584586767</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5521999546007</t>
+          <t>+5511959504956</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5521971985918</t>
+          <t>+5519991884271</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5511982403910</t>
+          <t>+5521999546007</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -732,12 +732,12 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+555194713402</t>
+          <t>+5521971985918</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+5511979869629</t>
+          <t>+5511982403910</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -766,12 +766,12 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+553491497775</t>
+          <t>+555194713402</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -783,7 +783,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5511952202576</t>
+          <t>+5511979869629</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -800,12 +800,12 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+556496241313</t>
+          <t>+553491497775</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5521966659271</t>
+          <t>+5511952202576</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -834,12 +834,12 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+5511958383006</t>
+          <t>+556496241313</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -851,12 +851,12 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+5512982473711</t>
+          <t>+5521966659271</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+555193033662</t>
+          <t>+5511958383006</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -885,46 +885,46 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+5511932101366</t>
+          <t>+5512982473711</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+553298344288</t>
+          <t>+555193033662</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+5519999605608</t>
+          <t>+5511932101366</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -936,37 +936,41 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5511989074358</t>
+          <t>+553298344288</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+56996163824</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr"/>
+          <t>+5519999605608</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+5511986610154</t>
+          <t>+5511989074358</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -983,14 +987,10 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+5511981755261</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>+56996163824</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
           <t>2024-10-06</t>
@@ -1000,7 +1000,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+5511970224460</t>
+          <t>+5511986610154</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1017,12 +1017,12 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+553183201160</t>
+          <t>+5511981755261</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
@@ -1034,7 +1034,7 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+5511992576005</t>
+          <t>+5511970224460</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -1051,46 +1051,46 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+5519997544249</t>
+          <t>+553183201160</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+555384745327</t>
+          <t>+5511992576005</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+5514996501813</t>
+          <t>+5519997544249</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
@@ -1102,12 +1102,12 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+5511972435655</t>
+          <t>+555384745327</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -1119,12 +1119,12 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+5511946397297</t>
+          <t>+5514996501813</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -1136,12 +1136,12 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+553397075362</t>
+          <t>+5511972435655</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
@@ -1153,12 +1153,12 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+5513991020783</t>
+          <t>+5511946397297</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -1170,12 +1170,12 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+5521969440520</t>
+          <t>+553397075362</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -1187,12 +1187,12 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+553193672938</t>
+          <t>+5513991020783</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -1204,12 +1204,12 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+5522981479241</t>
+          <t>+5521969440520</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -1221,12 +1221,12 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+5521979251504</t>
+          <t>+553193672938</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+556198475033</t>
+          <t>+5522981479241</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -1255,12 +1255,12 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+5516992236142</t>
+          <t>+5521979251504</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -1272,12 +1272,12 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+5511948893274</t>
+          <t>+556198475033</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -1289,12 +1289,12 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+5521968278744</t>
+          <t>+5516992236142</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -1306,12 +1306,12 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+555196384525</t>
+          <t>+5511948893274</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
@@ -1323,80 +1323,80 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+5511972915535</t>
+          <t>+5521968278744</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+553180135415</t>
+          <t>+555196384525</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+5521992200288</t>
+          <t>+5511972915535</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+556196779704</t>
+          <t>+553180135415</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+5511915810965</t>
+          <t>+5521992200288</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
@@ -1408,12 +1408,12 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+5521981348191</t>
+          <t>+556196779704</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -1425,12 +1425,12 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+5524999461825</t>
+          <t>+5511915810965</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -1442,12 +1442,12 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+556196698353</t>
+          <t>+5521981348191</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
@@ -1459,12 +1459,12 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+5513996671783</t>
+          <t>+5524999461825</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
@@ -1476,12 +1476,12 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+5518996829002</t>
+          <t>+556196698353</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -1493,12 +1493,12 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+5511991871576</t>
+          <t>+5513996671783</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
@@ -1510,12 +1510,12 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+5514981509955</t>
+          <t>+5518996829002</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
@@ -1527,12 +1527,12 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+555184777056</t>
+          <t>+5511991871576</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
@@ -1544,12 +1544,12 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+5513991081873</t>
+          <t>+5514981509955</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
@@ -1561,7 +1561,7 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+555197040253</t>
+          <t>+555184777056</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -1578,46 +1578,46 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+5511977945054</t>
+          <t>+5513991081873</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+553496724472</t>
+          <t>+555197040253</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+553186960521</t>
+          <t>+5511977945054</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -1629,12 +1629,12 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+5511978823483</t>
+          <t>+553496724472</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -1646,12 +1646,12 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+5516988023377</t>
+          <t>+553186960521</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
@@ -1663,12 +1663,12 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+553492249633</t>
+          <t>+5511978823483</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
@@ -1680,12 +1680,12 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+5511996339968</t>
+          <t>+5516988023377</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
@@ -1697,12 +1697,12 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+553899926253</t>
+          <t>+553492249633</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
@@ -1714,12 +1714,12 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+555596010082</t>
+          <t>+5511996339968</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
@@ -1731,12 +1731,12 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+5521984364734</t>
+          <t>+553899926253</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
@@ -1748,12 +1748,12 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+5511964334834</t>
+          <t>+555596010082</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
@@ -1765,12 +1765,12 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+553196748836</t>
+          <t>+5521984364734</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
@@ -1782,12 +1782,12 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+556196182173</t>
+          <t>+5511964334834</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
@@ -1799,12 +1799,12 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+5515988279142</t>
+          <t>+553196748836</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
@@ -1816,12 +1816,12 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+551974071078</t>
+          <t>+556196182173</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+5511943458186</t>
+          <t>+5515988279142</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
@@ -1850,12 +1850,12 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+553175675075</t>
+          <t>+551974071078</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
@@ -1867,12 +1867,12 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+558186914048</t>
+          <t>+5511943458186</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
@@ -1884,12 +1884,12 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+5514997419977</t>
+          <t>+553175675075</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
@@ -1901,12 +1901,12 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+5511964838163</t>
+          <t>+558186914048</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
@@ -1918,46 +1918,46 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+555191485515</t>
+          <t>+5514997419977</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+5521989929657</t>
+          <t>+5511964838163</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+5511986633336</t>
+          <t>+555191485515</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
@@ -1969,12 +1969,12 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+5511963264394</t>
+          <t>+5521989929657</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
@@ -1986,12 +1986,12 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+555399629079</t>
+          <t>+5511986633336</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
@@ -2003,12 +2003,12 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+555194536598</t>
+          <t>+5511963264394</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
@@ -2020,12 +2020,12 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+5516991290210</t>
+          <t>+555399629079</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
@@ -2037,12 +2037,12 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+5511985014090</t>
+          <t>+555194536598</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
@@ -2054,12 +2054,12 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+5511971885642</t>
+          <t>+5516991290210</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
@@ -2071,12 +2071,12 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+556192235590</t>
+          <t>+5511985014090</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
@@ -2088,12 +2088,12 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+553197910058</t>
+          <t>+5511971885642</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
@@ -2105,12 +2105,12 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+5511945037623</t>
+          <t>+556192235590</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+558586569439</t>
+          <t>+553197910058</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
@@ -2139,7 +2139,7 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+5511971176538</t>
+          <t>+5511945037623</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
@@ -2156,12 +2156,12 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+5511934629890</t>
+          <t>+558586569439</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
@@ -2173,24 +2173,24 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+5521971413810</t>
+          <t>+5511971176538</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+5511986546912</t>
+          <t>+5511934629890</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
@@ -2200,19 +2200,19 @@
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+553171606494</t>
+          <t>+5521971413810</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
@@ -2224,12 +2224,12 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+553171858800</t>
+          <t>+5511986546912</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
@@ -2241,12 +2241,12 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+5513996171453</t>
+          <t>+553171606494</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
@@ -2258,12 +2258,12 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+556191917174</t>
+          <t>+553171858800</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
@@ -2275,12 +2275,12 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+555181699628</t>
+          <t>+5513996171453</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
@@ -2292,12 +2292,12 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+558994526750</t>
+          <t>+556191917174</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
@@ -2309,12 +2309,12 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+5522999490720</t>
+          <t>+555181699628</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
@@ -2326,12 +2326,12 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+5515996341306</t>
+          <t>+558994526750</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
@@ -2343,12 +2343,12 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+555492618052</t>
+          <t>+5522999490720</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
@@ -2360,12 +2360,12 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+5512991532012</t>
+          <t>+5515996341306</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
@@ -2377,12 +2377,12 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+556293410347</t>
+          <t>+555492618052</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
@@ -2394,46 +2394,46 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+553171722790</t>
+          <t>+5512991532012</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+555186041958</t>
+          <t>+556293410347</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+5522999557124</t>
+          <t>+553171722790</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
@@ -2445,46 +2445,46 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+5511956194781</t>
+          <t>+555186041958</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+5511949693265</t>
+          <t>+5522999557124</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+553399550487</t>
+          <t>+5511956194781</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
@@ -2496,46 +2496,46 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+555193334094</t>
+          <t>+5511949693265</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+553191181765</t>
+          <t>+553399550487</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+553492868099</t>
+          <t>+555193334094</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
@@ -2547,12 +2547,12 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+556198163313</t>
+          <t>+553191181765</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
@@ -2564,12 +2564,12 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+556286223947</t>
+          <t>+553492868099</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
@@ -2581,12 +2581,12 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+5522992578488</t>
+          <t>+556198163313</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
@@ -2598,46 +2598,46 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+5519981594572</t>
+          <t>+556286223947</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+556196054585</t>
+          <t>+5522992578488</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+5511987670856</t>
+          <t>+5519981594572</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
@@ -2649,24 +2649,24 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+556296704284</t>
+          <t>+556196054585</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+5511993877662</t>
+          <t>+5511987670856</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
@@ -2676,19 +2676,19 @@
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+5511959898968</t>
+          <t>+556296704284</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
@@ -2700,46 +2700,46 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+5519999136362</t>
+          <t>+5511993877662</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+5519993254501</t>
+          <t>+5511959898968</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+556384939482</t>
+          <t>+5519999136362</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
@@ -2751,12 +2751,12 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+553187320810</t>
+          <t>+5519993254501</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
@@ -2768,12 +2768,12 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+556384939482</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
@@ -2785,12 +2785,12 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+5511930092193</t>
+          <t>+553187320810</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
@@ -2802,12 +2802,12 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+5521977601201</t>
+          <t>+5511966134418</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
@@ -2819,46 +2819,46 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+553897450448</t>
+          <t>+5511930092193</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+553899341338</t>
+          <t>+5521977601201</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+5521965730495</t>
+          <t>+553897450448</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
@@ -2870,46 +2870,46 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+5512996345540</t>
+          <t>+553899341338</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+553284127574</t>
+          <t>+5521965730495</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+553384499379</t>
+          <t>+5512996345540</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
@@ -2921,12 +2921,12 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+5511945704788</t>
+          <t>+553284127574</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
@@ -2938,46 +2938,46 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+5522999416651</t>
+          <t>+553384499379</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+553496487520</t>
+          <t>+5511945704788</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+5511953903531</t>
+          <t>+5522999416651</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
@@ -2989,12 +2989,12 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+5511963380338</t>
+          <t>+553496487520</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
@@ -3006,12 +3006,12 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+556181106946</t>
+          <t>+5511953903531</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
@@ -3023,12 +3023,12 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+5521966430435</t>
+          <t>+5511963380338</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
@@ -3040,46 +3040,46 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+5517981343490</t>
+          <t>+556181106946</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+5517992750891</t>
+          <t>+5521966430435</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+556194435831</t>
+          <t>+5517981343490</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
@@ -3091,12 +3091,12 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+556192815706</t>
+          <t>+5517992750891</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
@@ -3108,46 +3108,46 @@
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+555194681350</t>
+          <t>+556194435831</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+5521990024205</t>
+          <t>+556192815706</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+5516993340146</t>
+          <t>+555194681350</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
@@ -3159,12 +3159,12 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+5511969710184</t>
+          <t>+5521990024205</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
@@ -3176,46 +3176,46 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+555184228607</t>
+          <t>+5516993340146</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+5511969710184</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+5516991501083</t>
+          <t>+555184228607</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
@@ -3227,7 +3227,7 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
@@ -3244,12 +3244,12 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+5519974133120</t>
+          <t>+5516991501083</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
@@ -3261,12 +3261,12 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+5511971165356</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
@@ -3278,12 +3278,12 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+5528999143242</t>
+          <t>+5519974133120</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
@@ -3295,12 +3295,12 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+5521992992344</t>
+          <t>+5511971165356</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
@@ -3312,12 +3312,12 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+553199111438</t>
+          <t>+5528999143242</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
@@ -3329,46 +3329,46 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+5511991868062</t>
+          <t>+5521992992344</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+5521965163770</t>
+          <t>+553199111438</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+556191281418</t>
+          <t>+5511991868062</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
@@ -3380,12 +3380,12 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+5511970484790</t>
+          <t>+5521965163770</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
@@ -3397,12 +3397,12 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+553888359308</t>
+          <t>+556191281418</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
@@ -3414,12 +3414,12 @@
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+5519999395027</t>
+          <t>+5511970484790</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
@@ -3431,12 +3431,12 @@
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+553187556222</t>
+          <t>+553888359308</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
@@ -3448,12 +3448,12 @@
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+556181344711</t>
+          <t>+5519999395027</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
@@ -3465,12 +3465,12 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+5511937138186</t>
+          <t>+553187556222</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
@@ -3482,12 +3482,12 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+553175235564</t>
+          <t>+556181344711</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
@@ -3499,12 +3499,12 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+5521970987542</t>
+          <t>+5511937138186</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
@@ -3516,12 +3516,12 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+553398575480</t>
+          <t>+553175235564</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
@@ -3533,46 +3533,46 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+553193590683</t>
+          <t>+5521970987542</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+5522997230806</t>
+          <t>+553398575480</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+5511985698796</t>
+          <t>+553193590683</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
@@ -3584,12 +3584,12 @@
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+5521965096539</t>
+          <t>+5522997230806</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
@@ -3601,12 +3601,12 @@
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+5521986678801</t>
+          <t>+5511985698796</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
@@ -3618,12 +3618,12 @@
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+555197496105</t>
+          <t>+5521965096539</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
@@ -3635,12 +3635,12 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+5511947650170</t>
+          <t>+5521986678801</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
@@ -3652,12 +3652,12 @@
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+553191829450</t>
+          <t>+555197496105</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
@@ -3669,7 +3669,7 @@
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+5511976440031</t>
+          <t>+5511947650170</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
@@ -3686,12 +3686,12 @@
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+556293286544</t>
+          <t>+553191829450</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
@@ -3703,12 +3703,12 @@
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+556194662595</t>
+          <t>+5511976440031</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
@@ -3720,12 +3720,12 @@
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+555181664215</t>
+          <t>+556293286544</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
@@ -3737,12 +3737,12 @@
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+5521978927776</t>
+          <t>+556194662595</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
@@ -3754,63 +3754,63 @@
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+553499089476</t>
+          <t>+555181664215</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+5524999964686</t>
+          <t>+5521978927776</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+5514997100570</t>
+          <t>+553499089476</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+5511956996383</t>
+          <t>+5524999964686</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
@@ -3822,12 +3822,12 @@
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+5524999215405</t>
+          <t>+5514997100570</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
@@ -3839,12 +3839,12 @@
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+5513974102524</t>
+          <t>+5511956996383</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
@@ -3856,12 +3856,12 @@
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+5511985663846</t>
+          <t>+5524999215405</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
@@ -3873,46 +3873,46 @@
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>+5521997117322</t>
+          <t>+5513974102524</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>+555185802949</t>
+          <t>+5511985663846</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>+5519997204476</t>
+          <t>+5521997117322</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
@@ -3924,12 +3924,12 @@
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>+556296767169</t>
+          <t>+555185802949</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
@@ -3941,12 +3941,12 @@
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>+555199100909</t>
+          <t>+5519997204476</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
@@ -3958,12 +3958,12 @@
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>+5511960197823</t>
+          <t>+556296767169</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
@@ -3975,12 +3975,12 @@
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>+5516993905706</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
@@ -3992,46 +3992,46 @@
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>+555491229014</t>
+          <t>+5511960197823</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>+553183316751</t>
+          <t>+5516993905706</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>+5511960297061</t>
+          <t>+555491229014</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
@@ -4043,12 +4043,12 @@
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>+5511967618163</t>
+          <t>+553183316751</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
@@ -4060,7 +4060,7 @@
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>+5511953782520</t>
+          <t>+5511960297061</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
@@ -4077,12 +4077,12 @@
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>+555194565879</t>
+          <t>+5511967618163</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
@@ -4094,12 +4094,12 @@
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>+5519987116584</t>
+          <t>+5511953782520</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
@@ -4111,12 +4111,12 @@
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>+5511963669553</t>
+          <t>+555194565879</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
@@ -4128,12 +4128,12 @@
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>+5511967026448</t>
+          <t>+5519987116584</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
@@ -4145,12 +4145,12 @@
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>+556198857512</t>
+          <t>+5511963669553</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
@@ -4162,7 +4162,7 @@
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>+5511970838412</t>
+          <t>+5511967026448</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
@@ -4179,12 +4179,12 @@
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>+553597695870</t>
+          <t>+556198857512</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
@@ -4196,12 +4196,12 @@
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>+5519994161076</t>
+          <t>+5511970838412</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
@@ -4213,12 +4213,12 @@
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>+5512974073721</t>
+          <t>+553597695870</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
@@ -4230,12 +4230,12 @@
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>+553899272884</t>
+          <t>+5519994161076</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
@@ -4247,12 +4247,12 @@
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>+555185474443</t>
+          <t>+5512974073721</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
@@ -4264,46 +4264,46 @@
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>+5513974277521</t>
+          <t>+553899272884</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>+5511959480908</t>
+          <t>+555185474443</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>+553173039716</t>
+          <t>+5513974277521</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
@@ -4315,12 +4315,12 @@
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>+5519983138652</t>
+          <t>+5511959480908</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
@@ -4332,12 +4332,12 @@
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>+5516981621753</t>
+          <t>+553173039716</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C229" s="2" t="inlineStr">
@@ -4349,12 +4349,12 @@
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>+5513996269435</t>
+          <t>+5519983138652</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
@@ -4366,12 +4366,12 @@
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>+5511946858778</t>
+          <t>+5516981621753</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
@@ -4383,12 +4383,12 @@
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>+553498008945</t>
+          <t>+5513996269435</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
@@ -4400,12 +4400,12 @@
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+5511946858778</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
@@ -4417,12 +4417,12 @@
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>+555198093042</t>
+          <t>+553498008945</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
@@ -4434,12 +4434,12 @@
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>+5519992746058</t>
+          <t>+5521965489343</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
@@ -4451,12 +4451,12 @@
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>+5511959327333</t>
+          <t>+555198093042</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
@@ -4468,7 +4468,7 @@
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>+5519991342511</t>
+          <t>+5519992746058</t>
         </is>
       </c>
       <c r="B237" s="2" t="inlineStr">
@@ -4485,7 +4485,7 @@
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>+5511910662570</t>
+          <t>+5511959327333</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
@@ -4502,12 +4502,12 @@
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>+5511979754910</t>
+          <t>+5519991342511</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr">
@@ -4519,12 +4519,12 @@
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>+5519984563784</t>
+          <t>+5511910662570</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr">
@@ -4536,12 +4536,12 @@
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>+5524978358315</t>
+          <t>+5511979754910</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
@@ -4553,12 +4553,12 @@
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>+5521964816197</t>
+          <t>+5519984563784</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
@@ -4570,12 +4570,12 @@
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>+554497202222</t>
+          <t>+5524978358315</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
@@ -4587,12 +4587,12 @@
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>+553187980853</t>
+          <t>+5521964816197</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
@@ -4604,12 +4604,12 @@
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>+555191226749</t>
+          <t>+554497202222</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
@@ -4621,12 +4621,12 @@
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>+5511982048012</t>
+          <t>+553187980853</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
@@ -4638,12 +4638,12 @@
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>+5511960946166</t>
+          <t>+555191226749</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
@@ -4655,12 +4655,12 @@
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>+5519991426273</t>
+          <t>+5511982048012</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
@@ -4672,12 +4672,12 @@
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>+5519981472020</t>
+          <t>+5511960946166</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C249" s="2" t="inlineStr">
@@ -4689,12 +4689,12 @@
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>+5521978835599</t>
+          <t>+5519991426273</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
@@ -4706,46 +4706,46 @@
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>+555180176562</t>
+          <t>+5519981472020</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>+5511942185569</t>
+          <t>+5521978835599</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>+5511947261969</t>
+          <t>+555180176562</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr">
@@ -4757,12 +4757,12 @@
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>+5519992124887</t>
+          <t>+5511942185569</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
@@ -4774,12 +4774,12 @@
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>+553195359312</t>
+          <t>+5511947261969</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>+5511962993512</t>
+          <t>+5519992124887</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
@@ -4808,12 +4808,12 @@
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>+5511993564173</t>
+          <t>+553195359312</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
@@ -4825,12 +4825,12 @@
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>+553391919105</t>
+          <t>+5511962993512</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
@@ -4842,7 +4842,7 @@
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>+5511985800906</t>
+          <t>+5511993564173</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
@@ -4859,41 +4859,41 @@
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>+5511959248300</t>
+          <t>+553391919105</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>+5519994486599</t>
+          <t>+5511985800906</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>+5511987774053</t>
+          <t>+5511959248300</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
@@ -4910,12 +4910,12 @@
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+5519994486599</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
@@ -4927,12 +4927,12 @@
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>+553184640938</t>
+          <t>+5511987774053</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
@@ -4944,7 +4944,7 @@
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>+5521990575799</t>
+          <t>+5521985109311</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
@@ -4961,12 +4961,12 @@
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>+555191899807</t>
+          <t>+553184640938</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
@@ -4978,12 +4978,12 @@
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>+556194027204</t>
+          <t>+5521990575799</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
@@ -4995,12 +4995,12 @@
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>+5516999494445</t>
+          <t>+555191899807</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
@@ -5012,12 +5012,12 @@
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>+5511952489850</t>
+          <t>+556194027204</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
@@ -5029,12 +5029,12 @@
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>+5521981400589</t>
+          <t>+5516999494445</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
@@ -5046,7 +5046,7 @@
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>+5511957982446</t>
+          <t>+5511952489850</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
@@ -5063,12 +5063,12 @@
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>+5511948883579</t>
+          <t>+5521981400589</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
@@ -5080,12 +5080,12 @@
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>+555197184596</t>
+          <t>+5511957982446</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr">
@@ -5097,12 +5097,12 @@
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>+556284316928</t>
+          <t>+5511948883579</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>+5511983534806</t>
+          <t>+555197184596</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
@@ -5131,12 +5131,12 @@
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>+5511974919907</t>
+          <t>+556284316928</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
@@ -5148,12 +5148,12 @@
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>+553298585881</t>
+          <t>+5511983534806</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C277" s="2" t="inlineStr">
@@ -5165,7 +5165,7 @@
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>+5511996693536</t>
+          <t>+5511974919907</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
@@ -5182,46 +5182,46 @@
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>+553196634240</t>
+          <t>+553298585881</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>+555186391577</t>
+          <t>+5511996693536</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>+555194687691</t>
+          <t>+553196634240</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
@@ -5233,12 +5233,12 @@
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>+5511913167865</t>
+          <t>+555186391577</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C282" s="2" t="inlineStr">
@@ -5250,12 +5250,12 @@
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>+5511978691664</t>
+          <t>+555194687691</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
@@ -5267,12 +5267,12 @@
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>+553497201121</t>
+          <t>+5511913167865</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C284" s="2" t="inlineStr">
@@ -5284,46 +5284,46 @@
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>+558881220317</t>
+          <t>+5511978691664</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C285" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>+5511952172793</t>
+          <t>+553497201121</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>+5513997769440</t>
+          <t>+558881220317</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
@@ -5335,7 +5335,7 @@
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>+5511989993229</t>
+          <t>+5511952172793</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
@@ -5352,12 +5352,12 @@
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>+5511994902251</t>
+          <t>+5513997769440</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C289" s="2" t="inlineStr">
@@ -5369,12 +5369,12 @@
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>+5519993039822</t>
+          <t>+5511989993229</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C290" s="2" t="inlineStr">
@@ -5386,7 +5386,7 @@
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>+5511990067914</t>
+          <t>+5511994902251</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
@@ -5403,12 +5403,12 @@
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>+5521966715011</t>
+          <t>+5519993039822</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
@@ -5420,12 +5420,12 @@
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>+5521965551832</t>
+          <t>+5511990067914</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C293" s="2" t="inlineStr">
@@ -5437,12 +5437,12 @@
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>+5512978144084</t>
+          <t>+5521966715011</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C294" s="2" t="inlineStr">
@@ -5454,12 +5454,12 @@
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>+555496011266</t>
+          <t>+5521965551832</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
@@ -5471,12 +5471,12 @@
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>+5521965910269</t>
+          <t>+5512978144084</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr">
@@ -5488,46 +5488,46 @@
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>+5521981376833</t>
+          <t>+555496011266</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C297" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>+5511986157257</t>
+          <t>+5521965910269</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>+5512996683720</t>
+          <t>+5521981376833</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
@@ -5539,12 +5539,12 @@
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>+5514996744793</t>
+          <t>+5511986157257</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr">
@@ -5556,12 +5556,12 @@
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>+555199788369</t>
+          <t>+5512996683720</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr">
@@ -5573,46 +5573,46 @@
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>+553199854571</t>
+          <t>+5514996744793</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C302" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>+5511932110481</t>
+          <t>+555199788369</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C303" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>+556193189092</t>
+          <t>+553199854571</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C304" s="2" t="inlineStr">
@@ -5624,12 +5624,12 @@
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>+5517992036626</t>
+          <t>+5511932110481</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C305" s="2" t="inlineStr">
@@ -5641,46 +5641,46 @@
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>+553199616643</t>
+          <t>+556193189092</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>+5521977008499</t>
+          <t>+5517992036626</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C307" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>+5521977084479</t>
+          <t>+553199616643</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
@@ -5692,46 +5692,46 @@
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>+553496442965</t>
+          <t>+5521977008499</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C309" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-02</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>+5518997151251</t>
+          <t>+5521977084479</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C310" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-02</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>+556198606157</t>
+          <t>+553496442965</t>
         </is>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr">
@@ -5743,12 +5743,12 @@
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>+555195284929</t>
+          <t>+5518997151251</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr">
@@ -5760,12 +5760,12 @@
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>+5511987594244</t>
+          <t>+556198606157</t>
         </is>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr">
@@ -5777,41 +5777,41 @@
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>+5511959227230</t>
+          <t>+555195284929</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C314" s="2" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>+555599102946</t>
+          <t>+5511987594244</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>+5511970726796</t>
+          <t>+5511959227230</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
@@ -5821,39 +5821,73 @@
       </c>
       <c r="C316" s="2" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>+5519996017926</t>
+          <t>+555599102946</t>
         </is>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C317" s="2" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-28</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
+          <t>+5511970726796</t>
+        </is>
+      </c>
+      <c r="B318" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C318" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="inlineStr">
+        <is>
+          <t>+5519996017926</t>
+        </is>
+      </c>
+      <c r="B319" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C319" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="inlineStr">
+        <is>
           <t>+5511949288154</t>
         </is>
       </c>
-      <c r="B318" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C318" s="2" t="inlineStr">
+      <c r="B320" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C320" s="2" t="inlineStr">
         <is>
           <t>2024-08-26</t>
         </is>

--- a/gabi.xlsx
+++ b/gabi.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C320"/>
+  <dimension ref="A1:C319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,12 +477,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+555192717667</t>
+          <t>+5511981892366</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -494,12 +494,12 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5522997104652</t>
+          <t>+553584167951</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -511,63 +511,63 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5522992752597</t>
+          <t>+555192717667</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+5511911086295</t>
+          <t>+5522997104652</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5511999318706</t>
+          <t>+5522992752597</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5521992761358</t>
+          <t>+5511999318706</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -579,29 +579,29 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+556198289593</t>
+          <t>+5521992761358</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5521979898353</t>
+          <t>+556198289593</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -613,12 +613,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5511951735066</t>
+          <t>+5521979898353</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -630,12 +630,12 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5521968066779</t>
+          <t>+5511951735066</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -647,12 +647,12 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5511940052132</t>
+          <t>+5521968066779</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -664,12 +664,12 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+555584586767</t>
+          <t>+5511940052132</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -681,29 +681,29 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5511959504956</t>
+          <t>+555584586767</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5519991884271</t>
+          <t>+5511959504956</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5521999546007</t>
+          <t>+5519991884271</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5521971985918</t>
+          <t>+5521999546007</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+5511982403910</t>
+          <t>+5521971985918</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -766,12 +766,12 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+555194713402</t>
+          <t>+5511982403910</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -783,12 +783,12 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5511979869629</t>
+          <t>+555194713402</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -800,12 +800,12 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+553491497775</t>
+          <t>+5511979869629</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5511952202576</t>
+          <t>+553491497775</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -834,12 +834,12 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+556496241313</t>
+          <t>+5511952202576</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -851,12 +851,12 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+5521966659271</t>
+          <t>+556496241313</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+5511958383006</t>
+          <t>+5521966659271</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -885,12 +885,12 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+5512982473711</t>
+          <t>+5511958383006</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+555193033662</t>
+          <t>+5512982473711</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -919,29 +919,29 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+5511932101366</t>
+          <t>+555193033662</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+553298344288</t>
+          <t>+5511932101366</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -953,12 +953,12 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+5519999605608</t>
+          <t>+553298344288</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -970,27 +970,31 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+5511989074358</t>
+          <t>+5519999605608</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+56996163824</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr"/>
+          <t>+5511989074358</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
           <t>2024-10-06</t>
@@ -1000,14 +1004,10 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+5511986610154</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>+56996163824</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
           <t>2024-10-06</t>
@@ -1017,7 +1017,7 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+5511981755261</t>
+          <t>+5511986610154</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1034,7 +1034,7 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+5511970224460</t>
+          <t>+5511981755261</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -1051,12 +1051,12 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+553183201160</t>
+          <t>+5511970224460</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -1068,12 +1068,12 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+5511992576005</t>
+          <t>+553183201160</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -4944,12 +4944,12 @@
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+553184640938</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
@@ -4961,12 +4961,12 @@
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>+553184640938</t>
+          <t>+5521990575799</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
@@ -4978,12 +4978,12 @@
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>+5521990575799</t>
+          <t>+555191899807</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
@@ -4995,12 +4995,12 @@
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>+555191899807</t>
+          <t>+556194027204</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
@@ -5012,12 +5012,12 @@
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>+556194027204</t>
+          <t>+5516999494445</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
@@ -5029,12 +5029,12 @@
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>+5516999494445</t>
+          <t>+5511952489850</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
@@ -5046,12 +5046,12 @@
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>+5511952489850</t>
+          <t>+5521981400589</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
@@ -5063,12 +5063,12 @@
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>+5521981400589</t>
+          <t>+5511957982446</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
@@ -5080,7 +5080,7 @@
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>+5511957982446</t>
+          <t>+5511948883579</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
@@ -5097,12 +5097,12 @@
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>+5511948883579</t>
+          <t>+555197184596</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>+555197184596</t>
+          <t>+556284316928</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
@@ -5131,12 +5131,12 @@
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>+556284316928</t>
+          <t>+5511983534806</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
@@ -5148,7 +5148,7 @@
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>+5511983534806</t>
+          <t>+5511974919907</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
@@ -5165,12 +5165,12 @@
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>+5511974919907</t>
+          <t>+553298585881</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C278" s="2" t="inlineStr">
@@ -5182,12 +5182,12 @@
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>+553298585881</t>
+          <t>+5511996693536</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
@@ -5199,29 +5199,29 @@
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>+5511996693536</t>
+          <t>+553196634240</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>+553196634240</t>
+          <t>+555186391577</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
@@ -5233,7 +5233,7 @@
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>+555186391577</t>
+          <t>+555194687691</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
@@ -5250,12 +5250,12 @@
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>+555194687691</t>
+          <t>+5511913167865</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
@@ -5267,7 +5267,7 @@
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>+5511913167865</t>
+          <t>+5511978691664</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
@@ -5284,12 +5284,12 @@
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>+5511978691664</t>
+          <t>+553497201121</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C285" s="2" t="inlineStr">
@@ -5301,29 +5301,29 @@
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>+553497201121</t>
+          <t>+558881220317</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>+558881220317</t>
+          <t>+5511952172793</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
@@ -5335,12 +5335,12 @@
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>+5511952172793</t>
+          <t>+5513997769440</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C288" s="2" t="inlineStr">
@@ -5352,12 +5352,12 @@
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>+5513997769440</t>
+          <t>+5511989993229</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C289" s="2" t="inlineStr">
@@ -5369,7 +5369,7 @@
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>+5511989993229</t>
+          <t>+5511994902251</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
@@ -5386,12 +5386,12 @@
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>+5511994902251</t>
+          <t>+5519993039822</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
@@ -5403,12 +5403,12 @@
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>+5519993039822</t>
+          <t>+5511990067914</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
@@ -5420,12 +5420,12 @@
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>+5511990067914</t>
+          <t>+5521966715011</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C293" s="2" t="inlineStr">
@@ -5437,7 +5437,7 @@
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>+5521966715011</t>
+          <t>+5521965551832</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
@@ -5454,12 +5454,12 @@
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>+5521965551832</t>
+          <t>+5512978144084</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
@@ -5471,12 +5471,12 @@
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>+5512978144084</t>
+          <t>+555496011266</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr">
@@ -5488,12 +5488,12 @@
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>+555496011266</t>
+          <t>+5521965910269</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C297" s="2" t="inlineStr">
@@ -5505,7 +5505,7 @@
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>+5521965910269</t>
+          <t>+5521981376833</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
@@ -5515,19 +5515,19 @@
       </c>
       <c r="C298" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>+5521981376833</t>
+          <t>+5511986157257</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
@@ -5539,12 +5539,12 @@
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>+5511986157257</t>
+          <t>+5512996683720</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr">
@@ -5556,12 +5556,12 @@
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>+5512996683720</t>
+          <t>+5514996744793</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr">
@@ -5573,12 +5573,12 @@
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>+5514996744793</t>
+          <t>+555199788369</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C302" s="2" t="inlineStr">
@@ -5590,29 +5590,29 @@
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>+555199788369</t>
+          <t>+553199854571</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C303" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>+553199854571</t>
+          <t>+5511932110481</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C304" s="2" t="inlineStr">
@@ -5624,12 +5624,12 @@
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>+5511932110481</t>
+          <t>+556193189092</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C305" s="2" t="inlineStr">
@@ -5641,12 +5641,12 @@
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>+556193189092</t>
+          <t>+5517992036626</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
@@ -5658,29 +5658,29 @@
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>+5517992036626</t>
+          <t>+553199616643</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C307" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-02</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>+553199616643</t>
+          <t>+5521977008499</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
@@ -5692,7 +5692,7 @@
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>+5521977008499</t>
+          <t>+5521977084479</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
@@ -5709,29 +5709,29 @@
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>+5521977084479</t>
+          <t>+553496442965</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C310" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>+553496442965</t>
+          <t>+5518997151251</t>
         </is>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr">
@@ -5743,12 +5743,12 @@
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>+5518997151251</t>
+          <t>+556198606157</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr">
@@ -5760,12 +5760,12 @@
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>+556198606157</t>
+          <t>+555195284929</t>
         </is>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr">
@@ -5777,12 +5777,12 @@
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>+555195284929</t>
+          <t>+5511987594244</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C314" s="2" t="inlineStr">
@@ -5794,7 +5794,7 @@
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>+5511987594244</t>
+          <t>+5511959227230</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
@@ -5804,36 +5804,36 @@
       </c>
       <c r="C315" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-08-29</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>+5511959227230</t>
+          <t>+555599102946</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-28</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>+555599102946</t>
+          <t>+5511970726796</t>
         </is>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C317" s="2" t="inlineStr">
@@ -5845,49 +5845,32 @@
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>+5511970726796</t>
+          <t>+5519996017926</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C318" s="2" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-27</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="inlineStr">
         <is>
-          <t>+5519996017926</t>
+          <t>+5511949288154</t>
         </is>
       </c>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C319" s="2" t="inlineStr">
-        <is>
-          <t>2024-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="2" t="inlineStr">
-        <is>
-          <t>+5511949288154</t>
-        </is>
-      </c>
-      <c r="B320" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C320" s="2" t="inlineStr">
         <is>
           <t>2024-08-26</t>
         </is>

--- a/gabi.xlsx
+++ b/gabi.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C319"/>
+  <dimension ref="A1:C320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,29 +477,29 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+5511981892366</t>
+          <t>+5521994075389</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+553584167951</t>
+          <t>+5511981892366</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -511,12 +511,12 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+555192717667</t>
+          <t>+553584167951</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -528,12 +528,12 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+5522997104652</t>
+          <t>+555192717667</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -545,7 +545,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5522992752597</t>
+          <t>+5522997104652</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -555,36 +555,36 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5511999318706</t>
+          <t>+5522992752597</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5521992761358</t>
+          <t>+5511999318706</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -596,29 +596,29 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+556198289593</t>
+          <t>+5521992761358</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5521979898353</t>
+          <t>+556198289593</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -630,12 +630,12 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5511951735066</t>
+          <t>+5521979898353</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -647,12 +647,12 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5521968066779</t>
+          <t>+5511951735066</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -664,12 +664,12 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5511940052132</t>
+          <t>+5521968066779</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -681,12 +681,12 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+555584586767</t>
+          <t>+5511940052132</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -698,29 +698,29 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5511959504956</t>
+          <t>+555584586767</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5519991884271</t>
+          <t>+5511959504956</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -732,12 +732,12 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5521999546007</t>
+          <t>+5519991884271</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+5521971985918</t>
+          <t>+5521999546007</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -766,12 +766,12 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+5511982403910</t>
+          <t>+5521971985918</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -783,12 +783,12 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+555194713402</t>
+          <t>+5511982403910</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -800,12 +800,12 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5511979869629</t>
+          <t>+555194713402</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+553491497775</t>
+          <t>+5511979869629</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -834,12 +834,12 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+5511952202576</t>
+          <t>+553491497775</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -851,12 +851,12 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+556496241313</t>
+          <t>+5511952202576</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+5521966659271</t>
+          <t>+556496241313</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -885,12 +885,12 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+5511958383006</t>
+          <t>+5521966659271</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+5512982473711</t>
+          <t>+5511958383006</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -919,12 +919,12 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+555193033662</t>
+          <t>+5512982473711</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -936,29 +936,29 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5511932101366</t>
+          <t>+555193033662</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+553298344288</t>
+          <t>+5511932101366</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -970,12 +970,12 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+5519999605608</t>
+          <t>+553298344288</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -987,27 +987,31 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+5511989074358</t>
+          <t>+5519999605608</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+56996163824</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr"/>
+          <t>+5511989074358</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
           <t>2024-10-06</t>
@@ -1017,14 +1021,10 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+5511986610154</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>+56996163824</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr"/>
       <c r="C34" s="2" t="inlineStr">
         <is>
           <t>2024-10-06</t>
@@ -1034,7 +1034,7 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+5511981755261</t>
+          <t>+5511986610154</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -1051,7 +1051,7 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+5511970224460</t>
+          <t>+5511981755261</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -1068,12 +1068,12 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+553183201160</t>
+          <t>+5511970224460</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -1085,29 +1085,29 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+5519997544249</t>
+          <t>+553183201160</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+555384745327</t>
+          <t>+5519997544249</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -1119,12 +1119,12 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+5514996501813</t>
+          <t>+555384745327</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -1136,12 +1136,12 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+5511972435655</t>
+          <t>+5514996501813</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
@@ -1153,7 +1153,7 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+5511946397297</t>
+          <t>+5511972435655</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -1170,12 +1170,12 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+553397075362</t>
+          <t>+5511946397297</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -1187,12 +1187,12 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+5513991020783</t>
+          <t>+553397075362</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -1204,12 +1204,12 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+5521969440520</t>
+          <t>+5513991020783</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -1221,12 +1221,12 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+553193672938</t>
+          <t>+5521969440520</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+5522981479241</t>
+          <t>+553193672938</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -1255,12 +1255,12 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+5521979251504</t>
+          <t>+5522981479241</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -1272,12 +1272,12 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+556198475033</t>
+          <t>+5521979251504</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -1289,12 +1289,12 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+5516992236142</t>
+          <t>+556198475033</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -1306,12 +1306,12 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+5511948893274</t>
+          <t>+5516992236142</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
@@ -1323,12 +1323,12 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+5521968278744</t>
+          <t>+5511948893274</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
@@ -1340,12 +1340,12 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+555196384525</t>
+          <t>+5521968278744</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
@@ -1357,29 +1357,29 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+5511972915535</t>
+          <t>+555196384525</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+553180135415</t>
+          <t>+5511972915535</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -1391,29 +1391,29 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+5521992200288</t>
+          <t>+553180135415</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+556196779704</t>
+          <t>+5521992200288</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -1425,12 +1425,12 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+5511915810965</t>
+          <t>+556196779704</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -1442,12 +1442,12 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+5521981348191</t>
+          <t>+5511915810965</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
@@ -1459,12 +1459,12 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+5524999461825</t>
+          <t>+5521981348191</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
@@ -1476,12 +1476,12 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+556196698353</t>
+          <t>+5524999461825</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -1493,12 +1493,12 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+5513996671783</t>
+          <t>+556196698353</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
@@ -1510,12 +1510,12 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+5518996829002</t>
+          <t>+5513996671783</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
@@ -1527,12 +1527,12 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+5511991871576</t>
+          <t>+5518996829002</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
@@ -1544,12 +1544,12 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+5514981509955</t>
+          <t>+5511991871576</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
@@ -1561,12 +1561,12 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+555184777056</t>
+          <t>+5514981509955</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
@@ -1578,12 +1578,12 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+5513991081873</t>
+          <t>+555184777056</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -1595,12 +1595,12 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+555197040253</t>
+          <t>+5513991081873</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -1612,29 +1612,29 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+5511977945054</t>
+          <t>+555197040253</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+553496724472</t>
+          <t>+5511977945054</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -1646,12 +1646,12 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+553186960521</t>
+          <t>+553496724472</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
@@ -1663,12 +1663,12 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+5511978823483</t>
+          <t>+553186960521</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
@@ -1680,12 +1680,12 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+5516988023377</t>
+          <t>+5511978823483</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
@@ -1697,12 +1697,12 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+553492249633</t>
+          <t>+5516988023377</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
@@ -1714,12 +1714,12 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+5511996339968</t>
+          <t>+553492249633</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
@@ -1731,12 +1731,12 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+553899926253</t>
+          <t>+5511996339968</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
@@ -1748,12 +1748,12 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+555596010082</t>
+          <t>+553899926253</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
@@ -1765,12 +1765,12 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+5521984364734</t>
+          <t>+555596010082</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
@@ -1782,12 +1782,12 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+5511964334834</t>
+          <t>+5521984364734</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
@@ -1799,12 +1799,12 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+553196748836</t>
+          <t>+5511964334834</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
@@ -1816,12 +1816,12 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+556196182173</t>
+          <t>+553196748836</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+5515988279142</t>
+          <t>+556196182173</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
@@ -1850,12 +1850,12 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+551974071078</t>
+          <t>+5515988279142</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
@@ -1867,12 +1867,12 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+5511943458186</t>
+          <t>+551974071078</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
@@ -1884,12 +1884,12 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+553175675075</t>
+          <t>+5511943458186</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
@@ -1901,12 +1901,12 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+558186914048</t>
+          <t>+553175675075</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
@@ -1918,12 +1918,12 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+5514997419977</t>
+          <t>+558186914048</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
@@ -1935,12 +1935,12 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+5511964838163</t>
+          <t>+5514997419977</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
@@ -1952,29 +1952,29 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+555191485515</t>
+          <t>+5511964838163</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+5521989929657</t>
+          <t>+555191485515</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
@@ -1986,12 +1986,12 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+5511986633336</t>
+          <t>+5521989929657</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
@@ -2003,7 +2003,7 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+5511963264394</t>
+          <t>+5511986633336</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
@@ -2020,12 +2020,12 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+555399629079</t>
+          <t>+5511963264394</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
@@ -2037,12 +2037,12 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+555194536598</t>
+          <t>+555399629079</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
@@ -2054,12 +2054,12 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+5516991290210</t>
+          <t>+555194536598</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
@@ -2071,12 +2071,12 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+5511985014090</t>
+          <t>+5516991290210</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
@@ -2088,7 +2088,7 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+5511971885642</t>
+          <t>+5511985014090</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -2105,12 +2105,12 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+556192235590</t>
+          <t>+5511971885642</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+553197910058</t>
+          <t>+556192235590</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
@@ -2139,12 +2139,12 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+5511945037623</t>
+          <t>+553197910058</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
@@ -2156,12 +2156,12 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+558586569439</t>
+          <t>+5511945037623</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
@@ -2173,12 +2173,12 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+5511971176538</t>
+          <t>+558586569439</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
@@ -2190,7 +2190,7 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+5511934629890</t>
+          <t>+5511971176538</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
@@ -2207,29 +2207,29 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+5521971413810</t>
+          <t>+5511934629890</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+5511986546912</t>
+          <t>+5521971413810</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
@@ -2241,12 +2241,12 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+553171606494</t>
+          <t>+5511986546912</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
@@ -2258,7 +2258,7 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+553171858800</t>
+          <t>+553171606494</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -2275,12 +2275,12 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+5513996171453</t>
+          <t>+553171858800</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
@@ -2292,12 +2292,12 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+556191917174</t>
+          <t>+5513996171453</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
@@ -2309,12 +2309,12 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+555181699628</t>
+          <t>+556191917174</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
@@ -2326,12 +2326,12 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+558994526750</t>
+          <t>+555181699628</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
@@ -2343,12 +2343,12 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+5522999490720</t>
+          <t>+558994526750</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
@@ -2360,12 +2360,12 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+5515996341306</t>
+          <t>+5522999490720</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
@@ -2377,12 +2377,12 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+555492618052</t>
+          <t>+5515996341306</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
@@ -2394,12 +2394,12 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+5512991532012</t>
+          <t>+555492618052</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
@@ -2411,12 +2411,12 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+556293410347</t>
+          <t>+5512991532012</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
@@ -2428,29 +2428,29 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+553171722790</t>
+          <t>+556293410347</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+555186041958</t>
+          <t>+553171722790</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
@@ -2462,12 +2462,12 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+5522999557124</t>
+          <t>+555186041958</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
@@ -2479,24 +2479,24 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+5511956194781</t>
+          <t>+5522999557124</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+5511949693265</t>
+          <t>+5511956194781</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
@@ -2513,12 +2513,12 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+553399550487</t>
+          <t>+5511949693265</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
@@ -2530,29 +2530,29 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+555193334094</t>
+          <t>+553399550487</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+553191181765</t>
+          <t>+555193334094</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
@@ -2564,12 +2564,12 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+553492868099</t>
+          <t>+553191181765</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
@@ -2581,12 +2581,12 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+556198163313</t>
+          <t>+553492868099</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
@@ -2598,12 +2598,12 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+556286223947</t>
+          <t>+556198163313</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
@@ -2615,12 +2615,12 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+5522992578488</t>
+          <t>+556286223947</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
@@ -2632,29 +2632,29 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+5519981594572</t>
+          <t>+5522992578488</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+556196054585</t>
+          <t>+5519981594572</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
@@ -2666,12 +2666,12 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+5511987670856</t>
+          <t>+556196054585</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
@@ -2683,29 +2683,29 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+556296704284</t>
+          <t>+5511987670856</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+5511993877662</t>
+          <t>+556296704284</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
@@ -2717,7 +2717,7 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+5511959898968</t>
+          <t>+5511993877662</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
@@ -2734,24 +2734,24 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+5519999136362</t>
+          <t>+5511959898968</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+5519993254501</t>
+          <t>+5519999136362</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
@@ -2768,12 +2768,12 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+556384939482</t>
+          <t>+5519993254501</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
@@ -2785,12 +2785,12 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+553187320810</t>
+          <t>+556384939482</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
@@ -2802,12 +2802,12 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+553187320810</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
@@ -2819,7 +2819,7 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+5511930092193</t>
+          <t>+5511966134418</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
@@ -2836,12 +2836,12 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+5521977601201</t>
+          <t>+5511930092193</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
@@ -2853,24 +2853,24 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+553897450448</t>
+          <t>+5521977601201</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+553899341338</t>
+          <t>+553897450448</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
@@ -2887,12 +2887,12 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+5521965730495</t>
+          <t>+553899341338</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
@@ -2904,29 +2904,29 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+5512996345540</t>
+          <t>+5521965730495</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+553284127574</t>
+          <t>+5512996345540</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
@@ -2938,12 +2938,12 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+553384499379</t>
+          <t>+553284127574</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
@@ -2955,12 +2955,12 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+5511945704788</t>
+          <t>+553384499379</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
@@ -2972,29 +2972,29 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+5522999416651</t>
+          <t>+5511945704788</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+553496487520</t>
+          <t>+5522999416651</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
@@ -3006,12 +3006,12 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+5511953903531</t>
+          <t>+553496487520</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
@@ -3023,7 +3023,7 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+5511963380338</t>
+          <t>+5511953903531</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
@@ -3040,12 +3040,12 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+556181106946</t>
+          <t>+5511963380338</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
@@ -3057,12 +3057,12 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+5521966430435</t>
+          <t>+556181106946</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
@@ -3074,24 +3074,24 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+5517981343490</t>
+          <t>+5521966430435</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+5517992750891</t>
+          <t>+5517981343490</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
@@ -3108,12 +3108,12 @@
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+556194435831</t>
+          <t>+5517992750891</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
@@ -3125,7 +3125,7 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+556192815706</t>
+          <t>+556194435831</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
@@ -3142,29 +3142,29 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+555194681350</t>
+          <t>+556192815706</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+5521990024205</t>
+          <t>+555194681350</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
@@ -3176,12 +3176,12 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+5516993340146</t>
+          <t>+5521990024205</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
@@ -3193,12 +3193,12 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+5511969710184</t>
+          <t>+5516993340146</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
@@ -3210,29 +3210,29 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+555184228607</t>
+          <t>+5511969710184</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+555184228607</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
@@ -3244,12 +3244,12 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+5516991501083</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
@@ -3261,12 +3261,12 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+5516991501083</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
@@ -3278,12 +3278,12 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+5519974133120</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
@@ -3295,12 +3295,12 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+5511971165356</t>
+          <t>+5519974133120</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
@@ -3312,12 +3312,12 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+5528999143242</t>
+          <t>+5511971165356</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
@@ -3329,12 +3329,12 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+5521992992344</t>
+          <t>+5528999143242</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
@@ -3346,12 +3346,12 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+553199111438</t>
+          <t>+5521992992344</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
@@ -3363,29 +3363,29 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+5511991868062</t>
+          <t>+553199111438</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+5521965163770</t>
+          <t>+5511991868062</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
@@ -3397,12 +3397,12 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+556191281418</t>
+          <t>+5521965163770</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
@@ -3414,12 +3414,12 @@
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+5511970484790</t>
+          <t>+556191281418</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
@@ -3431,12 +3431,12 @@
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+553888359308</t>
+          <t>+5511970484790</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
@@ -3448,12 +3448,12 @@
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+5519999395027</t>
+          <t>+553888359308</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
@@ -3465,12 +3465,12 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+553187556222</t>
+          <t>+5519999395027</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
@@ -3482,12 +3482,12 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+556181344711</t>
+          <t>+553187556222</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
@@ -3499,12 +3499,12 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+5511937138186</t>
+          <t>+556181344711</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
@@ -3516,12 +3516,12 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+553175235564</t>
+          <t>+5511937138186</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
@@ -3533,12 +3533,12 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+5521970987542</t>
+          <t>+553175235564</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
@@ -3550,12 +3550,12 @@
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+553398575480</t>
+          <t>+5521970987542</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
@@ -3567,29 +3567,29 @@
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+553193590683</t>
+          <t>+553398575480</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+5522997230806</t>
+          <t>+553193590683</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
@@ -3601,12 +3601,12 @@
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+5511985698796</t>
+          <t>+5522997230806</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
@@ -3618,12 +3618,12 @@
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+5521965096539</t>
+          <t>+5511985698796</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
@@ -3635,7 +3635,7 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+5521986678801</t>
+          <t>+5521965096539</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
@@ -3652,12 +3652,12 @@
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+555197496105</t>
+          <t>+5521986678801</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
@@ -3669,12 +3669,12 @@
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+5511947650170</t>
+          <t>+555197496105</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
@@ -3686,12 +3686,12 @@
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+553191829450</t>
+          <t>+5511947650170</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
@@ -3703,12 +3703,12 @@
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+5511976440031</t>
+          <t>+553191829450</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
@@ -3720,12 +3720,12 @@
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+556293286544</t>
+          <t>+5511976440031</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
@@ -3737,12 +3737,12 @@
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+556194662595</t>
+          <t>+556293286544</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
@@ -3754,12 +3754,12 @@
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+555181664215</t>
+          <t>+556194662595</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
@@ -3771,12 +3771,12 @@
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+5521978927776</t>
+          <t>+555181664215</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
@@ -3788,46 +3788,46 @@
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+553499089476</t>
+          <t>+5521978927776</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+5524999964686</t>
+          <t>+553499089476</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+5514997100570</t>
+          <t>+5524999964686</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
@@ -3839,12 +3839,12 @@
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+5511956996383</t>
+          <t>+5514997100570</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
@@ -3856,12 +3856,12 @@
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+5524999215405</t>
+          <t>+5511956996383</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
@@ -3873,12 +3873,12 @@
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>+5513974102524</t>
+          <t>+5524999215405</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
@@ -3890,12 +3890,12 @@
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>+5511985663846</t>
+          <t>+5513974102524</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
@@ -3907,29 +3907,29 @@
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>+5521997117322</t>
+          <t>+5511985663846</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>+555185802949</t>
+          <t>+5521997117322</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
@@ -3941,12 +3941,12 @@
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>+5519997204476</t>
+          <t>+555185802949</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
@@ -3958,12 +3958,12 @@
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>+556296767169</t>
+          <t>+5519997204476</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
@@ -3975,12 +3975,12 @@
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>+555199100909</t>
+          <t>+556296767169</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
@@ -3992,12 +3992,12 @@
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>+5511960197823</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
@@ -4009,12 +4009,12 @@
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>+5516993905706</t>
+          <t>+5511960197823</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
@@ -4026,29 +4026,29 @@
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>+555491229014</t>
+          <t>+5516993905706</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>+553183316751</t>
+          <t>+555491229014</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
@@ -4060,12 +4060,12 @@
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>+5511960297061</t>
+          <t>+553183316751</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
@@ -4077,7 +4077,7 @@
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>+5511967618163</t>
+          <t>+5511960297061</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
@@ -4094,7 +4094,7 @@
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>+5511953782520</t>
+          <t>+5511967618163</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
@@ -4111,12 +4111,12 @@
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>+555194565879</t>
+          <t>+5511953782520</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
@@ -4128,12 +4128,12 @@
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>+5519987116584</t>
+          <t>+555194565879</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
@@ -4145,12 +4145,12 @@
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>+5511963669553</t>
+          <t>+5519987116584</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
@@ -4162,7 +4162,7 @@
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>+5511967026448</t>
+          <t>+5511963669553</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
@@ -4179,12 +4179,12 @@
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>+556198857512</t>
+          <t>+5511967026448</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
@@ -4196,12 +4196,12 @@
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>+5511970838412</t>
+          <t>+556198857512</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
@@ -4213,12 +4213,12 @@
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>+553597695870</t>
+          <t>+5511970838412</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
@@ -4230,12 +4230,12 @@
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>+5519994161076</t>
+          <t>+553597695870</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
@@ -4247,12 +4247,12 @@
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>+5512974073721</t>
+          <t>+5519994161076</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
@@ -4264,12 +4264,12 @@
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>+553899272884</t>
+          <t>+5512974073721</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
@@ -4281,12 +4281,12 @@
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>+555185474443</t>
+          <t>+553899272884</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
@@ -4298,29 +4298,29 @@
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>+5513974277521</t>
+          <t>+555185474443</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>+5511959480908</t>
+          <t>+5513974277521</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
@@ -4332,12 +4332,12 @@
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>+553173039716</t>
+          <t>+5511959480908</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C229" s="2" t="inlineStr">
@@ -4349,12 +4349,12 @@
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>+5519983138652</t>
+          <t>+553173039716</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
@@ -4366,12 +4366,12 @@
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>+5516981621753</t>
+          <t>+5519983138652</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
@@ -4383,12 +4383,12 @@
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>+5513996269435</t>
+          <t>+5516981621753</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
@@ -4400,12 +4400,12 @@
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>+5511946858778</t>
+          <t>+5513996269435</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
@@ -4417,12 +4417,12 @@
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>+553498008945</t>
+          <t>+5511946858778</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
@@ -4434,12 +4434,12 @@
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+553498008945</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
@@ -4451,12 +4451,12 @@
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>+555198093042</t>
+          <t>+5521965489343</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
@@ -4468,12 +4468,12 @@
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>+5519992746058</t>
+          <t>+555198093042</t>
         </is>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C237" s="2" t="inlineStr">
@@ -4485,12 +4485,12 @@
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>+5511959327333</t>
+          <t>+5519992746058</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
@@ -4502,12 +4502,12 @@
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>+5519991342511</t>
+          <t>+5511959327333</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr">
@@ -4519,12 +4519,12 @@
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>+5511910662570</t>
+          <t>+5519991342511</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr">
@@ -4536,7 +4536,7 @@
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>+5511979754910</t>
+          <t>+5511910662570</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
@@ -4553,12 +4553,12 @@
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>+5519984563784</t>
+          <t>+5511979754910</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
@@ -4570,12 +4570,12 @@
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>+5524978358315</t>
+          <t>+5519984563784</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
@@ -4587,12 +4587,12 @@
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>+5521964816197</t>
+          <t>+5524978358315</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
@@ -4604,12 +4604,12 @@
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>+554497202222</t>
+          <t>+5521964816197</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
@@ -4621,12 +4621,12 @@
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>+553187980853</t>
+          <t>+554497202222</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
@@ -4638,12 +4638,12 @@
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>+555191226749</t>
+          <t>+553187980853</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
@@ -4655,12 +4655,12 @@
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>+5511982048012</t>
+          <t>+555191226749</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
@@ -4672,7 +4672,7 @@
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>+5511960946166</t>
+          <t>+5511982048012</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
@@ -4689,12 +4689,12 @@
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>+5519991426273</t>
+          <t>+5511960946166</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
@@ -4706,7 +4706,7 @@
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>+5519981472020</t>
+          <t>+5519991426273</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
@@ -4723,12 +4723,12 @@
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>+5521978835599</t>
+          <t>+5519981472020</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
@@ -4740,29 +4740,29 @@
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>+555180176562</t>
+          <t>+5521978835599</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>+5511942185569</t>
+          <t>+555180176562</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
@@ -4774,7 +4774,7 @@
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>+5511947261969</t>
+          <t>+5511942185569</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>+5519992124887</t>
+          <t>+5511947261969</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
@@ -4808,12 +4808,12 @@
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>+553195359312</t>
+          <t>+5519992124887</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
@@ -4825,12 +4825,12 @@
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>+5511962993512</t>
+          <t>+553195359312</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
@@ -4842,7 +4842,7 @@
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>+5511993564173</t>
+          <t>+5511962993512</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
@@ -4859,12 +4859,12 @@
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>+553391919105</t>
+          <t>+5511993564173</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
@@ -4876,12 +4876,12 @@
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>+5511985800906</t>
+          <t>+553391919105</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
@@ -4893,7 +4893,7 @@
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>+5511959248300</t>
+          <t>+5511985800906</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
@@ -4903,19 +4903,19 @@
       </c>
       <c r="C262" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>+5519994486599</t>
+          <t>+5511959248300</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
@@ -4927,12 +4927,12 @@
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>+5511987774053</t>
+          <t>+5519994486599</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
@@ -4944,12 +4944,12 @@
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>+553184640938</t>
+          <t>+5511987774053</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
@@ -4961,12 +4961,12 @@
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>+5521990575799</t>
+          <t>+553184640938</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
@@ -4978,12 +4978,12 @@
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>+555191899807</t>
+          <t>+5521990575799</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
@@ -4995,12 +4995,12 @@
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>+556194027204</t>
+          <t>+555191899807</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
@@ -5012,12 +5012,12 @@
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>+5516999494445</t>
+          <t>+556194027204</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
@@ -5029,12 +5029,12 @@
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>+5511952489850</t>
+          <t>+5516999494445</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
@@ -5046,12 +5046,12 @@
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>+5521981400589</t>
+          <t>+5511952489850</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
@@ -5063,12 +5063,12 @@
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>+5511957982446</t>
+          <t>+5521981400589</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
@@ -5080,7 +5080,7 @@
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>+5511948883579</t>
+          <t>+5511957982446</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
@@ -5097,12 +5097,12 @@
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>+555197184596</t>
+          <t>+5511948883579</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>+556284316928</t>
+          <t>+555197184596</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
@@ -5131,12 +5131,12 @@
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>+5511983534806</t>
+          <t>+556284316928</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
@@ -5148,7 +5148,7 @@
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>+5511974919907</t>
+          <t>+5511983534806</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
@@ -5165,12 +5165,12 @@
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>+553298585881</t>
+          <t>+5511974919907</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C278" s="2" t="inlineStr">
@@ -5182,12 +5182,12 @@
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>+5511996693536</t>
+          <t>+553298585881</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
@@ -5199,29 +5199,29 @@
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>+553196634240</t>
+          <t>+5511996693536</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>+555186391577</t>
+          <t>+553196634240</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
@@ -5233,7 +5233,7 @@
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>+555194687691</t>
+          <t>+555186391577</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
@@ -5250,12 +5250,12 @@
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>+5511913167865</t>
+          <t>+555194687691</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
@@ -5267,7 +5267,7 @@
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>+5511978691664</t>
+          <t>+5511913167865</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
@@ -5284,12 +5284,12 @@
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>+553497201121</t>
+          <t>+5511978691664</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C285" s="2" t="inlineStr">
@@ -5301,29 +5301,29 @@
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>+558881220317</t>
+          <t>+553497201121</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>+5511952172793</t>
+          <t>+558881220317</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
@@ -5335,12 +5335,12 @@
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>+5513997769440</t>
+          <t>+5511952172793</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C288" s="2" t="inlineStr">
@@ -5352,12 +5352,12 @@
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>+5511989993229</t>
+          <t>+5513997769440</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C289" s="2" t="inlineStr">
@@ -5369,7 +5369,7 @@
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>+5511994902251</t>
+          <t>+5511989993229</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
@@ -5386,12 +5386,12 @@
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>+5519993039822</t>
+          <t>+5511994902251</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
@@ -5403,12 +5403,12 @@
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>+5511990067914</t>
+          <t>+5519993039822</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
@@ -5420,12 +5420,12 @@
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>+5521966715011</t>
+          <t>+5511990067914</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C293" s="2" t="inlineStr">
@@ -5437,7 +5437,7 @@
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>+5521965551832</t>
+          <t>+5521966715011</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
@@ -5454,12 +5454,12 @@
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>+5512978144084</t>
+          <t>+5521965551832</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
@@ -5471,12 +5471,12 @@
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>+555496011266</t>
+          <t>+5512978144084</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr">
@@ -5488,12 +5488,12 @@
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>+5521965910269</t>
+          <t>+555496011266</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C297" s="2" t="inlineStr">
@@ -5505,7 +5505,7 @@
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>+5521981376833</t>
+          <t>+5521965910269</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
@@ -5515,19 +5515,19 @@
       </c>
       <c r="C298" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>+5511986157257</t>
+          <t>+5521981376833</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
@@ -5539,12 +5539,12 @@
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>+5512996683720</t>
+          <t>+5511986157257</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr">
@@ -5556,12 +5556,12 @@
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>+5514996744793</t>
+          <t>+5512996683720</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr">
@@ -5573,12 +5573,12 @@
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>+555199788369</t>
+          <t>+5514996744793</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C302" s="2" t="inlineStr">
@@ -5590,29 +5590,29 @@
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>+553199854571</t>
+          <t>+555199788369</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C303" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>+5511932110481</t>
+          <t>+553199854571</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C304" s="2" t="inlineStr">
@@ -5624,12 +5624,12 @@
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>+556193189092</t>
+          <t>+5511932110481</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C305" s="2" t="inlineStr">
@@ -5641,12 +5641,12 @@
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>+5517992036626</t>
+          <t>+556193189092</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
@@ -5658,29 +5658,29 @@
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>+553199616643</t>
+          <t>+5517992036626</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C307" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>+5521977008499</t>
+          <t>+553199616643</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
@@ -5692,7 +5692,7 @@
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>+5521977084479</t>
+          <t>+5521977008499</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
@@ -5709,29 +5709,29 @@
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>+553496442965</t>
+          <t>+5521977084479</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C310" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-02</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>+5518997151251</t>
+          <t>+553496442965</t>
         </is>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr">
@@ -5743,12 +5743,12 @@
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>+556198606157</t>
+          <t>+5518997151251</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr">
@@ -5760,12 +5760,12 @@
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>+555195284929</t>
+          <t>+556198606157</t>
         </is>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr">
@@ -5777,12 +5777,12 @@
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>+5511987594244</t>
+          <t>+555195284929</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C314" s="2" t="inlineStr">
@@ -5794,7 +5794,7 @@
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>+5511959227230</t>
+          <t>+5511987594244</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
@@ -5804,36 +5804,36 @@
       </c>
       <c r="C315" s="2" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>+555599102946</t>
+          <t>+5511959227230</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>+5511970726796</t>
+          <t>+555599102946</t>
         </is>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C317" s="2" t="inlineStr">
@@ -5845,32 +5845,49 @@
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>+5519996017926</t>
+          <t>+5511970726796</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C318" s="2" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-28</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="inlineStr">
         <is>
+          <t>+5519996017926</t>
+        </is>
+      </c>
+      <c r="B319" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C319" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="inlineStr">
+        <is>
           <t>+5511949288154</t>
         </is>
       </c>
-      <c r="B319" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C319" s="2" t="inlineStr">
+      <c r="B320" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C320" s="2" t="inlineStr">
         <is>
           <t>2024-08-26</t>
         </is>

--- a/gabi.xlsx
+++ b/gabi.xlsx
@@ -477,24 +477,24 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+5521994075389</t>
+          <t>+553191751465</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5511981892366</t>
+          <t>+5511940728898</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -504,150 +504,150 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+553584167951</t>
+          <t>+5511947768319</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+555192717667</t>
+          <t>+5522997621623</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5522997104652</t>
+          <t>+5521994075389</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5522992752597</t>
+          <t>+5511981892366</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5511999318706</t>
+          <t>+553584167951</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5521992761358</t>
+          <t>+555192717667</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+556198289593</t>
+          <t>+5522997104652</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5521979898353</t>
+          <t>+5522992752597</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5511951735066</t>
+          <t>+5511999318706</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -657,14 +657,14 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5521968066779</t>
+          <t>+5521992761358</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -674,19 +674,19 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5511940052132</t>
+          <t>+556198289593</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+555584586767</t>
+          <t>+5521979898353</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5511959504956</t>
+          <t>+5511951735066</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -725,65 +725,65 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5519991884271</t>
+          <t>+5521968066779</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+5521999546007</t>
+          <t>+5511940052132</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+5521971985918</t>
+          <t>+555584586767</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5511982403910</t>
+          <t>+5511959504956</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -800,12 +800,12 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+555194713402</t>
+          <t>+5519991884271</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5511979869629</t>
+          <t>+5521999546007</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -834,12 +834,12 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+553491497775</t>
+          <t>+5521971985918</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+5511952202576</t>
+          <t>+5511982403910</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+556496241313</t>
+          <t>+555194713402</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -885,12 +885,12 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+5521966659271</t>
+          <t>+5511979869629</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+5511958383006</t>
+          <t>+553491497775</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -919,12 +919,12 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+5512982473711</t>
+          <t>+5511952202576</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+555193033662</t>
+          <t>+556496241313</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -953,122 +953,126 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+5511932101366</t>
+          <t>+5521966659271</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+553298344288</t>
+          <t>+5511958383006</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+5519999605608</t>
+          <t>+5512982473711</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+5511989074358</t>
+          <t>+555193033662</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+56996163824</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr"/>
+          <t>+5511932101366</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+5511986610154</t>
+          <t>+553298344288</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+5511981755261</t>
+          <t>+5519999605608</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+5511970224460</t>
+          <t>+5511989074358</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -1085,14 +1089,10 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+553183201160</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+          <t>+56996163824</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr"/>
       <c r="C38" s="2" t="inlineStr">
         <is>
           <t>2024-10-06</t>
@@ -1102,80 +1102,80 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+5519997544249</t>
+          <t>+5511986610154</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+555384745327</t>
+          <t>+5511981755261</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+5514996501813</t>
+          <t>+5511970224460</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+5511972435655</t>
+          <t>+553183201160</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+5511946397297</t>
+          <t>+5519997544249</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -1187,12 +1187,12 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+553397075362</t>
+          <t>+555384745327</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -1204,12 +1204,12 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+5513991020783</t>
+          <t>+5514996501813</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -1221,12 +1221,12 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+5521969440520</t>
+          <t>+5511972435655</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+553193672938</t>
+          <t>+5511946397297</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -1255,12 +1255,12 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+5522981479241</t>
+          <t>+553397075362</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -1272,12 +1272,12 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+5521979251504</t>
+          <t>+5513991020783</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -1289,12 +1289,12 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+556198475033</t>
+          <t>+5521969440520</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -1306,12 +1306,12 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+5516992236142</t>
+          <t>+553193672938</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
@@ -1323,12 +1323,12 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+5511948893274</t>
+          <t>+5522981479241</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
@@ -1340,7 +1340,7 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+5521968278744</t>
+          <t>+5521979251504</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -1357,12 +1357,12 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+555196384525</t>
+          <t>+556198475033</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -1374,41 +1374,41 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+5511972915535</t>
+          <t>+5516992236142</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+553180135415</t>
+          <t>+5511948893274</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+5521992200288</t>
+          <t>+5521968278744</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
@@ -1418,31 +1418,31 @@
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+556196779704</t>
+          <t>+555196384525</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+5511915810965</t>
+          <t>+5511972915535</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
@@ -1452,36 +1452,36 @@
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+5521981348191</t>
+          <t>+553180135415</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+5524999461825</t>
+          <t>+5521992200288</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -1493,7 +1493,7 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+556196698353</t>
+          <t>+556196779704</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -1510,12 +1510,12 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+5513996671783</t>
+          <t>+5511915810965</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
@@ -1527,12 +1527,12 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+5518996829002</t>
+          <t>+5521981348191</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
@@ -1544,12 +1544,12 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+5511991871576</t>
+          <t>+5524999461825</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
@@ -1561,12 +1561,12 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+5514981509955</t>
+          <t>+556196698353</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
@@ -1578,12 +1578,12 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+555184777056</t>
+          <t>+5513996671783</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -1595,12 +1595,12 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+5513991081873</t>
+          <t>+5518996829002</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -1612,12 +1612,12 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+555197040253</t>
+          <t>+5511991871576</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -1629,80 +1629,80 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+5511977945054</t>
+          <t>+5514981509955</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+553496724472</t>
+          <t>+555184777056</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+553186960521</t>
+          <t>+5513991081873</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+5511978823483</t>
+          <t>+555197040253</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+5516988023377</t>
+          <t>+5511977945054</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
@@ -1714,7 +1714,7 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+553492249633</t>
+          <t>+553496724472</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -1731,12 +1731,12 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+5511996339968</t>
+          <t>+553186960521</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
@@ -1748,12 +1748,12 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+553899926253</t>
+          <t>+5511978823483</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
@@ -1765,12 +1765,12 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+555596010082</t>
+          <t>+5516988023377</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
@@ -1782,12 +1782,12 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+5521984364734</t>
+          <t>+553492249633</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
@@ -1799,7 +1799,7 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+5511964334834</t>
+          <t>+5511996339968</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -1816,12 +1816,12 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+553196748836</t>
+          <t>+553899926253</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+556196182173</t>
+          <t>+555596010082</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
@@ -1850,12 +1850,12 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+5515988279142</t>
+          <t>+5521984364734</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
@@ -1867,12 +1867,12 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+551974071078</t>
+          <t>+5511964334834</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
@@ -1884,12 +1884,12 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+5511943458186</t>
+          <t>+553196748836</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
@@ -1901,12 +1901,12 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+553175675075</t>
+          <t>+556196182173</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
@@ -1918,12 +1918,12 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+558186914048</t>
+          <t>+5515988279142</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
@@ -1935,12 +1935,12 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+5514997419977</t>
+          <t>+551974071078</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
@@ -1952,7 +1952,7 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+5511964838163</t>
+          <t>+5511943458186</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -1969,58 +1969,58 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+555191485515</t>
+          <t>+553175675075</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+5521989929657</t>
+          <t>+558186914048</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+5511986633336</t>
+          <t>+5514997419977</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+5511963264394</t>
+          <t>+5511964838163</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
@@ -2030,19 +2030,19 @@
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+555399629079</t>
+          <t>+555191485515</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
@@ -2054,12 +2054,12 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+555194536598</t>
+          <t>+5521989929657</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
@@ -2071,12 +2071,12 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+5516991290210</t>
+          <t>+5511986633336</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
@@ -2088,7 +2088,7 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+5511985014090</t>
+          <t>+5511963264394</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -2105,12 +2105,12 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+5511971885642</t>
+          <t>+555399629079</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+556192235590</t>
+          <t>+555194536598</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
@@ -2139,12 +2139,12 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+553197910058</t>
+          <t>+5516991290210</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
@@ -2156,7 +2156,7 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+5511945037623</t>
+          <t>+5511985014090</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
@@ -2173,12 +2173,12 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+558586569439</t>
+          <t>+5511971885642</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
@@ -2190,12 +2190,12 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+5511971176538</t>
+          <t>+556192235590</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
@@ -2207,12 +2207,12 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+5511934629890</t>
+          <t>+553197910058</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
@@ -2224,80 +2224,80 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+5521971413810</t>
+          <t>+5511945037623</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+5511986546912</t>
+          <t>+558586569439</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+553171606494</t>
+          <t>+5511971176538</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+553171858800</t>
+          <t>+5511934629890</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+5513996171453</t>
+          <t>+5521971413810</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
@@ -2309,12 +2309,12 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+556191917174</t>
+          <t>+5511986546912</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
@@ -2326,12 +2326,12 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+555181699628</t>
+          <t>+553171606494</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
@@ -2343,12 +2343,12 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+558994526750</t>
+          <t>+553171858800</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
@@ -2360,12 +2360,12 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+5522999490720</t>
+          <t>+5513996171453</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
@@ -2377,12 +2377,12 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+5515996341306</t>
+          <t>+556191917174</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
@@ -2394,12 +2394,12 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+555492618052</t>
+          <t>+555181699628</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
@@ -2411,12 +2411,12 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+5512991532012</t>
+          <t>+558994526750</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
@@ -2428,12 +2428,12 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+556293410347</t>
+          <t>+5522999490720</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
@@ -2445,182 +2445,182 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+553171722790</t>
+          <t>+5515996341306</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+555186041958</t>
+          <t>+555492618052</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+5522999557124</t>
+          <t>+5512991532012</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+5511956194781</t>
+          <t>+556293410347</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+5511949693265</t>
+          <t>+553171722790</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+553399550487</t>
+          <t>+555186041958</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+555193334094</t>
+          <t>+5522999557124</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+553191181765</t>
+          <t>+5511956194781</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+553492868099</t>
+          <t>+5511949693265</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+556198163313</t>
+          <t>+553399550487</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+556286223947</t>
+          <t>+555193334094</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
@@ -2632,12 +2632,12 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+5522992578488</t>
+          <t>+553191181765</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
@@ -2649,24 +2649,24 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+5519981594572</t>
+          <t>+553492868099</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+556196054585</t>
+          <t>+556198163313</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
@@ -2676,155 +2676,155 @@
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+5511987670856</t>
+          <t>+556286223947</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+556296704284</t>
+          <t>+5522992578488</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+5511993877662</t>
+          <t>+5519981594572</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+5511959898968</t>
+          <t>+556196054585</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+5519999136362</t>
+          <t>+5511987670856</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+5519993254501</t>
+          <t>+556296704284</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+556384939482</t>
+          <t>+5511993877662</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+553187320810</t>
+          <t>+5511959898968</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+5519999136362</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
@@ -2836,12 +2836,12 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+5511930092193</t>
+          <t>+5519993254501</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
@@ -2853,12 +2853,12 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+5521977601201</t>
+          <t>+556384939482</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
@@ -2870,177 +2870,177 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+553897450448</t>
+          <t>+553187320810</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+553899341338</t>
+          <t>+5511966134418</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+5521965730495</t>
+          <t>+5511930092193</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+5512996345540</t>
+          <t>+5521977601201</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+553284127574</t>
+          <t>+553897450448</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+553384499379</t>
+          <t>+553899341338</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+5511945704788</t>
+          <t>+5521965730495</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+5522999416651</t>
+          <t>+5512996345540</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+553496487520</t>
+          <t>+553284127574</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+5511953903531</t>
+          <t>+553384499379</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+5511963380338</t>
+          <t>+5511945704788</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
@@ -3050,19 +3050,19 @@
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+556181106946</t>
+          <t>+5522999416651</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
@@ -3074,12 +3074,12 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+5521966430435</t>
+          <t>+553496487520</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
@@ -3091,41 +3091,41 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+5517981343490</t>
+          <t>+5511953903531</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+5517992750891</t>
+          <t>+5511963380338</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+556194435831</t>
+          <t>+556181106946</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
@@ -3135,99 +3135,99 @@
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+556192815706</t>
+          <t>+5521966430435</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+555194681350</t>
+          <t>+5517981343490</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+5521990024205</t>
+          <t>+5517992750891</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+5516993340146</t>
+          <t>+556194435831</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+5511969710184</t>
+          <t>+556192815706</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+555184228607</t>
+          <t>+555194681350</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
@@ -3237,31 +3237,31 @@
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+5521990024205</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+5516991501083</t>
+          <t>+5516993340146</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
@@ -3271,36 +3271,36 @@
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+5511969710184</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+5519974133120</t>
+          <t>+555184228607</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
@@ -3312,12 +3312,12 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+5511971165356</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
@@ -3329,12 +3329,12 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+5528999143242</t>
+          <t>+5516991501083</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
@@ -3346,12 +3346,12 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+5521992992344</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
@@ -3363,12 +3363,12 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+553199111438</t>
+          <t>+5519974133120</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
@@ -3380,7 +3380,7 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+5511991868062</t>
+          <t>+5511971165356</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
@@ -3390,70 +3390,70 @@
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+5521965163770</t>
+          <t>+5528999143242</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+556191281418</t>
+          <t>+5521992992344</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+5511970484790</t>
+          <t>+553199111438</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+553888359308</t>
+          <t>+5511991868062</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
@@ -3465,12 +3465,12 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+5519999395027</t>
+          <t>+5521965163770</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
@@ -3482,12 +3482,12 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+553187556222</t>
+          <t>+556191281418</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
@@ -3499,12 +3499,12 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+556181344711</t>
+          <t>+5511970484790</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
@@ -3516,12 +3516,12 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+5511937138186</t>
+          <t>+553888359308</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
@@ -3533,12 +3533,12 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+553175235564</t>
+          <t>+5519999395027</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
@@ -3550,12 +3550,12 @@
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+5521970987542</t>
+          <t>+553187556222</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
@@ -3567,12 +3567,12 @@
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+553398575480</t>
+          <t>+556181344711</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
@@ -3584,80 +3584,80 @@
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+553193590683</t>
+          <t>+5511937138186</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+5522997230806</t>
+          <t>+553175235564</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+5511985698796</t>
+          <t>+5521970987542</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+5521965096539</t>
+          <t>+553398575480</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+5521986678801</t>
+          <t>+553193590683</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
@@ -3669,12 +3669,12 @@
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+555197496105</t>
+          <t>+5522997230806</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
@@ -3686,7 +3686,7 @@
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+5511947650170</t>
+          <t>+5511985698796</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
@@ -3703,12 +3703,12 @@
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+553191829450</t>
+          <t>+5521965096539</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
@@ -3720,12 +3720,12 @@
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+5511976440031</t>
+          <t>+5521986678801</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
@@ -3737,12 +3737,12 @@
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+556293286544</t>
+          <t>+555197496105</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
@@ -3754,12 +3754,12 @@
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+556194662595</t>
+          <t>+5511947650170</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
@@ -3771,12 +3771,12 @@
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+555181664215</t>
+          <t>+553191829450</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
@@ -3788,12 +3788,12 @@
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+5521978927776</t>
+          <t>+5511976440031</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
@@ -3805,97 +3805,97 @@
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+553499089476</t>
+          <t>+556293286544</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+5524999964686</t>
+          <t>+556194662595</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+5514997100570</t>
+          <t>+555181664215</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+5511956996383</t>
+          <t>+5521978927776</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>+5524999215405</t>
+          <t>+553499089476</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>+5513974102524</t>
+          <t>+5524999964686</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
@@ -3907,12 +3907,12 @@
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>+5511985663846</t>
+          <t>+5514997100570</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
@@ -3924,80 +3924,80 @@
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>+5521997117322</t>
+          <t>+5511956996383</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>+555185802949</t>
+          <t>+5524999215405</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>+5519997204476</t>
+          <t>+5513974102524</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>+556296767169</t>
+          <t>+5511985663846</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>+555199100909</t>
+          <t>+5521997117322</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
@@ -4009,12 +4009,12 @@
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>+5511960197823</t>
+          <t>+5519997204476</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
@@ -4026,12 +4026,12 @@
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>+5516993905706</t>
+          <t>+556296767169</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
@@ -4043,63 +4043,63 @@
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>+555491229014</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>+553183316751</t>
+          <t>+5511960197823</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>+5511960297061</t>
+          <t>+5516993905706</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>+5511967618163</t>
+          <t>+555491229014</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
@@ -4111,12 +4111,12 @@
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>+5511953782520</t>
+          <t>+553183316751</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
@@ -4128,12 +4128,12 @@
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>+555194565879</t>
+          <t>+5511960297061</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
@@ -4145,12 +4145,12 @@
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>+5519987116584</t>
+          <t>+5511967618163</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
@@ -4162,7 +4162,7 @@
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>+5511963669553</t>
+          <t>+5511953782520</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
@@ -4179,12 +4179,12 @@
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>+5511967026448</t>
+          <t>+555194565879</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
@@ -4196,12 +4196,12 @@
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>+556198857512</t>
+          <t>+5519987116584</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
@@ -4213,7 +4213,7 @@
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>+5511970838412</t>
+          <t>+5511963669553</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
@@ -4230,12 +4230,12 @@
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>+553597695870</t>
+          <t>+5511967026448</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
@@ -4247,12 +4247,12 @@
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>+5519994161076</t>
+          <t>+5511970838412</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
@@ -4264,12 +4264,12 @@
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>+5512974073721</t>
+          <t>+5519994161076</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
@@ -4281,12 +4281,12 @@
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>+553899272884</t>
+          <t>+5512974073721</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
@@ -4298,12 +4298,12 @@
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>+555185474443</t>
+          <t>+553899272884</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">

--- a/gabi.xlsx
+++ b/gabi.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C320"/>
+  <dimension ref="A1:C325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,12 +477,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+553191751465</t>
+          <t>+5517981571512</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -494,58 +494,58 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5511940728898</t>
+          <t>+5519978183486</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5511947768319</t>
+          <t>+556184421881</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+5522997621623</t>
+          <t>+5517991290893</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5521994075389</t>
+          <t>+5521964749555</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -555,65 +555,65 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5511981892366</t>
+          <t>+553191751465</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+553584167951</t>
+          <t>+5511940728898</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+555192717667</t>
+          <t>+5511947768319</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5522997104652</t>
+          <t>+5522997621623</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -623,31 +623,31 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5522992752597</t>
+          <t>+5521994075389</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5511999318706</t>
+          <t>+5511981892366</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -657,121 +657,121 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5521992761358</t>
+          <t>+553584167951</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+556198289593</t>
+          <t>+555192717667</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5521979898353</t>
+          <t>+5522997104652</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5511951735066</t>
+          <t>+5522992752597</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5521968066779</t>
+          <t>+5511999318706</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+5511940052132</t>
+          <t>+5521992761358</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+555584586767</t>
+          <t>+556198289593</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -783,41 +783,41 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5511959504956</t>
+          <t>+5521979898353</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5519991884271</t>
+          <t>+5511951735066</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5521999546007</t>
+          <t>+5521968066779</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -827,53 +827,53 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+5521971985918</t>
+          <t>+5511940052132</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+5511982403910</t>
+          <t>+555584586767</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+555194713402</t>
+          <t>+5511959504956</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -885,12 +885,12 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+5511979869629</t>
+          <t>+5519991884271</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+553491497775</t>
+          <t>+5521999546007</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -919,12 +919,12 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+5511952202576</t>
+          <t>+5521971985918</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+556496241313</t>
+          <t>+5511982403910</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -953,12 +953,12 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+5521966659271</t>
+          <t>+555194713402</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -970,7 +970,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+5511958383006</t>
+          <t>+5511979869629</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -987,12 +987,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+5512982473711</t>
+          <t>+553491497775</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+555193033662</t>
+          <t>+5511952202576</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -1021,88 +1021,92 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+5511932101366</t>
+          <t>+556496241313</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+553298344288</t>
+          <t>+5521966659271</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+5519999605608</t>
+          <t>+5511958383006</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+5511989074358</t>
+          <t>+5512982473711</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+56996163824</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr"/>
+          <t>+555193033662</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+5511986610154</t>
+          <t>+5511932101366</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -1112,53 +1116,53 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+5511981755261</t>
+          <t>+553298344288</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+5511970224460</t>
+          <t>+5519999605608</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+553183201160</t>
+          <t>+5511989074358</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -1170,58 +1174,54 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+5519997544249</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+          <t>+56996163824</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr"/>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+555384745327</t>
+          <t>+5511986610154</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+5514996501813</t>
+          <t>+5511981755261</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+5511972435655</t>
+          <t>+5511970224460</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -1231,36 +1231,36 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+5511946397297</t>
+          <t>+553183201160</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+553397075362</t>
+          <t>+5519997544249</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -1272,12 +1272,12 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+5513991020783</t>
+          <t>+555384745327</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -1289,12 +1289,12 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+5521969440520</t>
+          <t>+5514996501813</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -1306,12 +1306,12 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+553193672938</t>
+          <t>+5511972435655</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
@@ -1323,12 +1323,12 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+5522981479241</t>
+          <t>+5511946397297</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
@@ -1340,12 +1340,12 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+5521979251504</t>
+          <t>+553397075362</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
@@ -1357,12 +1357,12 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+556198475033</t>
+          <t>+5513991020783</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -1374,12 +1374,12 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+5516992236142</t>
+          <t>+5521969440520</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -1391,12 +1391,12 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+5511948893274</t>
+          <t>+553193672938</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
@@ -1408,12 +1408,12 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+5521968278744</t>
+          <t>+5522981479241</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -1425,12 +1425,12 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+555196384525</t>
+          <t>+5521979251504</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -1442,131 +1442,131 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+5511972915535</t>
+          <t>+556198475033</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+553180135415</t>
+          <t>+5516992236142</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+5521992200288</t>
+          <t>+5511948893274</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+556196779704</t>
+          <t>+5521968278744</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+5511915810965</t>
+          <t>+555196384525</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+5521981348191</t>
+          <t>+5511972915535</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+5524999461825</t>
+          <t>+553180135415</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+556196698353</t>
+          <t>+5521992200288</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
@@ -1578,12 +1578,12 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+5513996671783</t>
+          <t>+556196779704</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -1595,12 +1595,12 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+5518996829002</t>
+          <t>+5511915810965</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -1612,12 +1612,12 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+5511991871576</t>
+          <t>+5521981348191</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -1629,12 +1629,12 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+5514981509955</t>
+          <t>+5524999461825</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -1646,12 +1646,12 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+555184777056</t>
+          <t>+556196698353</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
@@ -1663,7 +1663,7 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+5513991081873</t>
+          <t>+5513996671783</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -1680,12 +1680,12 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+555197040253</t>
+          <t>+5518996829002</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
@@ -1697,7 +1697,7 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+5511977945054</t>
+          <t>+5511991871576</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -1707,87 +1707,87 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+553496724472</t>
+          <t>+5514981509955</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+553186960521</t>
+          <t>+555184777056</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+5511978823483</t>
+          <t>+5513991081873</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+5516988023377</t>
+          <t>+555197040253</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+553492249633</t>
+          <t>+5511977945054</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
@@ -1799,12 +1799,12 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+5511996339968</t>
+          <t>+553496724472</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
@@ -1816,12 +1816,12 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+553899926253</t>
+          <t>+553186960521</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+555596010082</t>
+          <t>+5511978823483</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
@@ -1850,12 +1850,12 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+5521984364734</t>
+          <t>+5516988023377</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
@@ -1867,12 +1867,12 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+5511964334834</t>
+          <t>+553492249633</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
@@ -1884,12 +1884,12 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+553196748836</t>
+          <t>+5511996339968</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
@@ -1901,12 +1901,12 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+556196182173</t>
+          <t>+553899926253</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
@@ -1918,12 +1918,12 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+5515988279142</t>
+          <t>+555596010082</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
@@ -1935,12 +1935,12 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+551974071078</t>
+          <t>+5521984364734</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
@@ -1952,7 +1952,7 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+5511943458186</t>
+          <t>+5511964334834</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -1969,7 +1969,7 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+553175675075</t>
+          <t>+553196748836</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -1986,12 +1986,12 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+558186914048</t>
+          <t>+556196182173</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
@@ -2003,12 +2003,12 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+5514997419977</t>
+          <t>+5515988279142</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
@@ -2020,12 +2020,12 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+5511964838163</t>
+          <t>+551974071078</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
@@ -2037,92 +2037,92 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+555191485515</t>
+          <t>+5511943458186</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+5521989929657</t>
+          <t>+553175675075</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+5511986633336</t>
+          <t>+558186914048</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+5511963264394</t>
+          <t>+5514997419977</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+555399629079</t>
+          <t>+5511964838163</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+555194536598</t>
+          <t>+555191485515</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -2139,12 +2139,12 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+5516991290210</t>
+          <t>+5521989929657</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
@@ -2156,7 +2156,7 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+5511985014090</t>
+          <t>+5511986633336</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
@@ -2173,7 +2173,7 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+5511971885642</t>
+          <t>+5511963264394</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -2190,12 +2190,12 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+556192235590</t>
+          <t>+555399629079</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
@@ -2207,12 +2207,12 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+553197910058</t>
+          <t>+555194536598</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
@@ -2224,12 +2224,12 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+5511945037623</t>
+          <t>+5516991290210</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
@@ -2241,12 +2241,12 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+558586569439</t>
+          <t>+5511985014090</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
@@ -2258,7 +2258,7 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+5511971176538</t>
+          <t>+5511971885642</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -2275,12 +2275,12 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+5511934629890</t>
+          <t>+556192235590</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
@@ -2292,24 +2292,24 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+5521971413810</t>
+          <t>+553197910058</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+5511986546912</t>
+          <t>+5511945037623</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
@@ -2319,70 +2319,70 @@
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+553171606494</t>
+          <t>+558586569439</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+553171858800</t>
+          <t>+5511971176538</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+5513996171453</t>
+          <t>+5511934629890</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+556191917174</t>
+          <t>+5521971413810</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
@@ -2394,12 +2394,12 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+555181699628</t>
+          <t>+5511986546912</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
@@ -2411,12 +2411,12 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+558994526750</t>
+          <t>+553171606494</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
@@ -2428,12 +2428,12 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+5522999490720</t>
+          <t>+553171858800</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
@@ -2445,12 +2445,12 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+5515996341306</t>
+          <t>+5513996171453</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
@@ -2462,12 +2462,12 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+555492618052</t>
+          <t>+556191917174</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
@@ -2479,12 +2479,12 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+5512991532012</t>
+          <t>+555181699628</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
@@ -2496,12 +2496,12 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+556293410347</t>
+          <t>+558994526750</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
@@ -2513,109 +2513,109 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+553171722790</t>
+          <t>+5522999490720</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+555186041958</t>
+          <t>+5515996341306</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+5522999557124</t>
+          <t>+555492618052</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+5511956194781</t>
+          <t>+5512991532012</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+5511949693265</t>
+          <t>+556293410347</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+553399550487</t>
+          <t>+553171722790</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+555193334094</t>
+          <t>+555186041958</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
@@ -2625,87 +2625,87 @@
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+553191181765</t>
+          <t>+5522999557124</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+553492868099</t>
+          <t>+5511956194781</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+556198163313</t>
+          <t>+5511949693265</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+556286223947</t>
+          <t>+553399550487</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+5522992578488</t>
+          <t>+555193334094</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
@@ -2717,58 +2717,58 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+5519981594572</t>
+          <t>+553191181765</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+556196054585</t>
+          <t>+553492868099</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+5511987670856</t>
+          <t>+556198163313</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+556296704284</t>
+          <t>+556286223947</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
@@ -2778,116 +2778,116 @@
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+5511993877662</t>
+          <t>+5522992578488</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+5511959898968</t>
+          <t>+5519981594572</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+5519999136362</t>
+          <t>+556196054585</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+5519993254501</t>
+          <t>+5511987670856</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+556384939482</t>
+          <t>+556296704284</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+553187320810</t>
+          <t>+5511993877662</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+5511959898968</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
@@ -2897,19 +2897,19 @@
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+5511930092193</t>
+          <t>+5519999136362</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
@@ -2921,12 +2921,12 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+5521977601201</t>
+          <t>+5519993254501</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
@@ -2938,216 +2938,216 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+553897450448</t>
+          <t>+556384939482</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+553899341338</t>
+          <t>+553187320810</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+5521965730495</t>
+          <t>+5511966134418</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+5512996345540</t>
+          <t>+5511930092193</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+553284127574</t>
+          <t>+5521977601201</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+553384499379</t>
+          <t>+553897450448</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+5511945704788</t>
+          <t>+553899341338</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+5522999416651</t>
+          <t>+5521965730495</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+553496487520</t>
+          <t>+5512996345540</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+5511953903531</t>
+          <t>+553284127574</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+5511963380338</t>
+          <t>+553384499379</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+556181106946</t>
+          <t>+5511945704788</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+5521966430435</t>
+          <t>+5522999416651</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
@@ -3159,58 +3159,58 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+5517981343490</t>
+          <t>+553496487520</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+5517992750891</t>
+          <t>+5511953903531</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+556194435831</t>
+          <t>+5511963380338</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+556192815706</t>
+          <t>+556181106946</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
@@ -3220,172 +3220,172 @@
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+555194681350</t>
+          <t>+5521966430435</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+5521990024205</t>
+          <t>+5517981343490</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+5516993340146</t>
+          <t>+5517992750891</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+5511969710184</t>
+          <t>+556194435831</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+555184228607</t>
+          <t>+556192815706</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+555194681350</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+5516991501083</t>
+          <t>+5521990024205</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+5516993340146</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+5519974133120</t>
+          <t>+5511969710184</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+5511971165356</t>
+          <t>+555184228607</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
@@ -3397,12 +3397,12 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+5528999143242</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
@@ -3414,12 +3414,12 @@
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+5521992992344</t>
+          <t>+5516991501083</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
@@ -3431,12 +3431,12 @@
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+553199111438</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
@@ -3448,97 +3448,97 @@
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+5511991868062</t>
+          <t>+5519974133120</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+5521965163770</t>
+          <t>+5511971165356</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+556191281418</t>
+          <t>+5528999143242</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+5511970484790</t>
+          <t>+5521992992344</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+553888359308</t>
+          <t>+553199111438</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+5519999395027</t>
+          <t>+5511991868062</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
@@ -3550,12 +3550,12 @@
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+553187556222</t>
+          <t>+5521965163770</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
@@ -3567,7 +3567,7 @@
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+556181344711</t>
+          <t>+556191281418</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
@@ -3584,7 +3584,7 @@
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+5511937138186</t>
+          <t>+5511970484790</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
@@ -3601,12 +3601,12 @@
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+553175235564</t>
+          <t>+553888359308</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
@@ -3618,12 +3618,12 @@
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+5521970987542</t>
+          <t>+5519999395027</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
@@ -3635,12 +3635,12 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+553398575480</t>
+          <t>+553187556222</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
@@ -3652,58 +3652,58 @@
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+553193590683</t>
+          <t>+556181344711</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+5522997230806</t>
+          <t>+5511937138186</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+5511985698796</t>
+          <t>+553175235564</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+5521965096539</t>
+          <t>+5521970987542</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
@@ -3713,36 +3713,36 @@
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+5521986678801</t>
+          <t>+553398575480</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+555197496105</t>
+          <t>+553193590683</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
@@ -3754,12 +3754,12 @@
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+5511947650170</t>
+          <t>+5522997230806</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
@@ -3771,12 +3771,12 @@
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+553191829450</t>
+          <t>+5511985698796</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
@@ -3788,12 +3788,12 @@
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+5511976440031</t>
+          <t>+5521965096539</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
@@ -3805,12 +3805,12 @@
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+556293286544</t>
+          <t>+5521986678801</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
@@ -3822,12 +3822,12 @@
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+556194662595</t>
+          <t>+555197496105</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
@@ -3839,12 +3839,12 @@
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+555181664215</t>
+          <t>+5511947650170</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
@@ -3856,12 +3856,12 @@
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+5521978927776</t>
+          <t>+553191829450</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
@@ -3873,114 +3873,114 @@
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>+553499089476</t>
+          <t>+5511976440031</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>+5524999964686</t>
+          <t>+556293286544</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>+5514997100570</t>
+          <t>+556194662595</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>+5511956996383</t>
+          <t>+555181664215</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>+5524999215405</t>
+          <t>+5521978927776</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>+5513974102524</t>
+          <t>+553499089476</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>+5511985663846</t>
+          <t>+5524999964686</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
@@ -3992,75 +3992,75 @@
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>+5521997117322</t>
+          <t>+5514997100570</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>+5519997204476</t>
+          <t>+5511956996383</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>+556296767169</t>
+          <t>+5524999215405</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>+555199100909</t>
+          <t>+5513974102524</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>+5511960197823</t>
+          <t>+5511985663846</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
@@ -4070,19 +4070,19 @@
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>+5516993905706</t>
+          <t>+5521997117322</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
@@ -4094,58 +4094,58 @@
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>+555491229014</t>
+          <t>+5519997204476</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>+553183316751</t>
+          <t>+556296767169</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>+5511960297061</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>+5511967618163</t>
+          <t>+5511960197823</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
@@ -4155,36 +4155,36 @@
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>+5511953782520</t>
+          <t>+5516993905706</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>+555194565879</t>
+          <t>+555491229014</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
@@ -4196,12 +4196,12 @@
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>+5519987116584</t>
+          <t>+553183316751</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
@@ -4213,7 +4213,7 @@
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>+5511963669553</t>
+          <t>+5511960297061</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
@@ -4230,7 +4230,7 @@
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>+5511967026448</t>
+          <t>+5511967618163</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
@@ -4247,7 +4247,7 @@
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>+5511970838412</t>
+          <t>+5511953782520</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
@@ -4264,12 +4264,12 @@
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>+5519994161076</t>
+          <t>+555194565879</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
@@ -4281,12 +4281,12 @@
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>+5512974073721</t>
+          <t>+5519987116584</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
@@ -4298,12 +4298,12 @@
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>+553899272884</t>
+          <t>+5511963669553</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
@@ -4315,24 +4315,24 @@
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>+5513974277521</t>
+          <t>+5511967026448</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>+5511959480908</t>
+          <t>+5511970838412</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
@@ -4342,65 +4342,65 @@
       </c>
       <c r="C229" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>+553173039716</t>
+          <t>+5519994161076</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>+5519983138652</t>
+          <t>+5512974073721</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>+5516981621753</t>
+          <t>+553899272884</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>+5513996269435</t>
+          <t>+5513974277521</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
@@ -4417,7 +4417,7 @@
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>+5511946858778</t>
+          <t>+5511959480908</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
@@ -4434,12 +4434,12 @@
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>+553498008945</t>
+          <t>+553173039716</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
@@ -4451,12 +4451,12 @@
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+5519983138652</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
@@ -4468,12 +4468,12 @@
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>+555198093042</t>
+          <t>+5516981621753</t>
         </is>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C237" s="2" t="inlineStr">
@@ -4485,12 +4485,12 @@
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>+5519992746058</t>
+          <t>+5513996269435</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
@@ -4502,7 +4502,7 @@
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>+5511959327333</t>
+          <t>+5511946858778</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
@@ -4519,12 +4519,12 @@
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>+5519991342511</t>
+          <t>+553498008945</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr">
@@ -4536,12 +4536,12 @@
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>+5511910662570</t>
+          <t>+5521965489343</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
@@ -4553,12 +4553,12 @@
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>+5511979754910</t>
+          <t>+555198093042</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
@@ -4570,7 +4570,7 @@
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>+5519984563784</t>
+          <t>+5519992746058</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
@@ -4587,12 +4587,12 @@
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>+5524978358315</t>
+          <t>+5511959327333</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
@@ -4604,12 +4604,12 @@
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>+5521964816197</t>
+          <t>+5519991342511</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
@@ -4621,12 +4621,12 @@
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>+554497202222</t>
+          <t>+5511910662570</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
@@ -4638,12 +4638,12 @@
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>+553187980853</t>
+          <t>+5511979754910</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
@@ -4655,12 +4655,12 @@
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>+555191226749</t>
+          <t>+5519984563784</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
@@ -4672,12 +4672,12 @@
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>+5511982048012</t>
+          <t>+5524978358315</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C249" s="2" t="inlineStr">
@@ -4689,12 +4689,12 @@
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>+5511960946166</t>
+          <t>+5521964816197</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
@@ -4706,12 +4706,12 @@
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>+5519991426273</t>
+          <t>+554497202222</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
@@ -4723,12 +4723,12 @@
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>+5519981472020</t>
+          <t>+553187980853</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
@@ -4740,12 +4740,12 @@
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>+5521978835599</t>
+          <t>+555191226749</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr">
@@ -4757,24 +4757,24 @@
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>+555180176562</t>
+          <t>+5511982048012</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>+5511942185569</t>
+          <t>+5511960946166</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
@@ -4784,31 +4784,31 @@
       </c>
       <c r="C255" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>+5511947261969</t>
+          <t>+5519991426273</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>+5519992124887</t>
+          <t>+5519981472020</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
@@ -4818,36 +4818,36 @@
       </c>
       <c r="C257" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>+553195359312</t>
+          <t>+5521978835599</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>+5511962993512</t>
+          <t>+555180176562</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
@@ -4859,7 +4859,7 @@
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>+5511993564173</t>
+          <t>+5511942185569</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
@@ -4876,12 +4876,12 @@
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>+553391919105</t>
+          <t>+5511947261969</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
@@ -4893,12 +4893,12 @@
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>+5511985800906</t>
+          <t>+5519992124887</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
@@ -4910,41 +4910,41 @@
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>+5511959248300</t>
+          <t>+553195359312</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>+5519994486599</t>
+          <t>+5511962993512</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>+5511987774053</t>
+          <t>+5511993564173</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
@@ -4954,53 +4954,53 @@
       </c>
       <c r="C265" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>+553184640938</t>
+          <t>+553391919105</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>+5521990575799</t>
+          <t>+5511985800906</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>+555191899807</t>
+          <t>+5511959248300</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
@@ -5012,12 +5012,12 @@
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>+556194027204</t>
+          <t>+5519994486599</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
@@ -5029,12 +5029,12 @@
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>+5516999494445</t>
+          <t>+5511987774053</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
@@ -5046,12 +5046,12 @@
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>+5511952489850</t>
+          <t>+553184640938</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
@@ -5063,7 +5063,7 @@
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>+5521981400589</t>
+          <t>+5521990575799</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
@@ -5080,12 +5080,12 @@
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>+5511957982446</t>
+          <t>+555191899807</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr">
@@ -5097,12 +5097,12 @@
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>+5511948883579</t>
+          <t>+556194027204</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>+555197184596</t>
+          <t>+5516999494445</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
@@ -5131,12 +5131,12 @@
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>+556284316928</t>
+          <t>+5511952489850</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
@@ -5148,12 +5148,12 @@
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>+5511983534806</t>
+          <t>+5521981400589</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C277" s="2" t="inlineStr">
@@ -5165,7 +5165,7 @@
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>+5511974919907</t>
+          <t>+5511957982446</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
@@ -5182,12 +5182,12 @@
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>+553298585881</t>
+          <t>+5511948883579</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
@@ -5199,12 +5199,12 @@
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>+5511996693536</t>
+          <t>+555197184596</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
@@ -5216,75 +5216,75 @@
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>+553196634240</t>
+          <t>+556284316928</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>+555186391577</t>
+          <t>+5511983534806</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C282" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>+555194687691</t>
+          <t>+5511974919907</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>+5511913167865</t>
+          <t>+553298585881</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C284" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>+5511978691664</t>
+          <t>+5511996693536</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
@@ -5294,19 +5294,19 @@
       </c>
       <c r="C285" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>+553497201121</t>
+          <t>+553196634240</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
@@ -5318,58 +5318,58 @@
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>+558881220317</t>
+          <t>+555186391577</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>+5511952172793</t>
+          <t>+555194687691</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C288" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>+5513997769440</t>
+          <t>+5511913167865</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C289" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>+5511989993229</t>
+          <t>+5511978691664</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
@@ -5379,36 +5379,36 @@
       </c>
       <c r="C290" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>+5511994902251</t>
+          <t>+553497201121</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>+5519993039822</t>
+          <t>+558881220317</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
@@ -5420,7 +5420,7 @@
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>+5511990067914</t>
+          <t>+5511952172793</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
@@ -5437,12 +5437,12 @@
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>+5521966715011</t>
+          <t>+5513997769440</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C294" s="2" t="inlineStr">
@@ -5454,12 +5454,12 @@
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>+5521965551832</t>
+          <t>+5511989993229</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
@@ -5471,12 +5471,12 @@
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>+5512978144084</t>
+          <t>+5511994902251</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr">
@@ -5488,12 +5488,12 @@
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>+555496011266</t>
+          <t>+5519993039822</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C297" s="2" t="inlineStr">
@@ -5505,12 +5505,12 @@
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>+5521965910269</t>
+          <t>+5511990067914</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr">
@@ -5522,7 +5522,7 @@
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>+5521981376833</t>
+          <t>+5521966715011</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
@@ -5532,31 +5532,31 @@
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>+5511986157257</t>
+          <t>+5521965551832</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>+5512996683720</t>
+          <t>+5512978144084</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
@@ -5566,65 +5566,65 @@
       </c>
       <c r="C301" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>+5514996744793</t>
+          <t>+555496011266</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C302" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>+555199788369</t>
+          <t>+5521965910269</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C303" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>+553199854571</t>
+          <t>+5521981376833</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C304" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>+5511932110481</t>
+          <t>+5511986157257</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
@@ -5634,260 +5634,345 @@
       </c>
       <c r="C305" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>+556193189092</t>
+          <t>+5512996683720</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>+5517992036626</t>
+          <t>+5514996744793</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C307" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>+553199616643</t>
+          <t>+555199788369</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>+5521977008499</t>
+          <t>+553199854571</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C309" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>+5521977084479</t>
+          <t>+5511932110481</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C310" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>+553496442965</t>
+          <t>+556193189092</t>
         </is>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>+5518997151251</t>
+          <t>+5517992036626</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>+556198606157</t>
+          <t>+553199616643</t>
         </is>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-02</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>+555195284929</t>
+          <t>+5521977008499</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C314" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-02</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>+5511987594244</t>
+          <t>+5521977084479</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-02</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>+5511959227230</t>
+          <t>+553496442965</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>+555599102946</t>
+          <t>+5518997151251</t>
         </is>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C317" s="2" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>+5511970726796</t>
+          <t>+556198606157</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C318" s="2" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="inlineStr">
         <is>
-          <t>+5519996017926</t>
+          <t>+555195284929</t>
         </is>
       </c>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C319" s="2" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="inlineStr">
         <is>
+          <t>+5511987594244</t>
+        </is>
+      </c>
+      <c r="B320" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C320" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="inlineStr">
+        <is>
+          <t>+5511959227230</t>
+        </is>
+      </c>
+      <c r="B321" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C321" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="inlineStr">
+        <is>
+          <t>+555599102946</t>
+        </is>
+      </c>
+      <c r="B322" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C322" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="inlineStr">
+        <is>
+          <t>+5511970726796</t>
+        </is>
+      </c>
+      <c r="B323" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C323" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="inlineStr">
+        <is>
+          <t>+5519996017926</t>
+        </is>
+      </c>
+      <c r="B324" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C324" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="inlineStr">
+        <is>
           <t>+5511949288154</t>
         </is>
       </c>
-      <c r="B320" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C320" s="2" t="inlineStr">
+      <c r="B325" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C325" s="2" t="inlineStr">
         <is>
           <t>2024-08-26</t>
         </is>

--- a/gabi.xlsx
+++ b/gabi.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C325"/>
+  <dimension ref="A1:C342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,126 +477,126 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+5517981571512</t>
+          <t>+555491016875</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5519978183486</t>
+          <t>+5511952669839</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+556184421881</t>
+          <t>+5521989149541</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+5517991290893</t>
+          <t>+5511965520814</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5521964749555</t>
+          <t>+5511940372227</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+553191751465</t>
+          <t>+5521979503998</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5511940728898</t>
+          <t>+5521997899616</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5511947768319</t>
+          <t>+5511961209680</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -606,48 +606,48 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5522997621623</t>
+          <t>+5512991256492</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5521994075389</t>
+          <t>+556292340085</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5511981892366</t>
+          <t>+5511975721557</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -657,388 +657,388 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+553584167951</t>
+          <t>+556192470699</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+555192717667</t>
+          <t>+557598748582</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5522997104652</t>
+          <t>+554891421017</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5522992752597</t>
+          <t>+556798473306</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5511999318706</t>
+          <t>+5521987823541</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+5521992761358</t>
+          <t>+5514991722226</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+556198289593</t>
+          <t>+5519993731215</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5521979898353</t>
+          <t>+5517981571512</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5511951735066</t>
+          <t>+5519978183486</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5521968066779</t>
+          <t>+556184421881</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+5511940052132</t>
+          <t>+5517991290893</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+555584586767</t>
+          <t>+5521964749555</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+5511959504956</t>
+          <t>+553191751465</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+5519991884271</t>
+          <t>+5511940728898</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+5521999546007</t>
+          <t>+5511947768319</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+5521971985918</t>
+          <t>+5522997621623</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5511982403910</t>
+          <t>+5521994075389</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+555194713402</t>
+          <t>+5511981892366</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+5511979869629</t>
+          <t>+555192717667</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+553491497775</t>
+          <t>+5522997104652</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+5511952202576</t>
+          <t>+5522992752597</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+556496241313</t>
+          <t>+5511999318706</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+5521966659271</t>
+          <t>+5521992761358</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -1048,116 +1048,116 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+5511958383006</t>
+          <t>+556198289593</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+5512982473711</t>
+          <t>+5521979898353</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+555193033662</t>
+          <t>+5511951735066</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+5511932101366</t>
+          <t>+5521968066779</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+553298344288</t>
+          <t>+5511940052132</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+5519999605608</t>
+          <t>+555584586767</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+5511989074358</t>
+          <t>+5511959504956</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -1167,61 +1167,65 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+56996163824</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr"/>
+          <t>+5519991884271</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+5511986610154</t>
+          <t>+5521999546007</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+5511981755261</t>
+          <t>+5521971985918</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+5511970224460</t>
+          <t>+5511982403910</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -1231,252 +1235,248 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+553183201160</t>
+          <t>+555194713402</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+5519997544249</t>
+          <t>+5511979869629</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+555384745327</t>
+          <t>+553491497775</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+5514996501813</t>
+          <t>+5511952202576</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+5511972435655</t>
+          <t>+556496241313</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+5511946397297</t>
+          <t>+5521966659271</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+553397075362</t>
+          <t>+5511958383006</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+5513991020783</t>
+          <t>+5512982473711</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+5521969440520</t>
+          <t>+555193033662</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+553193672938</t>
+          <t>+5511932101366</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+5522981479241</t>
+          <t>+553298344288</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+5521979251504</t>
+          <t>+5519999605608</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+556198475033</t>
+          <t>+5511989074358</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+5516992236142</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+          <t>+56996163824</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr"/>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+5511948893274</t>
+          <t>+5511986610154</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -1486,116 +1486,116 @@
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+5521968278744</t>
+          <t>+5511981755261</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+555196384525</t>
+          <t>+5511970224460</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+5511972915535</t>
+          <t>+553183201160</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+553180135415</t>
+          <t>+5519997544249</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+5521992200288</t>
+          <t>+555384745327</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+556196779704</t>
+          <t>+5514996501813</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+5511915810965</t>
+          <t>+5511972435655</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -1605,286 +1605,286 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+5521981348191</t>
+          <t>+5511946397297</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+5524999461825</t>
+          <t>+553397075362</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+556196698353</t>
+          <t>+5513991020783</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+5513996671783</t>
+          <t>+5521969440520</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+5518996829002</t>
+          <t>+553193672938</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+5511991871576</t>
+          <t>+5522981479241</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+5514981509955</t>
+          <t>+5521979251504</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+555184777056</t>
+          <t>+556198475033</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+5513991081873</t>
+          <t>+5516992236142</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+555197040253</t>
+          <t>+5511948893274</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+5511977945054</t>
+          <t>+5521968278744</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+553496724472</t>
+          <t>+555196384525</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+553186960521</t>
+          <t>+5511972915535</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+5511978823483</t>
+          <t>+553180135415</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+5516988023377</t>
+          <t>+5521992200288</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+553492249633</t>
+          <t>+556196779704</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+5511996339968</t>
+          <t>+5511915810965</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -1894,189 +1894,189 @@
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+553899926253</t>
+          <t>+5521981348191</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+555596010082</t>
+          <t>+5524999461825</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+5521984364734</t>
+          <t>+556196698353</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+5511964334834</t>
+          <t>+5513996671783</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+553196748836</t>
+          <t>+5518996829002</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+556196182173</t>
+          <t>+5511991871576</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+5515988279142</t>
+          <t>+5514981509955</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+551974071078</t>
+          <t>+555184777056</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+5511943458186</t>
+          <t>+5513991081873</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+553175675075</t>
+          <t>+555197040253</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+558186914048</t>
+          <t>+5511977945054</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
@@ -2088,12 +2088,12 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+5514997419977</t>
+          <t>+553496724472</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
@@ -2105,12 +2105,12 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+5511964838163</t>
+          <t>+553186960521</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
@@ -2122,58 +2122,58 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+555191485515</t>
+          <t>+5511978823483</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+5521989929657</t>
+          <t>+5516988023377</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+5511986633336</t>
+          <t>+553492249633</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+5511963264394</t>
+          <t>+5511996339968</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -2183,65 +2183,65 @@
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+555399629079</t>
+          <t>+553899926253</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+555194536598</t>
+          <t>+555596010082</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+5516991290210</t>
+          <t>+5521984364734</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+5511985014090</t>
+          <t>+5511964334834</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
@@ -2251,31 +2251,31 @@
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+5511971885642</t>
+          <t>+553196748836</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+556192235590</t>
+          <t>+556196182173</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -2285,116 +2285,116 @@
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+553197910058</t>
+          <t>+5515988279142</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+5511945037623</t>
+          <t>+551974071078</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+558586569439</t>
+          <t>+5511943458186</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+5511971176538</t>
+          <t>+553175675075</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+5511934629890</t>
+          <t>+558186914048</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+5521971413810</t>
+          <t>+5514997419977</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+5511986546912</t>
+          <t>+5511964838163</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -2404,252 +2404,252 @@
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+553171606494</t>
+          <t>+555191485515</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+553171858800</t>
+          <t>+5521989929657</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+5513996171453</t>
+          <t>+5511986633336</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+556191917174</t>
+          <t>+5511963264394</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+555181699628</t>
+          <t>+555399629079</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+558994526750</t>
+          <t>+555194536598</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+5522999490720</t>
+          <t>+5516991290210</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+5515996341306</t>
+          <t>+5511985014090</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+555492618052</t>
+          <t>+5511971885642</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+5512991532012</t>
+          <t>+556192235590</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+556293410347</t>
+          <t>+553197910058</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+553171722790</t>
+          <t>+5511945037623</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+555186041958</t>
+          <t>+558586569439</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+5522999557124</t>
+          <t>+5511971176538</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+5511956194781</t>
+          <t>+5511934629890</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
@@ -2659,65 +2659,65 @@
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+5511949693265</t>
+          <t>+5521971413810</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+553399550487</t>
+          <t>+5511986546912</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+555193334094</t>
+          <t>+553171606494</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+553191181765</t>
+          <t>+553171858800</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
@@ -2727,31 +2727,31 @@
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+553492868099</t>
+          <t>+5513996171453</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+556198163313</t>
+          <t>+556191917174</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
@@ -2761,371 +2761,371 @@
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+556286223947</t>
+          <t>+555181699628</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+5522992578488</t>
+          <t>+558994526750</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+5519981594572</t>
+          <t>+5522999490720</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+556196054585</t>
+          <t>+5515996341306</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+5511987670856</t>
+          <t>+555492618052</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+556296704284</t>
+          <t>+5512991532012</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+5511993877662</t>
+          <t>+556293410347</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+5511959898968</t>
+          <t>+553171722790</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+5519999136362</t>
+          <t>+555186041958</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+5519993254501</t>
+          <t>+5522999557124</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+556384939482</t>
+          <t>+5511956194781</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+553187320810</t>
+          <t>+5511949693265</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+553399550487</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+5511930092193</t>
+          <t>+555193334094</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+5521977601201</t>
+          <t>+553191181765</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+553897450448</t>
+          <t>+553492868099</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+553899341338</t>
+          <t>+556198163313</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+5521965730495</t>
+          <t>+556286223947</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+5512996345540</t>
+          <t>+5522992578488</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+553284127574</t>
+          <t>+5519981594572</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+553384499379</t>
+          <t>+556196054585</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+5511945704788</t>
+          <t>+5511987670856</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
@@ -3135,48 +3135,48 @@
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+5522999416651</t>
+          <t>+556296704284</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+553496487520</t>
+          <t>+5511993877662</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+5511953903531</t>
+          <t>+5511959898968</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
@@ -3186,286 +3186,286 @@
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+5511963380338</t>
+          <t>+5519999136362</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+556181106946</t>
+          <t>+5519993254501</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+5521966430435</t>
+          <t>+556384939482</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+5517981343490</t>
+          <t>+553187320810</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+5517992750891</t>
+          <t>+5511966134418</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+556194435831</t>
+          <t>+5511930092193</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+556192815706</t>
+          <t>+5521977601201</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+555194681350</t>
+          <t>+553897450448</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+5521990024205</t>
+          <t>+553899341338</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+5516993340146</t>
+          <t>+5521965730495</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+5511969710184</t>
+          <t>+5512996345540</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+555184228607</t>
+          <t>+553284127574</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+553384499379</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+5516991501083</t>
+          <t>+5511945704788</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+5522999416651</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+5519974133120</t>
+          <t>+553496487520</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+5511971165356</t>
+          <t>+5511953903531</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
@@ -3475,99 +3475,99 @@
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+5528999143242</t>
+          <t>+5511963380338</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+5521992992344</t>
+          <t>+556181106946</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+553199111438</t>
+          <t>+5521966430435</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+5511991868062</t>
+          <t>+5517981343490</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+5521965163770</t>
+          <t>+5517992750891</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+556191281418</t>
+          <t>+556194435831</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
@@ -3577,218 +3577,218 @@
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+5511970484790</t>
+          <t>+556192815706</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+553888359308</t>
+          <t>+555194681350</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+5519999395027</t>
+          <t>+5521990024205</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+553187556222</t>
+          <t>+5516993340146</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+556181344711</t>
+          <t>+5511969710184</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+5511937138186</t>
+          <t>+555184228607</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+553175235564</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+5521970987542</t>
+          <t>+5516991501083</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+553398575480</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+553193590683</t>
+          <t>+5519974133120</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+5522997230806</t>
+          <t>+5511971165356</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+5511985698796</t>
+          <t>+5528999143242</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+5521965096539</t>
+          <t>+5521992992344</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
@@ -3798,82 +3798,82 @@
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+5521986678801</t>
+          <t>+553199111438</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+555197496105</t>
+          <t>+5511991868062</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+5511947650170</t>
+          <t>+5521965163770</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+553191829450</t>
+          <t>+556191281418</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>+5511976440031</t>
+          <t>+5511970484790</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
@@ -3883,184 +3883,184 @@
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>+556293286544</t>
+          <t>+553888359308</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>+556194662595</t>
+          <t>+5519999395027</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>+555181664215</t>
+          <t>+553187556222</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>+5521978927776</t>
+          <t>+556181344711</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>+553499089476</t>
+          <t>+5511937138186</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>+5524999964686</t>
+          <t>+553175235564</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>+5514997100570</t>
+          <t>+5521970987542</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>+5511956996383</t>
+          <t>+553398575480</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>+5524999215405</t>
+          <t>+553193590683</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>+5513974102524</t>
+          <t>+5522997230806</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>+5511985663846</t>
+          <t>+5511985698796</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
@@ -4070,14 +4070,14 @@
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>+5521997117322</t>
+          <t>+5521965096539</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
@@ -4087,218 +4087,218 @@
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>+5519997204476</t>
+          <t>+5521986678801</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>+556296767169</t>
+          <t>+555197496105</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>+555199100909</t>
+          <t>+5511947650170</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>+5511960197823</t>
+          <t>+553191829450</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>+5516993905706</t>
+          <t>+5511976440031</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>+555491229014</t>
+          <t>+556293286544</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>+553183316751</t>
+          <t>+556194662595</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>+5511960297061</t>
+          <t>+555181664215</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>+5511967618163</t>
+          <t>+5521978927776</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>+5511953782520</t>
+          <t>+553499089476</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>+555194565879</t>
+          <t>+5524999964686</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>+5519987116584</t>
+          <t>+5514997100570</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>+5511963669553</t>
+          <t>+5511956996383</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
@@ -4308,201 +4308,201 @@
       </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>+5511967026448</t>
+          <t>+5524999215405</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>+5511970838412</t>
+          <t>+5513974102524</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C229" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>+5519994161076</t>
+          <t>+5511985663846</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>+5512974073721</t>
+          <t>+5521997117322</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>+553899272884</t>
+          <t>+5519997204476</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>+5513974277521</t>
+          <t>+556296767169</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>+5511959480908</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>+553173039716</t>
+          <t>+5511960197823</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>+5519983138652</t>
+          <t>+5516993905706</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>+5516981621753</t>
+          <t>+555491229014</t>
         </is>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C237" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>+5513996269435</t>
+          <t>+553183316751</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>+5511946858778</t>
+          <t>+5511960297061</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
@@ -4512,48 +4512,48 @@
       </c>
       <c r="C239" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>+553498008945</t>
+          <t>+5511967618163</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+5511953782520</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>+555198093042</t>
+          <t>+555194565879</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
@@ -4563,14 +4563,14 @@
       </c>
       <c r="C242" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>+5519992746058</t>
+          <t>+5519987116584</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
@@ -4580,14 +4580,14 @@
       </c>
       <c r="C243" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>+5511959327333</t>
+          <t>+5511963669553</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
@@ -4597,31 +4597,31 @@
       </c>
       <c r="C244" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>+5519991342511</t>
+          <t>+5511967026448</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>+5511910662570</t>
+          <t>+5511970838412</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
@@ -4631,70 +4631,70 @@
       </c>
       <c r="C246" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>+5511979754910</t>
+          <t>+5519994161076</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>+5519984563784</t>
+          <t>+5512974073721</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>+5524978358315</t>
+          <t>+553899272884</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C249" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>+5521964816197</t>
+          <t>+5513974277521</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
@@ -4706,12 +4706,12 @@
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>+554497202222</t>
+          <t>+5511959480908</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
@@ -4723,7 +4723,7 @@
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>+553187980853</t>
+          <t>+553173039716</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
@@ -4740,12 +4740,12 @@
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>+555191226749</t>
+          <t>+5519983138652</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr">
@@ -4757,12 +4757,12 @@
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>+5511982048012</t>
+          <t>+5516981621753</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
@@ -4774,12 +4774,12 @@
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>+5511960946166</t>
+          <t>+5513996269435</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>+5519991426273</t>
+          <t>+5511946858778</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
@@ -4808,12 +4808,12 @@
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>+5519981472020</t>
+          <t>+553498008945</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
@@ -4825,7 +4825,7 @@
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>+5521978835599</t>
+          <t>+5521965489343</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
@@ -4842,7 +4842,7 @@
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>+555180176562</t>
+          <t>+555198093042</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
@@ -4852,31 +4852,31 @@
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>+5511942185569</t>
+          <t>+5519992746058</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>+5511947261969</t>
+          <t>+5511959327333</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
@@ -4886,14 +4886,14 @@
       </c>
       <c r="C261" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>+5519992124887</t>
+          <t>+5519991342511</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
@@ -4903,31 +4903,31 @@
       </c>
       <c r="C262" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>+553195359312</t>
+          <t>+5511910662570</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>+5511962993512</t>
+          <t>+5511979754910</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
@@ -4937,235 +4937,235 @@
       </c>
       <c r="C264" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>+5511993564173</t>
+          <t>+5519984563784</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>+553391919105</t>
+          <t>+5524978358315</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>+5511985800906</t>
+          <t>+5521964816197</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>+5511959248300</t>
+          <t>+554497202222</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>+5519994486599</t>
+          <t>+553187980853</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>+5511987774053</t>
+          <t>+555191226749</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>+553184640938</t>
+          <t>+5511982048012</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>+5521990575799</t>
+          <t>+5511960946166</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>+555191899807</t>
+          <t>+5519991426273</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>+556194027204</t>
+          <t>+5519981472020</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>+5516999494445</t>
+          <t>+5521978835599</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>+5511952489850</t>
+          <t>+555180176562</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>+5521981400589</t>
+          <t>+5511942185569</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C277" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>+5511957982446</t>
+          <t>+5511947261969</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
@@ -5175,65 +5175,65 @@
       </c>
       <c r="C278" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>+5511948883579</t>
+          <t>+5519992124887</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>+555197184596</t>
+          <t>+553195359312</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>+556284316928</t>
+          <t>+5511962993512</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>+5511983534806</t>
+          <t>+5511993564173</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
@@ -5243,48 +5243,48 @@
       </c>
       <c r="C282" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>+5511974919907</t>
+          <t>+553391919105</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>+553298585881</t>
+          <t>+5511985800906</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C284" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>+5511996693536</t>
+          <t>+5511959248300</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
@@ -5301,126 +5301,126 @@
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>+553196634240</t>
+          <t>+5519994486599</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>+555186391577</t>
+          <t>+5511987774053</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>+555194687691</t>
+          <t>+553184640938</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C288" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>+5511913167865</t>
+          <t>+5521990575799</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C289" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>+5511978691664</t>
+          <t>+555191899807</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C290" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>+553497201121</t>
+          <t>+556194027204</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>+558881220317</t>
+          <t>+5516999494445</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>+5511952172793</t>
+          <t>+5511952489850</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
@@ -5430,31 +5430,31 @@
       </c>
       <c r="C293" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>+5513997769440</t>
+          <t>+5521981400589</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C294" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>+5511989993229</t>
+          <t>+5511957982446</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
@@ -5464,14 +5464,14 @@
       </c>
       <c r="C295" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>+5511994902251</t>
+          <t>+5511948883579</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
@@ -5481,235 +5481,235 @@
       </c>
       <c r="C296" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>+5519993039822</t>
+          <t>+555197184596</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C297" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>+5511990067914</t>
+          <t>+556284316928</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>+5521966715011</t>
+          <t>+5511983534806</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>+5521965551832</t>
+          <t>+5511974919907</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>+5512978144084</t>
+          <t>+553298585881</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>+555496011266</t>
+          <t>+5511996693536</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C302" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>+5521965910269</t>
+          <t>+553196634240</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C303" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>+5521981376833</t>
+          <t>+555186391577</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C304" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>+5511986157257</t>
+          <t>+555194687691</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C305" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>+5512996683720</t>
+          <t>+5511913167865</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>+5514996744793</t>
+          <t>+5511978691664</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C307" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>+555199788369</t>
+          <t>+553497201121</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>+553199854571</t>
+          <t>+558881220317</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C309" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>+5511932110481</t>
+          <t>+5511952172793</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
@@ -5719,260 +5719,549 @@
       </c>
       <c r="C310" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>+556193189092</t>
+          <t>+5513997769440</t>
         </is>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>+5517992036626</t>
+          <t>+5511989993229</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>+553199616643</t>
+          <t>+5511994902251</t>
         </is>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>+5521977008499</t>
+          <t>+5519993039822</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C314" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>+5521977084479</t>
+          <t>+5511990067914</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>+553496442965</t>
+          <t>+5521966715011</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>+5518997151251</t>
+          <t>+5521965551832</t>
         </is>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C317" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>+556198606157</t>
+          <t>+5512978144084</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C318" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="inlineStr">
         <is>
-          <t>+555195284929</t>
+          <t>+555496011266</t>
         </is>
       </c>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C319" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="inlineStr">
         <is>
-          <t>+5511987594244</t>
+          <t>+5521965910269</t>
         </is>
       </c>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C320" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="inlineStr">
         <is>
-          <t>+5511959227230</t>
+          <t>+5521981376833</t>
         </is>
       </c>
       <c r="B321" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C321" s="2" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t>+555599102946</t>
+          <t>+5511986157257</t>
         </is>
       </c>
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C322" s="2" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="inlineStr">
         <is>
-          <t>+5511970726796</t>
+          <t>+5512996683720</t>
         </is>
       </c>
       <c r="B323" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C323" s="2" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="inlineStr">
         <is>
-          <t>+5519996017926</t>
+          <t>+5514996744793</t>
         </is>
       </c>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C324" s="2" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="inlineStr">
         <is>
+          <t>+555199788369</t>
+        </is>
+      </c>
+      <c r="B325" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C325" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="inlineStr">
+        <is>
+          <t>+553199854571</t>
+        </is>
+      </c>
+      <c r="B326" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C326" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="inlineStr">
+        <is>
+          <t>+5511932110481</t>
+        </is>
+      </c>
+      <c r="B327" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C327" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="inlineStr">
+        <is>
+          <t>+556193189092</t>
+        </is>
+      </c>
+      <c r="B328" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C328" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="inlineStr">
+        <is>
+          <t>+5517992036626</t>
+        </is>
+      </c>
+      <c r="B329" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C329" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="inlineStr">
+        <is>
+          <t>+553199616643</t>
+        </is>
+      </c>
+      <c r="B330" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C330" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="inlineStr">
+        <is>
+          <t>+5521977008499</t>
+        </is>
+      </c>
+      <c r="B331" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C331" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="inlineStr">
+        <is>
+          <t>+5521977084479</t>
+        </is>
+      </c>
+      <c r="B332" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C332" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="inlineStr">
+        <is>
+          <t>+553496442965</t>
+        </is>
+      </c>
+      <c r="B333" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C333" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="inlineStr">
+        <is>
+          <t>+5518997151251</t>
+        </is>
+      </c>
+      <c r="B334" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C334" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="inlineStr">
+        <is>
+          <t>+556198606157</t>
+        </is>
+      </c>
+      <c r="B335" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C335" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="inlineStr">
+        <is>
+          <t>+555195284929</t>
+        </is>
+      </c>
+      <c r="B336" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C336" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="inlineStr">
+        <is>
+          <t>+5511987594244</t>
+        </is>
+      </c>
+      <c r="B337" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C337" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="inlineStr">
+        <is>
+          <t>+5511959227230</t>
+        </is>
+      </c>
+      <c r="B338" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C338" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="inlineStr">
+        <is>
+          <t>+555599102946</t>
+        </is>
+      </c>
+      <c r="B339" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C339" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="inlineStr">
+        <is>
+          <t>+5511970726796</t>
+        </is>
+      </c>
+      <c r="B340" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C340" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="inlineStr">
+        <is>
+          <t>+5519996017926</t>
+        </is>
+      </c>
+      <c r="B341" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C341" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="inlineStr">
+        <is>
           <t>+5511949288154</t>
         </is>
       </c>
-      <c r="B325" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C325" s="2" t="inlineStr">
+      <c r="B342" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C342" s="2" t="inlineStr">
         <is>
           <t>2024-08-26</t>
         </is>

--- a/gabi.xlsx
+++ b/gabi.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C342"/>
+  <dimension ref="A1:C352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,177 +477,177 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+555491016875</t>
+          <t>+556282337221</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5511952669839</t>
+          <t>+5521990537643</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5521989149541</t>
+          <t>+5517997929084</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+5511965520814</t>
+          <t>+5516994467000</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5511940372227</t>
+          <t>+5512992001544</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5521979503998</t>
+          <t>+555199661451</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5521997899616</t>
+          <t>+5511946375498</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5511961209680</t>
+          <t>+553196818825</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5512991256492</t>
+          <t>+5514991229373</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+556292340085</t>
+          <t>+5521990057986</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5511975721557</t>
+          <t>+5511960829635</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -657,150 +657,150 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+556192470699</t>
+          <t>+5521992407908</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+557598748582</t>
+          <t>+553491955207</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+554891421017</t>
+          <t>+5511960205766</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+556798473306</t>
+          <t>+5521991755401</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5521987823541</t>
+          <t>+553597386826</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+5514991722226</t>
+          <t>+558799459968</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>87</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+5519993731215</t>
+          <t>+556199822077</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5517981571512</t>
+          <t>+558394013004</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5519978183486</t>
+          <t>+5519983112838</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -810,269 +810,269 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+556184421881</t>
+          <t>+5521964608497</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+5517991290893</t>
+          <t>+5521971839379</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+5521964749555</t>
+          <t>+5511972930265</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+553191751465</t>
+          <t>+5511933453600</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+5511940728898</t>
+          <t>+555491016875</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+5511947768319</t>
+          <t>+5521989149541</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+5522997621623</t>
+          <t>+5511965520814</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5521994075389</t>
+          <t>+5511940372227</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+5511981892366</t>
+          <t>+5521979503998</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+555192717667</t>
+          <t>+5512991256492</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+5522997104652</t>
+          <t>+556292340085</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+5522992752597</t>
+          <t>+5511975721557</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+5511999318706</t>
+          <t>+556192470699</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+5521992761358</t>
+          <t>+554891421017</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+556198289593</t>
+          <t>+556798473306</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+5521979898353</t>
+          <t>+5521987823541</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -1082,82 +1082,82 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+5511951735066</t>
+          <t>+5519993731215</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+5521968066779</t>
+          <t>+5517981571512</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+5511940052132</t>
+          <t>+556184421881</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+555584586767</t>
+          <t>+5517991290893</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+5511959504956</t>
+          <t>+5511940728898</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -1167,48 +1167,48 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+5519991884271</t>
+          <t>+5511947768319</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+5521999546007</t>
+          <t>+5522997621623</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+5521971985918</t>
+          <t>+5521994075389</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -1218,14 +1218,14 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+5511982403910</t>
+          <t>+5511981892366</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -1235,14 +1235,14 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+555194713402</t>
+          <t>+555192717667</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -1252,48 +1252,48 @@
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+5511979869629</t>
+          <t>+5522997104652</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+553491497775</t>
+          <t>+5522992752597</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+5511952202576</t>
+          <t>+5511999318706</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -1303,99 +1303,99 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+556496241313</t>
+          <t>+5521992761358</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+5521966659271</t>
+          <t>+556198289593</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+5511958383006</t>
+          <t>+5521979898353</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+5512982473711</t>
+          <t>+5511951735066</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+555193033662</t>
+          <t>+5521968066779</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+5511932101366</t>
+          <t>+5511940052132</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -1405,95 +1405,99 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+553298344288</t>
+          <t>+555584586767</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+5519999605608</t>
+          <t>+5511959504956</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+5511989074358</t>
+          <t>+5519991884271</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+56996163824</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="inlineStr"/>
+          <t>+5521999546007</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+5511986610154</t>
+          <t>+5521971985918</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+5511981755261</t>
+          <t>+5511982403910</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -1503,116 +1507,116 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+5511970224460</t>
+          <t>+555194713402</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+553183201160</t>
+          <t>+5511979869629</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+5519997544249</t>
+          <t>+553491497775</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+555384745327</t>
+          <t>+5511952202576</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+5514996501813</t>
+          <t>+556496241313</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+5511972435655</t>
+          <t>+5521966659271</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+5511946397297</t>
+          <t>+5511958383006</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -1622,150 +1626,146 @@
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+553397075362</t>
+          <t>+5512982473711</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+5513991020783</t>
+          <t>+555193033662</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+5521969440520</t>
+          <t>+5511932101366</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+553193672938</t>
+          <t>+553298344288</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+5522981479241</t>
+          <t>+5519999605608</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+5521979251504</t>
-        </is>
-      </c>
-      <c r="B75" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
+          <t>+56996163824</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+556198475033</t>
+          <t>+5511986610154</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+5516992236142</t>
+          <t>+5511981755261</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+5511948893274</t>
+          <t>+5511970224460</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -1775,36 +1775,36 @@
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+5521968278744</t>
+          <t>+553183201160</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+555196384525</t>
+          <t>+5519997544249</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
@@ -1816,245 +1816,245 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+5511972915535</t>
+          <t>+555384745327</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+553180135415</t>
+          <t>+5514996501813</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+5521992200288</t>
+          <t>+5511972435655</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+556196779704</t>
+          <t>+5511946397297</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+5511915810965</t>
+          <t>+553397075362</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+5521981348191</t>
+          <t>+5513991020783</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+5524999461825</t>
+          <t>+5521969440520</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+556196698353</t>
+          <t>+553193672938</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+5513996671783</t>
+          <t>+5522981479241</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+5518996829002</t>
+          <t>+5521979251504</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+5511991871576</t>
+          <t>+556198475033</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+5514981509955</t>
+          <t>+5516992236142</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+555184777056</t>
+          <t>+5511948893274</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+5513991081873</t>
+          <t>+5521968278744</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+555197040253</t>
+          <t>+555196384525</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -2064,14 +2064,14 @@
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+5511977945054</t>
+          <t>+5511972915535</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -2081,240 +2081,240 @@
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+553496724472</t>
+          <t>+553180135415</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+553186960521</t>
+          <t>+5521992200288</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+5511978823483</t>
+          <t>+556196779704</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+5516988023377</t>
+          <t>+5511915810965</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+553492249633</t>
+          <t>+5524999461825</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+5511996339968</t>
+          <t>+556196698353</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+553899926253</t>
+          <t>+5513996671783</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+555596010082</t>
+          <t>+5518996829002</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+5521984364734</t>
+          <t>+5511991871576</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+5511964334834</t>
+          <t>+5514981509955</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+553196748836</t>
+          <t>+555184777056</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+556196182173</t>
+          <t>+5513991081873</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+5515988279142</t>
+          <t>+555197040253</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+551974071078</t>
+          <t>+5511977945054</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
@@ -2326,12 +2326,12 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+5511943458186</t>
+          <t>+553496724472</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+553175675075</t>
+          <t>+553186960521</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
@@ -2360,12 +2360,12 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+558186914048</t>
+          <t>+5516988023377</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
@@ -2377,12 +2377,12 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+5514997419977</t>
+          <t>+553492249633</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
@@ -2394,7 +2394,7 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+5511964838163</t>
+          <t>+5511996339968</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -2411,58 +2411,58 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+555191485515</t>
+          <t>+553899926253</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+5521989929657</t>
+          <t>+555596010082</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+5511986633336</t>
+          <t>+5521984364734</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+5511963264394</t>
+          <t>+5511964334834</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -2472,82 +2472,82 @@
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+555399629079</t>
+          <t>+553196748836</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+555194536598</t>
+          <t>+556196182173</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+5516991290210</t>
+          <t>+5515988279142</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+5511985014090</t>
+          <t>+551974071078</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+5511971885642</t>
+          <t>+5511943458186</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
@@ -2557,87 +2557,87 @@
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+556192235590</t>
+          <t>+553175675075</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+553197910058</t>
+          <t>+558186914048</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+5511945037623</t>
+          <t>+5514997419977</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+558586569439</t>
+          <t>+5511964838163</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+5511971176538</t>
+          <t>+555191485515</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
@@ -2649,12 +2649,12 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+5511934629890</t>
+          <t>+5521989929657</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
@@ -2666,24 +2666,24 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+5521971413810</t>
+          <t>+5511986633336</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+5511986546912</t>
+          <t>+5511963264394</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
@@ -2693,303 +2693,303 @@
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+553171606494</t>
+          <t>+555399629079</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+553171858800</t>
+          <t>+555194536598</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+5513996171453</t>
+          <t>+5516991290210</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+556191917174</t>
+          <t>+5511985014090</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+555181699628</t>
+          <t>+5511971885642</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+558994526750</t>
+          <t>+556192235590</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+5522999490720</t>
+          <t>+553197910058</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+5515996341306</t>
+          <t>+5511945037623</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+555492618052</t>
+          <t>+558586569439</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+5512991532012</t>
+          <t>+5511971176538</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+556293410347</t>
+          <t>+5511934629890</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+553171722790</t>
+          <t>+5521971413810</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+555186041958</t>
+          <t>+5511986546912</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+5522999557124</t>
+          <t>+553171606494</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+5511956194781</t>
+          <t>+553171858800</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+5511949693265</t>
+          <t>+5513996171453</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+553399550487</t>
+          <t>+556191917174</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+555193334094</t>
+          <t>+555181699628</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
@@ -2999,167 +2999,167 @@
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+553191181765</t>
+          <t>+558994526750</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+553492868099</t>
+          <t>+5522999490720</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+556198163313</t>
+          <t>+5515996341306</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+556286223947</t>
+          <t>+555492618052</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+5522992578488</t>
+          <t>+5512991532012</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+5519981594572</t>
+          <t>+556293410347</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+556196054585</t>
+          <t>+553171722790</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+5511987670856</t>
+          <t>+555186041958</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+556296704284</t>
+          <t>+5522999557124</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+5511993877662</t>
+          <t>+5511956194781</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
@@ -3169,14 +3169,14 @@
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+5511959898968</t>
+          <t>+5511949693265</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
@@ -3186,303 +3186,303 @@
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+5519999136362</t>
+          <t>+553399550487</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+5519993254501</t>
+          <t>+555193334094</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+556384939482</t>
+          <t>+553191181765</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+553187320810</t>
+          <t>+553492868099</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+556198163313</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+5511930092193</t>
+          <t>+556286223947</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+5521977601201</t>
+          <t>+5522992578488</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+553897450448</t>
+          <t>+5519981594572</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+553899341338</t>
+          <t>+556196054585</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+5521965730495</t>
+          <t>+5511987670856</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+5512996345540</t>
+          <t>+556296704284</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+553284127574</t>
+          <t>+5511993877662</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+553384499379</t>
+          <t>+5511959898968</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+5511945704788</t>
+          <t>+5519999136362</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+5522999416651</t>
+          <t>+5519993254501</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+553496487520</t>
+          <t>+556384939482</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+5511953903531</t>
+          <t>+553187320810</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+5511963380338</t>
+          <t>+5511966134418</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
@@ -3492,31 +3492,31 @@
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+556181106946</t>
+          <t>+5511930092193</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+5521966430435</t>
+          <t>+5521977601201</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
@@ -3526,201 +3526,201 @@
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+5517981343490</t>
+          <t>+553897450448</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+5517992750891</t>
+          <t>+553899341338</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+556194435831</t>
+          <t>+5521965730495</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+556192815706</t>
+          <t>+5512996345540</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+555194681350</t>
+          <t>+553284127574</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+5521990024205</t>
+          <t>+553384499379</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+5516993340146</t>
+          <t>+5511945704788</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+5511969710184</t>
+          <t>+5522999416651</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+555184228607</t>
+          <t>+553496487520</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+5511953903531</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+5516991501083</t>
+          <t>+5511963380338</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+556181106946</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
@@ -3730,116 +3730,116 @@
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+5519974133120</t>
+          <t>+5521966430435</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+5511971165356</t>
+          <t>+5517981343490</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+5528999143242</t>
+          <t>+5517992750891</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+5521992992344</t>
+          <t>+556194435831</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+553199111438</t>
+          <t>+556192815706</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+5511991868062</t>
+          <t>+555194681350</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+5521965163770</t>
+          <t>+5521990024205</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
@@ -3849,31 +3849,31 @@
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+556191281418</t>
+          <t>+5516993340146</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>+5511970484790</t>
+          <t>+5511969710184</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
@@ -3883,65 +3883,65 @@
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>+553888359308</t>
+          <t>+555184228607</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>+5519999395027</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>+553187556222</t>
+          <t>+5516991501083</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>+556181344711</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
@@ -3951,82 +3951,82 @@
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>+5511937138186</t>
+          <t>+5519974133120</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>+553175235564</t>
+          <t>+5511971165356</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>+5521970987542</t>
+          <t>+5528999143242</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>+553398575480</t>
+          <t>+5521992992344</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>+553193590683</t>
+          <t>+553199111438</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
@@ -4036,116 +4036,116 @@
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>+5522997230806</t>
+          <t>+5511991868062</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>+5511985698796</t>
+          <t>+5521965163770</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>+5521965096539</t>
+          <t>+556191281418</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>+5521986678801</t>
+          <t>+5511970484790</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>+555197496105</t>
+          <t>+553888359308</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>+5511947650170</t>
+          <t>+5519999395027</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>+553191829450</t>
+          <t>+553187556222</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
@@ -4155,201 +4155,201 @@
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>+5511976440031</t>
+          <t>+556181344711</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>+556293286544</t>
+          <t>+5511937138186</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>+556194662595</t>
+          <t>+553175235564</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>+555181664215</t>
+          <t>+5521970987542</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>+5521978927776</t>
+          <t>+553398575480</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>+553499089476</t>
+          <t>+553193590683</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>+5524999964686</t>
+          <t>+5522997230806</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>+5514997100570</t>
+          <t>+5511985698796</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>+5511956996383</t>
+          <t>+5521965096539</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>+5524999215405</t>
+          <t>+5521986678801</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>+5513974102524</t>
+          <t>+555197496105</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C229" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>+5511985663846</t>
+          <t>+5511947650170</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
@@ -4359,48 +4359,48 @@
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>+5521997117322</t>
+          <t>+553191829450</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>+5519997204476</t>
+          <t>+5511976440031</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>+556296767169</t>
+          <t>+556293286544</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
@@ -4410,116 +4410,116 @@
       </c>
       <c r="C233" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>+555199100909</t>
+          <t>+556194662595</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>+5511960197823</t>
+          <t>+555181664215</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>+5516993905706</t>
+          <t>+5521978927776</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>+555491229014</t>
+          <t>+553499089476</t>
         </is>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C237" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>+553183316751</t>
+          <t>+5524999964686</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>+5511960297061</t>
+          <t>+5514997100570</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>+5511967618163</t>
+          <t>+5511956996383</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
@@ -4529,337 +4529,337 @@
       </c>
       <c r="C240" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>+5511953782520</t>
+          <t>+5524999215405</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>+555194565879</t>
+          <t>+5513974102524</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>+5519987116584</t>
+          <t>+5511985663846</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>+5511963669553</t>
+          <t>+5521997117322</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>+5511967026448</t>
+          <t>+5519997204476</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>+5511970838412</t>
+          <t>+556296767169</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>+5519994161076</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>+5512974073721</t>
+          <t>+5511960197823</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>+553899272884</t>
+          <t>+5516993905706</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C249" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>+5513974277521</t>
+          <t>+555491229014</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>+5511959480908</t>
+          <t>+553183316751</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>+553173039716</t>
+          <t>+5511960297061</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>+5519983138652</t>
+          <t>+5511967618163</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>+5516981621753</t>
+          <t>+5511953782520</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>+5513996269435</t>
+          <t>+555194565879</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>+5511946858778</t>
+          <t>+5519987116584</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>+553498008945</t>
+          <t>+5511963669553</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+5511967026448</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>+555198093042</t>
+          <t>+5511970838412</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>+5519992746058</t>
+          <t>+5519994161076</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
@@ -4869,53 +4869,53 @@
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>+5511959327333</t>
+          <t>+5512974073721</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>+5519991342511</t>
+          <t>+553899272884</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>+5511910662570</t>
+          <t>+5513974277521</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
@@ -4927,7 +4927,7 @@
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>+5511979754910</t>
+          <t>+5511959480908</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
@@ -4944,12 +4944,12 @@
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>+5519984563784</t>
+          <t>+553173039716</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
@@ -4961,12 +4961,12 @@
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>+5524978358315</t>
+          <t>+5519983138652</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
@@ -4978,12 +4978,12 @@
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>+5521964816197</t>
+          <t>+5516981621753</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
@@ -4995,12 +4995,12 @@
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>+554497202222</t>
+          <t>+5513996269435</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
@@ -5012,12 +5012,12 @@
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>+553187980853</t>
+          <t>+5511946858778</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
@@ -5029,12 +5029,12 @@
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>+555191226749</t>
+          <t>+553498008945</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
@@ -5046,12 +5046,12 @@
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>+5511982048012</t>
+          <t>+555198093042</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
@@ -5063,12 +5063,12 @@
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>+5511960946166</t>
+          <t>+5519992746058</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
@@ -5080,12 +5080,12 @@
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>+5519991426273</t>
+          <t>+5511959327333</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr">
@@ -5097,7 +5097,7 @@
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>+5519981472020</t>
+          <t>+5519991342511</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>+5521978835599</t>
+          <t>+5511910662570</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
@@ -5131,143 +5131,143 @@
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>+555180176562</t>
+          <t>+5511979754910</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>+5511942185569</t>
+          <t>+5519984563784</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C277" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>+5511947261969</t>
+          <t>+5524978358315</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C278" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>+5519992124887</t>
+          <t>+5521964816197</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>+553195359312</t>
+          <t>+554497202222</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>+5511962993512</t>
+          <t>+553187980853</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>+5511993564173</t>
+          <t>+555191226749</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C282" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>+553391919105</t>
+          <t>+5511982048012</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>+5511985800906</t>
+          <t>+5511960946166</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
@@ -5277,31 +5277,31 @@
       </c>
       <c r="C284" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>+5511959248300</t>
+          <t>+5519991426273</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C285" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>+5519994486599</t>
+          <t>+5519981472020</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
@@ -5311,116 +5311,116 @@
       </c>
       <c r="C286" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>+5511987774053</t>
+          <t>+5521978835599</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>+553184640938</t>
+          <t>+555180176562</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C288" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>+5521990575799</t>
+          <t>+5511942185569</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C289" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>+555191899807</t>
+          <t>+5511947261969</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C290" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>+556194027204</t>
+          <t>+5519992124887</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>+5516999494445</t>
+          <t>+553195359312</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>+5511952489850</t>
+          <t>+5511962993512</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
@@ -5430,48 +5430,48 @@
       </c>
       <c r="C293" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>+5521981400589</t>
+          <t>+5511993564173</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C294" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>+5511957982446</t>
+          <t>+553391919105</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>+5511948883579</t>
+          <t>+5511985800906</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
@@ -5481,19 +5481,19 @@
       </c>
       <c r="C296" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>+555197184596</t>
+          <t>+5511959248300</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C297" s="2" t="inlineStr">
@@ -5505,12 +5505,12 @@
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>+556284316928</t>
+          <t>+5519994486599</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr">
@@ -5522,7 +5522,7 @@
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>+5511983534806</t>
+          <t>+5511987774053</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
@@ -5539,12 +5539,12 @@
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>+5511974919907</t>
+          <t>+553184640938</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr">
@@ -5556,12 +5556,12 @@
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>+553298585881</t>
+          <t>+5521990575799</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr">
@@ -5573,12 +5573,12 @@
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>+5511996693536</t>
+          <t>+555191899807</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C302" s="2" t="inlineStr">
@@ -5590,75 +5590,75 @@
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>+553196634240</t>
+          <t>+556194027204</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C303" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>+555186391577</t>
+          <t>+5516999494445</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C304" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>+555194687691</t>
+          <t>+5511952489850</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C305" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>+5511913167865</t>
+          <t>+5521981400589</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>+5511978691664</t>
+          <t>+5511957982446</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
@@ -5668,48 +5668,48 @@
       </c>
       <c r="C307" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>+553497201121</t>
+          <t>+5511948883579</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>+558881220317</t>
+          <t>+556284316928</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C309" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>+5511952172793</t>
+          <t>+5511983534806</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
@@ -5719,48 +5719,48 @@
       </c>
       <c r="C310" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>+5513997769440</t>
+          <t>+5511974919907</t>
         </is>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>+5511989993229</t>
+          <t>+553298585881</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>+5511994902251</t>
+          <t>+5511996693536</t>
         </is>
       </c>
       <c r="B313" s="2" t="inlineStr">
@@ -5770,121 +5770,121 @@
       </c>
       <c r="C313" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>+5519993039822</t>
+          <t>+553196634240</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C314" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>+5511990067914</t>
+          <t>+555186391577</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>+5521966715011</t>
+          <t>+555194687691</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>+5521965551832</t>
+          <t>+5511913167865</t>
         </is>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C317" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>+5512978144084</t>
+          <t>+5511978691664</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C318" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="inlineStr">
         <is>
-          <t>+555496011266</t>
+          <t>+553497201121</t>
         </is>
       </c>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C319" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="inlineStr">
         <is>
-          <t>+5521965910269</t>
+          <t>+558881220317</t>
         </is>
       </c>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C320" s="2" t="inlineStr">
@@ -5896,177 +5896,177 @@
     <row r="321">
       <c r="A321" s="2" t="inlineStr">
         <is>
-          <t>+5521981376833</t>
+          <t>+5511952172793</t>
         </is>
       </c>
       <c r="B321" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C321" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t>+5511986157257</t>
+          <t>+5513997769440</t>
         </is>
       </c>
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C322" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="inlineStr">
         <is>
-          <t>+5512996683720</t>
+          <t>+5511989993229</t>
         </is>
       </c>
       <c r="B323" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C323" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="inlineStr">
         <is>
-          <t>+5514996744793</t>
+          <t>+5511994902251</t>
         </is>
       </c>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C324" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="inlineStr">
         <is>
-          <t>+555199788369</t>
+          <t>+5519993039822</t>
         </is>
       </c>
       <c r="B325" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C325" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="inlineStr">
         <is>
-          <t>+553199854571</t>
+          <t>+5511990067914</t>
         </is>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C326" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="inlineStr">
         <is>
-          <t>+5511932110481</t>
+          <t>+5521966715011</t>
         </is>
       </c>
       <c r="B327" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C327" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="inlineStr">
         <is>
-          <t>+556193189092</t>
+          <t>+5521965551832</t>
         </is>
       </c>
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C328" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="inlineStr">
         <is>
-          <t>+5517992036626</t>
+          <t>+555496011266</t>
         </is>
       </c>
       <c r="B329" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C329" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="inlineStr">
         <is>
-          <t>+553199616643</t>
+          <t>+5521965910269</t>
         </is>
       </c>
       <c r="B330" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C330" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="inlineStr">
         <is>
-          <t>+5521977008499</t>
+          <t>+5521981376833</t>
         </is>
       </c>
       <c r="B331" s="2" t="inlineStr">
@@ -6076,99 +6076,99 @@
       </c>
       <c r="C331" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="inlineStr">
         <is>
-          <t>+5521977084479</t>
+          <t>+5511986157257</t>
         </is>
       </c>
       <c r="B332" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C332" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="inlineStr">
         <is>
-          <t>+553496442965</t>
+          <t>+5512996683720</t>
         </is>
       </c>
       <c r="B333" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C333" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="inlineStr">
         <is>
-          <t>+5518997151251</t>
+          <t>+5514996744793</t>
         </is>
       </c>
       <c r="B334" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C334" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="inlineStr">
         <is>
-          <t>+556198606157</t>
+          <t>+555199788369</t>
         </is>
       </c>
       <c r="B335" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C335" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="inlineStr">
         <is>
-          <t>+555195284929</t>
+          <t>+553199854571</t>
         </is>
       </c>
       <c r="B336" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C336" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="inlineStr">
         <is>
-          <t>+5511987594244</t>
+          <t>+5511932110481</t>
         </is>
       </c>
       <c r="B337" s="2" t="inlineStr">
@@ -6178,90 +6178,260 @@
       </c>
       <c r="C337" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="inlineStr">
         <is>
-          <t>+5511959227230</t>
+          <t>+556193189092</t>
         </is>
       </c>
       <c r="B338" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C338" s="2" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="inlineStr">
         <is>
-          <t>+555599102946</t>
+          <t>+5517992036626</t>
         </is>
       </c>
       <c r="B339" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C339" s="2" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="inlineStr">
         <is>
-          <t>+5511970726796</t>
+          <t>+553199616643</t>
         </is>
       </c>
       <c r="B340" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C340" s="2" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-02</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="inlineStr">
         <is>
-          <t>+5519996017926</t>
+          <t>+5521977008499</t>
         </is>
       </c>
       <c r="B341" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C341" s="2" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-02</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="inlineStr">
         <is>
+          <t>+5521977084479</t>
+        </is>
+      </c>
+      <c r="B342" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C342" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="inlineStr">
+        <is>
+          <t>+553496442965</t>
+        </is>
+      </c>
+      <c r="B343" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C343" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="inlineStr">
+        <is>
+          <t>+5518997151251</t>
+        </is>
+      </c>
+      <c r="B344" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C344" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="inlineStr">
+        <is>
+          <t>+556198606157</t>
+        </is>
+      </c>
+      <c r="B345" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C345" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="inlineStr">
+        <is>
+          <t>+555195284929</t>
+        </is>
+      </c>
+      <c r="B346" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C346" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="inlineStr">
+        <is>
+          <t>+5511987594244</t>
+        </is>
+      </c>
+      <c r="B347" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C347" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="inlineStr">
+        <is>
+          <t>+5511959227230</t>
+        </is>
+      </c>
+      <c r="B348" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C348" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="inlineStr">
+        <is>
+          <t>+555599102946</t>
+        </is>
+      </c>
+      <c r="B349" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C349" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="inlineStr">
+        <is>
+          <t>+5511970726796</t>
+        </is>
+      </c>
+      <c r="B350" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C350" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="inlineStr">
+        <is>
+          <t>+5519996017926</t>
+        </is>
+      </c>
+      <c r="B351" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C351" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="inlineStr">
+        <is>
           <t>+5511949288154</t>
         </is>
       </c>
-      <c r="B342" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C342" s="2" t="inlineStr">
+      <c r="B352" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C352" s="2" t="inlineStr">
         <is>
           <t>2024-08-26</t>
         </is>

--- a/gabi.xlsx
+++ b/gabi.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C352"/>
+  <dimension ref="A1:C356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,245 +477,245 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+556282337221</t>
+          <t>+559191270637</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5521990537643</t>
+          <t>+5514998320232</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5517997929084</t>
+          <t>+5522997684436</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+5516994467000</t>
+          <t>+5511919488174</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5512992001544</t>
+          <t>+556186395363</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+555199661451</t>
+          <t>+5511972234318</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5511946375498</t>
+          <t>+553398405443</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+553196818825</t>
+          <t>+556199594992</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5514991229373</t>
+          <t>+5511992475373</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5521990057986</t>
+          <t>+553192317871</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5511960829635</t>
+          <t>+555182056614</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5521992407908</t>
+          <t>+5511947670195</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+553491955207</t>
+          <t>+555597004997</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5511960205766</t>
+          <t>+553496464470</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5521991755401</t>
+          <t>+5521971980037</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -725,82 +725,82 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+553597386826</t>
+          <t>+5511969671185</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+558799459968</t>
+          <t>+553284909728</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+556199822077</t>
+          <t>+5518996713803</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+558394013004</t>
+          <t>+5512988515916</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5519983112838</t>
+          <t>+5519996918169</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -810,82 +810,82 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5521964608497</t>
+          <t>+553187205987</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+5521971839379</t>
+          <t>+553172529279</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+5511972930265</t>
+          <t>+553798602426</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+5511933453600</t>
+          <t>+557788162507</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+555491016875</t>
+          <t>+555499512062</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -895,36 +895,36 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+5521989149541</t>
+          <t>+5511932857559</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+5511965520814</t>
+          <t>+5521971839379</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -936,7 +936,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5511940372227</t>
+          <t>+5511972930265</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -953,12 +953,12 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+5521979503998</t>
+          <t>+5511933453600</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -970,12 +970,12 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+5512991256492</t>
+          <t>+555491016875</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -987,12 +987,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+556292340085</t>
+          <t>+5521989149541</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+5511975721557</t>
+          <t>+5511965520814</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1021,12 +1021,12 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+556192470699</t>
+          <t>+5511940372227</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
@@ -1038,12 +1038,12 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+554891421017</t>
+          <t>+5521979503998</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -1055,97 +1055,97 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+556798473306</t>
+          <t>+5512991256492</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+5521987823541</t>
+          <t>+556292340085</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+5519993731215</t>
+          <t>+5511975721557</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+5517981571512</t>
+          <t>+556192470699</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+556184421881</t>
+          <t>+554891421017</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+5517991290893</t>
+          <t>+556798473306</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
@@ -1157,75 +1157,75 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+5511940728898</t>
+          <t>+5521987823541</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+5511947768319</t>
+          <t>+5517981571512</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+5522997621623</t>
+          <t>+556184421881</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+5521994075389</t>
+          <t>+5517991290893</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+5511981892366</t>
+          <t>+5511940728898</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -1235,31 +1235,31 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+555192717667</t>
+          <t>+5511947768319</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+5522997104652</t>
+          <t>+5522997621623</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -1269,31 +1269,31 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+5522992752597</t>
+          <t>+5521994075389</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+5511999318706</t>
+          <t>+5511981892366</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -1303,65 +1303,65 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+5521992761358</t>
+          <t>+555192717667</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+556198289593</t>
+          <t>+5522997104652</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+5521979898353</t>
+          <t>+5522992752597</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+5511951735066</t>
+          <t>+5511999318706</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
@@ -1371,14 +1371,14 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+5521968066779</t>
+          <t>+5521992761358</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -1388,19 +1388,19 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+5511940052132</t>
+          <t>+556198289593</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
@@ -1412,12 +1412,12 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+555584586767</t>
+          <t>+5521979898353</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -1429,7 +1429,7 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+5511959504956</t>
+          <t>+5511951735066</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
@@ -1439,65 +1439,65 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+5519991884271</t>
+          <t>+5521968066779</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+5521999546007</t>
+          <t>+5511940052132</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+5521971985918</t>
+          <t>+555584586767</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+5511982403910</t>
+          <t>+5511959504956</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -1514,12 +1514,12 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+555194713402</t>
+          <t>+5519991884271</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
@@ -1531,12 +1531,12 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+5511979869629</t>
+          <t>+5521999546007</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
@@ -1548,12 +1548,12 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+553491497775</t>
+          <t>+5521971985918</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
@@ -1565,7 +1565,7 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+5511952202576</t>
+          <t>+5511982403910</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -1582,12 +1582,12 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+556496241313</t>
+          <t>+555194713402</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -1599,12 +1599,12 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+5521966659271</t>
+          <t>+5511979869629</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -1616,12 +1616,12 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+5511958383006</t>
+          <t>+553491497775</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -1633,12 +1633,12 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+5512982473711</t>
+          <t>+5511952202576</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -1650,12 +1650,12 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+555193033662</t>
+          <t>+556496241313</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
@@ -1667,71 +1667,75 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+5511932101366</t>
+          <t>+5521966659271</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+553298344288</t>
+          <t>+5511958383006</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+5519999605608</t>
+          <t>+5512982473711</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+56996163824</t>
-        </is>
-      </c>
-      <c r="B75" s="2" t="inlineStr"/>
+          <t>+555193033662</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+5511986610154</t>
+          <t>+5511932101366</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
@@ -1741,55 +1745,51 @@
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+5511981755261</t>
+          <t>+553298344288</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+5511970224460</t>
+          <t>+5519999605608</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+553183201160</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+          <t>+56996163824</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
           <t>2024-10-06</t>
@@ -1799,80 +1799,80 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+5519997544249</t>
+          <t>+5511986610154</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+555384745327</t>
+          <t>+5511981755261</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+5514996501813</t>
+          <t>+5511970224460</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+5511972435655</t>
+          <t>+553183201160</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+5511946397297</t>
+          <t>+5519997544249</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
@@ -1884,12 +1884,12 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+553397075362</t>
+          <t>+555384745327</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
@@ -1901,12 +1901,12 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+5513991020783</t>
+          <t>+5514996501813</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
@@ -1918,12 +1918,12 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+5521969440520</t>
+          <t>+5511972435655</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
@@ -1935,12 +1935,12 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+553193672938</t>
+          <t>+5511946397297</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
@@ -1952,12 +1952,12 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+5522981479241</t>
+          <t>+553397075362</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
@@ -1969,12 +1969,12 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+5521979251504</t>
+          <t>+5513991020783</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
@@ -1986,12 +1986,12 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+556198475033</t>
+          <t>+5521969440520</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
@@ -2003,12 +2003,12 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+5516992236142</t>
+          <t>+553193672938</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
@@ -2020,12 +2020,12 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+5511948893274</t>
+          <t>+5522981479241</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+5521968278744</t>
+          <t>+5521979251504</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
@@ -2054,12 +2054,12 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+555196384525</t>
+          <t>+556198475033</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
@@ -2071,41 +2071,41 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+5511972915535</t>
+          <t>+5516992236142</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+553180135415</t>
+          <t>+5511948893274</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+5521992200288</t>
+          <t>+5521968278744</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -2115,31 +2115,31 @@
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+556196779704</t>
+          <t>+555196384525</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+5511915810965</t>
+          <t>+5511972915535</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
@@ -2149,36 +2149,36 @@
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+5524999461825</t>
+          <t>+553180135415</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+556196698353</t>
+          <t>+5521992200288</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
@@ -2190,12 +2190,12 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+5513996671783</t>
+          <t>+556196779704</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
@@ -2207,12 +2207,12 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+5518996829002</t>
+          <t>+5511915810965</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
@@ -2224,12 +2224,12 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+5511991871576</t>
+          <t>+5524999461825</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
@@ -2241,12 +2241,12 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+5514981509955</t>
+          <t>+556196698353</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
@@ -2258,12 +2258,12 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+555184777056</t>
+          <t>+5513996671783</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
@@ -2275,12 +2275,12 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+5513991081873</t>
+          <t>+5518996829002</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
@@ -2292,12 +2292,12 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+555197040253</t>
+          <t>+5511991871576</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
@@ -2309,80 +2309,80 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+5511977945054</t>
+          <t>+5514981509955</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+553496724472</t>
+          <t>+555184777056</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+553186960521</t>
+          <t>+5513991081873</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+5516988023377</t>
+          <t>+555197040253</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+553492249633</t>
+          <t>+5511977945054</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
@@ -2394,12 +2394,12 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+5511996339968</t>
+          <t>+553496724472</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
@@ -2411,12 +2411,12 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+553899926253</t>
+          <t>+553186960521</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
@@ -2428,12 +2428,12 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+555596010082</t>
+          <t>+5516988023377</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
@@ -2445,12 +2445,12 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+5521984364734</t>
+          <t>+553492249633</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
@@ -2462,7 +2462,7 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+5511964334834</t>
+          <t>+5511996339968</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -2479,12 +2479,12 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+553196748836</t>
+          <t>+553899926253</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
@@ -2496,12 +2496,12 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+556196182173</t>
+          <t>+555596010082</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
@@ -2513,12 +2513,12 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+5515988279142</t>
+          <t>+5521984364734</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
@@ -2530,12 +2530,12 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+551974071078</t>
+          <t>+5511964334834</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
@@ -2547,12 +2547,12 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+5511943458186</t>
+          <t>+553196748836</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
@@ -2564,12 +2564,12 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+553175675075</t>
+          <t>+556196182173</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
@@ -2581,12 +2581,12 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+558186914048</t>
+          <t>+5515988279142</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
@@ -2598,12 +2598,12 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+5514997419977</t>
+          <t>+551974071078</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
@@ -2615,7 +2615,7 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+5511964838163</t>
+          <t>+5511943458186</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
@@ -2632,58 +2632,58 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+555191485515</t>
+          <t>+553175675075</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+5521989929657</t>
+          <t>+558186914048</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+5511986633336</t>
+          <t>+5514997419977</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+5511963264394</t>
+          <t>+5511964838163</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
@@ -2693,19 +2693,19 @@
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+555399629079</t>
+          <t>+555191485515</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
@@ -2717,12 +2717,12 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+555194536598</t>
+          <t>+5521989929657</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
@@ -2734,12 +2734,12 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+5516991290210</t>
+          <t>+5511986633336</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
@@ -2751,7 +2751,7 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+5511985014090</t>
+          <t>+5511963264394</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
@@ -2768,12 +2768,12 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+5511971885642</t>
+          <t>+555399629079</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
@@ -2785,12 +2785,12 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+556192235590</t>
+          <t>+555194536598</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
@@ -2802,12 +2802,12 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+553197910058</t>
+          <t>+5516991290210</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
@@ -2819,7 +2819,7 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+5511945037623</t>
+          <t>+5511985014090</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
@@ -2836,12 +2836,12 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+558586569439</t>
+          <t>+5511971885642</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
@@ -2853,12 +2853,12 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+5511971176538</t>
+          <t>+556192235590</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
@@ -2870,12 +2870,12 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+5511934629890</t>
+          <t>+553197910058</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
@@ -2887,80 +2887,80 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+5521971413810</t>
+          <t>+5511945037623</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+5511986546912</t>
+          <t>+558586569439</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+553171606494</t>
+          <t>+5511971176538</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+553171858800</t>
+          <t>+5511934629890</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+5513996171453</t>
+          <t>+5521971413810</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
@@ -2972,12 +2972,12 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+556191917174</t>
+          <t>+5511986546912</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
@@ -2989,12 +2989,12 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+555181699628</t>
+          <t>+553171606494</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
@@ -3006,12 +3006,12 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+558994526750</t>
+          <t>+553171858800</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
@@ -3023,12 +3023,12 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+5522999490720</t>
+          <t>+5513996171453</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
@@ -3040,12 +3040,12 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+5515996341306</t>
+          <t>+556191917174</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
@@ -3057,12 +3057,12 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+555492618052</t>
+          <t>+555181699628</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
@@ -3074,12 +3074,12 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+5512991532012</t>
+          <t>+558994526750</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
@@ -3091,12 +3091,12 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+556293410347</t>
+          <t>+5522999490720</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
@@ -3108,182 +3108,182 @@
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+553171722790</t>
+          <t>+5515996341306</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+555186041958</t>
+          <t>+555492618052</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+5522999557124</t>
+          <t>+5512991532012</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+5511956194781</t>
+          <t>+556293410347</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+5511949693265</t>
+          <t>+553171722790</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+553399550487</t>
+          <t>+555186041958</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+555193334094</t>
+          <t>+5522999557124</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+553191181765</t>
+          <t>+5511956194781</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+553492868099</t>
+          <t>+5511949693265</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+556198163313</t>
+          <t>+553399550487</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+556286223947</t>
+          <t>+555193334094</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
@@ -3295,12 +3295,12 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+5522992578488</t>
+          <t>+553191181765</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
@@ -3312,24 +3312,24 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+5519981594572</t>
+          <t>+553492868099</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+556196054585</t>
+          <t>+556198163313</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
@@ -3339,155 +3339,155 @@
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+5511987670856</t>
+          <t>+556286223947</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+556296704284</t>
+          <t>+5522992578488</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+5511993877662</t>
+          <t>+5519981594572</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+5511959898968</t>
+          <t>+556196054585</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+5519999136362</t>
+          <t>+5511987670856</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+5519993254501</t>
+          <t>+556296704284</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+556384939482</t>
+          <t>+5511993877662</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+553187320810</t>
+          <t>+5511959898968</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+5519999136362</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
@@ -3499,12 +3499,12 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+5511930092193</t>
+          <t>+5519993254501</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
@@ -3516,12 +3516,12 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+5521977601201</t>
+          <t>+556384939482</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
@@ -3533,177 +3533,177 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+553897450448</t>
+          <t>+553187320810</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+553899341338</t>
+          <t>+5511966134418</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+5521965730495</t>
+          <t>+5511930092193</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+5512996345540</t>
+          <t>+5521977601201</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+553284127574</t>
+          <t>+553897450448</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+553384499379</t>
+          <t>+553899341338</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+5511945704788</t>
+          <t>+5521965730495</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+5522999416651</t>
+          <t>+5512996345540</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+553496487520</t>
+          <t>+553284127574</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+5511953903531</t>
+          <t>+553384499379</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+5511963380338</t>
+          <t>+5511945704788</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
@@ -3713,19 +3713,19 @@
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+556181106946</t>
+          <t>+5522999416651</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
@@ -3737,12 +3737,12 @@
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+5521966430435</t>
+          <t>+553496487520</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
@@ -3754,41 +3754,41 @@
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+5517981343490</t>
+          <t>+5511953903531</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+5517992750891</t>
+          <t>+5511963380338</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+556194435831</t>
+          <t>+556181106946</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
@@ -3798,99 +3798,99 @@
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+556192815706</t>
+          <t>+5521966430435</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+555194681350</t>
+          <t>+5517981343490</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+5521990024205</t>
+          <t>+5517992750891</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+5516993340146</t>
+          <t>+556194435831</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>+5511969710184</t>
+          <t>+556192815706</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>+555184228607</t>
+          <t>+555194681350</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
@@ -3900,31 +3900,31 @@
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+5521990024205</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>+5516991501083</t>
+          <t>+5516993340146</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
@@ -3934,36 +3934,36 @@
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+5511969710184</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>+5519974133120</t>
+          <t>+555184228607</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
@@ -3975,12 +3975,12 @@
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>+5511971165356</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
@@ -3992,12 +3992,12 @@
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>+5528999143242</t>
+          <t>+5516991501083</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
@@ -4009,12 +4009,12 @@
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>+5521992992344</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
@@ -4026,12 +4026,12 @@
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>+553199111438</t>
+          <t>+5519974133120</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
@@ -4043,7 +4043,7 @@
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>+5511991868062</t>
+          <t>+5511971165356</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
@@ -4053,70 +4053,70 @@
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>+5521965163770</t>
+          <t>+5528999143242</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>+556191281418</t>
+          <t>+5521992992344</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>+5511970484790</t>
+          <t>+553199111438</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>+553888359308</t>
+          <t>+5511991868062</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
@@ -4128,12 +4128,12 @@
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>+5519999395027</t>
+          <t>+5521965163770</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
@@ -4145,12 +4145,12 @@
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>+553187556222</t>
+          <t>+556191281418</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
@@ -4162,12 +4162,12 @@
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>+556181344711</t>
+          <t>+5511970484790</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
@@ -4179,12 +4179,12 @@
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>+5511937138186</t>
+          <t>+553888359308</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
@@ -4196,12 +4196,12 @@
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>+553175235564</t>
+          <t>+5519999395027</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
@@ -4213,12 +4213,12 @@
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>+5521970987542</t>
+          <t>+553187556222</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
@@ -4230,12 +4230,12 @@
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>+553398575480</t>
+          <t>+556181344711</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
@@ -4247,80 +4247,80 @@
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>+553193590683</t>
+          <t>+5511937138186</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>+5522997230806</t>
+          <t>+553175235564</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>+5511985698796</t>
+          <t>+5521970987542</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>+5521965096539</t>
+          <t>+553398575480</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>+5521986678801</t>
+          <t>+553193590683</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
@@ -4332,12 +4332,12 @@
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>+555197496105</t>
+          <t>+5522997230806</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C229" s="2" t="inlineStr">
@@ -4349,7 +4349,7 @@
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>+5511947650170</t>
+          <t>+5511985698796</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
@@ -4366,12 +4366,12 @@
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>+553191829450</t>
+          <t>+5521965096539</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
@@ -4383,12 +4383,12 @@
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>+5511976440031</t>
+          <t>+5521986678801</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
@@ -4400,12 +4400,12 @@
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>+556293286544</t>
+          <t>+555197496105</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
@@ -4417,12 +4417,12 @@
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>+556194662595</t>
+          <t>+5511947650170</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
@@ -4434,12 +4434,12 @@
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>+555181664215</t>
+          <t>+553191829450</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
@@ -4451,12 +4451,12 @@
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>+5521978927776</t>
+          <t>+5511976440031</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
@@ -4468,97 +4468,97 @@
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>+553499089476</t>
+          <t>+556293286544</t>
         </is>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C237" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>+5524999964686</t>
+          <t>+556194662595</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>+5514997100570</t>
+          <t>+555181664215</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>+5511956996383</t>
+          <t>+5521978927776</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>+5524999215405</t>
+          <t>+553499089476</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>+5513974102524</t>
+          <t>+5524999964686</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
@@ -4570,12 +4570,12 @@
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>+5511985663846</t>
+          <t>+5514997100570</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
@@ -4587,80 +4587,80 @@
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>+5521997117322</t>
+          <t>+5511956996383</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>+5519997204476</t>
+          <t>+5524999215405</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>+556296767169</t>
+          <t>+5513974102524</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>+555199100909</t>
+          <t>+5511985663846</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>+5511960197823</t>
+          <t>+5521997117322</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
@@ -4672,12 +4672,12 @@
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>+5516993905706</t>
+          <t>+5519997204476</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C249" s="2" t="inlineStr">
@@ -4689,41 +4689,41 @@
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>+555491229014</t>
+          <t>+556296767169</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>+553183316751</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>+5511960297061</t>
+          <t>+5511960197823</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
@@ -4733,36 +4733,36 @@
       </c>
       <c r="C252" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>+5511967618163</t>
+          <t>+5516993905706</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>+5511953782520</t>
+          <t>+555491229014</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
@@ -4774,12 +4774,12 @@
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>+555194565879</t>
+          <t>+553183316751</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>+5519987116584</t>
+          <t>+5511960297061</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
@@ -4808,7 +4808,7 @@
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>+5511963669553</t>
+          <t>+5511967618163</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
@@ -4825,7 +4825,7 @@
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>+5511967026448</t>
+          <t>+5511953782520</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
@@ -4842,12 +4842,12 @@
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>+5511970838412</t>
+          <t>+555194565879</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
@@ -4859,7 +4859,7 @@
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>+5519994161076</t>
+          <t>+5519987116584</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
@@ -4876,12 +4876,12 @@
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>+5512974073721</t>
+          <t>+5511963669553</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
@@ -4893,12 +4893,12 @@
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>+553899272884</t>
+          <t>+5511967026448</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
@@ -4910,80 +4910,80 @@
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>+5513974277521</t>
+          <t>+5511970838412</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>+5511959480908</t>
+          <t>+5519994161076</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>+553173039716</t>
+          <t>+5512974073721</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>+5519983138652</t>
+          <t>+553899272884</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>+5516981621753</t>
+          <t>+5513974277521</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
@@ -4995,12 +4995,12 @@
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>+5513996269435</t>
+          <t>+5511959480908</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
@@ -5012,12 +5012,12 @@
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>+5511946858778</t>
+          <t>+553173039716</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
@@ -5029,12 +5029,12 @@
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>+553498008945</t>
+          <t>+5519983138652</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
@@ -5046,12 +5046,12 @@
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>+555198093042</t>
+          <t>+5516981621753</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
@@ -5063,12 +5063,12 @@
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>+5519992746058</t>
+          <t>+5513996269435</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
@@ -5080,7 +5080,7 @@
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>+5511959327333</t>
+          <t>+5511946858778</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
@@ -5097,12 +5097,12 @@
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>+5519991342511</t>
+          <t>+553498008945</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>+5511910662570</t>
+          <t>+555198093042</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
@@ -5131,12 +5131,12 @@
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>+5511979754910</t>
+          <t>+5519992746058</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
@@ -5148,12 +5148,12 @@
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>+5519984563784</t>
+          <t>+5511959327333</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C277" s="2" t="inlineStr">
@@ -5165,12 +5165,12 @@
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>+5524978358315</t>
+          <t>+5519991342511</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C278" s="2" t="inlineStr">
@@ -5182,12 +5182,12 @@
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>+5521964816197</t>
+          <t>+5511910662570</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
@@ -5199,12 +5199,12 @@
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>+554497202222</t>
+          <t>+5511979754910</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
@@ -5216,12 +5216,12 @@
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>+553187980853</t>
+          <t>+5519984563784</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
@@ -5233,12 +5233,12 @@
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>+555191226749</t>
+          <t>+5524978358315</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C282" s="2" t="inlineStr">
@@ -5250,12 +5250,12 @@
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>+5511982048012</t>
+          <t>+5521964816197</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
@@ -5267,12 +5267,12 @@
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>+5511960946166</t>
+          <t>+554497202222</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C284" s="2" t="inlineStr">
@@ -5284,12 +5284,12 @@
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>+5519991426273</t>
+          <t>+553187980853</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C285" s="2" t="inlineStr">
@@ -5301,12 +5301,12 @@
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>+5519981472020</t>
+          <t>+555191226749</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
@@ -5318,12 +5318,12 @@
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>+5521978835599</t>
+          <t>+5511982048012</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
@@ -5335,80 +5335,80 @@
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>+555180176562</t>
+          <t>+5511960946166</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C288" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>+5511942185569</t>
+          <t>+5519991426273</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C289" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>+5511947261969</t>
+          <t>+5519981472020</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C290" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>+5519992124887</t>
+          <t>+5521978835599</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>+553195359312</t>
+          <t>+555180176562</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
@@ -5420,7 +5420,7 @@
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>+5511962993512</t>
+          <t>+5511942185569</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
@@ -5437,7 +5437,7 @@
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>+5511993564173</t>
+          <t>+5511947261969</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
@@ -5454,12 +5454,12 @@
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>+553391919105</t>
+          <t>+5519992124887</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
@@ -5471,12 +5471,12 @@
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>+5511985800906</t>
+          <t>+553195359312</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr">
@@ -5488,7 +5488,7 @@
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>+5511959248300</t>
+          <t>+5511962993512</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
@@ -5498,70 +5498,70 @@
       </c>
       <c r="C297" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>+5519994486599</t>
+          <t>+5511993564173</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>+5511987774053</t>
+          <t>+553391919105</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>+553184640938</t>
+          <t>+5511985800906</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>+5521990575799</t>
+          <t>+5511959248300</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr">
@@ -5573,12 +5573,12 @@
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>+555191899807</t>
+          <t>+5519994486599</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C302" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>+556194027204</t>
+          <t>+5511987774053</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C303" s="2" t="inlineStr">
@@ -5607,12 +5607,12 @@
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>+5516999494445</t>
+          <t>+553184640938</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C304" s="2" t="inlineStr">
@@ -5624,12 +5624,12 @@
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>+5511952489850</t>
+          <t>+5521990575799</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C305" s="2" t="inlineStr">
@@ -5641,12 +5641,12 @@
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>+5521981400589</t>
+          <t>+555191899807</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
@@ -5658,12 +5658,12 @@
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>+5511957982446</t>
+          <t>+556194027204</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C307" s="2" t="inlineStr">
@@ -5675,12 +5675,12 @@
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>+5511948883579</t>
+          <t>+5516999494445</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
@@ -5692,12 +5692,12 @@
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>+556284316928</t>
+          <t>+5511952489850</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C309" s="2" t="inlineStr">
@@ -5709,12 +5709,12 @@
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>+5511983534806</t>
+          <t>+5521981400589</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C310" s="2" t="inlineStr">
@@ -5726,7 +5726,7 @@
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>+5511974919907</t>
+          <t>+5511957982446</t>
         </is>
       </c>
       <c r="B311" s="2" t="inlineStr">
@@ -5743,12 +5743,12 @@
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>+553298585881</t>
+          <t>+5511948883579</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr">
@@ -5760,12 +5760,12 @@
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>+5511996693536</t>
+          <t>+556284316928</t>
         </is>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr">
@@ -5777,58 +5777,58 @@
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>+553196634240</t>
+          <t>+5511983534806</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C314" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>+555186391577</t>
+          <t>+5511974919907</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>+555194687691</t>
+          <t>+553298585881</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>+5511913167865</t>
+          <t>+5511996693536</t>
         </is>
       </c>
       <c r="B317" s="2" t="inlineStr">
@@ -5838,19 +5838,19 @@
       </c>
       <c r="C317" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>+5511978691664</t>
+          <t>+553196634240</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C318" s="2" t="inlineStr">
@@ -5862,12 +5862,12 @@
     <row r="319">
       <c r="A319" s="2" t="inlineStr">
         <is>
-          <t>+553497201121</t>
+          <t>+555186391577</t>
         </is>
       </c>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C319" s="2" t="inlineStr">
@@ -5879,24 +5879,24 @@
     <row r="320">
       <c r="A320" s="2" t="inlineStr">
         <is>
-          <t>+558881220317</t>
+          <t>+555194687691</t>
         </is>
       </c>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C320" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="inlineStr">
         <is>
-          <t>+5511952172793</t>
+          <t>+5511913167865</t>
         </is>
       </c>
       <c r="B321" s="2" t="inlineStr">
@@ -5906,53 +5906,53 @@
       </c>
       <c r="C321" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t>+5513997769440</t>
+          <t>+5511978691664</t>
         </is>
       </c>
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C322" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="inlineStr">
         <is>
-          <t>+5511989993229</t>
+          <t>+553497201121</t>
         </is>
       </c>
       <c r="B323" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C323" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="inlineStr">
         <is>
-          <t>+5511994902251</t>
+          <t>+558881220317</t>
         </is>
       </c>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C324" s="2" t="inlineStr">
@@ -5964,12 +5964,12 @@
     <row r="325">
       <c r="A325" s="2" t="inlineStr">
         <is>
-          <t>+5519993039822</t>
+          <t>+5511952172793</t>
         </is>
       </c>
       <c r="B325" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C325" s="2" t="inlineStr">
@@ -5981,12 +5981,12 @@
     <row r="326">
       <c r="A326" s="2" t="inlineStr">
         <is>
-          <t>+5511990067914</t>
+          <t>+5513997769440</t>
         </is>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C326" s="2" t="inlineStr">
@@ -5998,12 +5998,12 @@
     <row r="327">
       <c r="A327" s="2" t="inlineStr">
         <is>
-          <t>+5521966715011</t>
+          <t>+5511989993229</t>
         </is>
       </c>
       <c r="B327" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C327" s="2" t="inlineStr">
@@ -6015,12 +6015,12 @@
     <row r="328">
       <c r="A328" s="2" t="inlineStr">
         <is>
-          <t>+5521965551832</t>
+          <t>+5511994902251</t>
         </is>
       </c>
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C328" s="2" t="inlineStr">
@@ -6032,12 +6032,12 @@
     <row r="329">
       <c r="A329" s="2" t="inlineStr">
         <is>
-          <t>+555496011266</t>
+          <t>+5519993039822</t>
         </is>
       </c>
       <c r="B329" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C329" s="2" t="inlineStr">
@@ -6049,12 +6049,12 @@
     <row r="330">
       <c r="A330" s="2" t="inlineStr">
         <is>
-          <t>+5521965910269</t>
+          <t>+5511990067914</t>
         </is>
       </c>
       <c r="B330" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C330" s="2" t="inlineStr">
@@ -6066,7 +6066,7 @@
     <row r="331">
       <c r="A331" s="2" t="inlineStr">
         <is>
-          <t>+5521981376833</t>
+          <t>+5521966715011</t>
         </is>
       </c>
       <c r="B331" s="2" t="inlineStr">
@@ -6076,70 +6076,70 @@
       </c>
       <c r="C331" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="inlineStr">
         <is>
-          <t>+5511986157257</t>
+          <t>+5521965551832</t>
         </is>
       </c>
       <c r="B332" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C332" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="inlineStr">
         <is>
-          <t>+5512996683720</t>
+          <t>+555496011266</t>
         </is>
       </c>
       <c r="B333" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C333" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="inlineStr">
         <is>
-          <t>+5514996744793</t>
+          <t>+5521965910269</t>
         </is>
       </c>
       <c r="B334" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C334" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="inlineStr">
         <is>
-          <t>+555199788369</t>
+          <t>+5521981376833</t>
         </is>
       </c>
       <c r="B335" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C335" s="2" t="inlineStr">
@@ -6151,75 +6151,75 @@
     <row r="336">
       <c r="A336" s="2" t="inlineStr">
         <is>
-          <t>+553199854571</t>
+          <t>+5511986157257</t>
         </is>
       </c>
       <c r="B336" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C336" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="inlineStr">
         <is>
-          <t>+5511932110481</t>
+          <t>+5512996683720</t>
         </is>
       </c>
       <c r="B337" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C337" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="inlineStr">
         <is>
-          <t>+556193189092</t>
+          <t>+5514996744793</t>
         </is>
       </c>
       <c r="B338" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C338" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="inlineStr">
         <is>
-          <t>+5517992036626</t>
+          <t>+555199788369</t>
         </is>
       </c>
       <c r="B339" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C339" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="inlineStr">
         <is>
-          <t>+553199616643</t>
+          <t>+553199854571</t>
         </is>
       </c>
       <c r="B340" s="2" t="inlineStr">
@@ -6229,121 +6229,121 @@
       </c>
       <c r="C340" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="inlineStr">
         <is>
-          <t>+5521977008499</t>
+          <t>+5511932110481</t>
         </is>
       </c>
       <c r="B341" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C341" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="inlineStr">
         <is>
-          <t>+5521977084479</t>
+          <t>+556193189092</t>
         </is>
       </c>
       <c r="B342" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C342" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="inlineStr">
         <is>
-          <t>+553496442965</t>
+          <t>+5517992036626</t>
         </is>
       </c>
       <c r="B343" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C343" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="inlineStr">
         <is>
-          <t>+5518997151251</t>
+          <t>+553199616643</t>
         </is>
       </c>
       <c r="B344" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C344" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-02</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="inlineStr">
         <is>
-          <t>+556198606157</t>
+          <t>+5521977008499</t>
         </is>
       </c>
       <c r="B345" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C345" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-02</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="inlineStr">
         <is>
-          <t>+555195284929</t>
+          <t>+5521977084479</t>
         </is>
       </c>
       <c r="B346" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C346" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-02</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="inlineStr">
         <is>
-          <t>+5511987594244</t>
+          <t>+553496442965</t>
         </is>
       </c>
       <c r="B347" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C347" s="2" t="inlineStr">
@@ -6355,83 +6355,151 @@
     <row r="348">
       <c r="A348" s="2" t="inlineStr">
         <is>
-          <t>+5511959227230</t>
+          <t>+5518997151251</t>
         </is>
       </c>
       <c r="B348" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C348" s="2" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="inlineStr">
         <is>
-          <t>+555599102946</t>
+          <t>+556198606157</t>
         </is>
       </c>
       <c r="B349" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C349" s="2" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="inlineStr">
         <is>
-          <t>+5511970726796</t>
+          <t>+555195284929</t>
         </is>
       </c>
       <c r="B350" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C350" s="2" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="inlineStr">
         <is>
-          <t>+5519996017926</t>
+          <t>+5511987594244</t>
         </is>
       </c>
       <c r="B351" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C351" s="2" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="inlineStr">
         <is>
+          <t>+5511959227230</t>
+        </is>
+      </c>
+      <c r="B352" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C352" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="inlineStr">
+        <is>
+          <t>+555599102946</t>
+        </is>
+      </c>
+      <c r="B353" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C353" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="inlineStr">
+        <is>
+          <t>+5511970726796</t>
+        </is>
+      </c>
+      <c r="B354" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C354" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="inlineStr">
+        <is>
+          <t>+5519996017926</t>
+        </is>
+      </c>
+      <c r="B355" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C355" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="inlineStr">
+        <is>
           <t>+5511949288154</t>
         </is>
       </c>
-      <c r="B352" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C352" s="2" t="inlineStr">
+      <c r="B356" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C356" s="2" t="inlineStr">
         <is>
           <t>2024-08-26</t>
         </is>

--- a/gabi.xlsx
+++ b/gabi.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C356"/>
+  <dimension ref="A1:C357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,143 +477,143 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+559191270637</t>
+          <t>+555384426124</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5514998320232</t>
+          <t>+553186089276</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5522997684436</t>
+          <t>+553198253411</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+5511919488174</t>
+          <t>+5522981174795</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+556186395363</t>
+          <t>+5521966501459</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5511972234318</t>
+          <t>+5518991568866</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+553398405443</t>
+          <t>+5511983641384</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+556199594992</t>
+          <t>+5519971058370</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5511992475373</t>
+          <t>+5511963499586</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -623,14 +623,14 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+553192317871</t>
+          <t>+553192222396</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -640,31 +640,31 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+555182056614</t>
+          <t>+5515974032589</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5511947670195</t>
+          <t>+5511994806816</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -674,31 +674,31 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+555597004997</t>
+          <t>+5521968506908</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+553496464470</t>
+          <t>+553491610816</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -708,172 +708,172 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5521971980037</t>
+          <t>+553488055259</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5511969671185</t>
+          <t>+5515981337872</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+553284909728</t>
+          <t>+553384677059</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+5518996713803</t>
+          <t>+5511948871594</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5512988515916</t>
+          <t>+5519996299319</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5519996918169</t>
+          <t>+5511988552097</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+553187205987</t>
+          <t>+5521976781800</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+553172529279</t>
+          <t>+553591021541</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+553798602426</t>
+          <t>+5516993604875</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+557788162507</t>
+          <t>+5521965496502</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+555499512062</t>
+          <t>+555499386416</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -902,80 +902,80 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+5511932857559</t>
+          <t>+553187596479</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+5521971839379</t>
+          <t>+559191270637</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5511972930265</t>
+          <t>+5521992810743</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+5511933453600</t>
+          <t>+5519971619301</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+555491016875</t>
+          <t>+5521971839379</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -987,12 +987,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+5521989149541</t>
+          <t>+5511972930265</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+5511965520814</t>
+          <t>+5511933453600</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1021,12 +1021,12 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+5511940372227</t>
+          <t>+555491016875</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+5521979503998</t>
+          <t>+5521989149541</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -1055,12 +1055,12 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+5512991256492</t>
+          <t>+5511965520814</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -1072,12 +1072,12 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+556292340085</t>
+          <t>+5511940372227</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -1089,12 +1089,12 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+5511975721557</t>
+          <t>+5521979503998</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
@@ -1106,12 +1106,12 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+556192470699</t>
+          <t>+556292340085</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -1123,12 +1123,12 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+554891421017</t>
+          <t>+5511975721557</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -1140,46 +1140,46 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+556798473306</t>
+          <t>+556192470699</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+5521987823541</t>
+          <t>+554891421017</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+5517981571512</t>
+          <t>+556798473306</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -1191,12 +1191,12 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+556184421881</t>
+          <t>+5521987823541</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -1208,7 +1208,7 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+5517991290893</t>
+          <t>+5517981571512</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -1225,24 +1225,24 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+5511940728898</t>
+          <t>+556184421881</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+5511947768319</t>
+          <t>+5511940728898</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -1259,12 +1259,12 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+5522997621623</t>
+          <t>+5511947768319</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -1276,12 +1276,12 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+5521994075389</t>
+          <t>+5522997621623</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -1293,29 +1293,29 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+5511981892366</t>
+          <t>+5521994075389</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+555192717667</t>
+          <t>+5511981892366</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
@@ -1327,12 +1327,12 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+5522997104652</t>
+          <t>+555192717667</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
@@ -1344,7 +1344,7 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+5522992752597</t>
+          <t>+5522997104652</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -1354,36 +1354,36 @@
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+5511999318706</t>
+          <t>+5522992752597</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+5521992761358</t>
+          <t>+5511999318706</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -1395,29 +1395,29 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+556198289593</t>
+          <t>+5521992761358</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+5521979898353</t>
+          <t>+556198289593</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -1429,12 +1429,12 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+5511951735066</t>
+          <t>+5521979898353</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -1446,12 +1446,12 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+5521968066779</t>
+          <t>+5511951735066</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
@@ -1463,12 +1463,12 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+5511940052132</t>
+          <t>+5521968066779</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
@@ -1480,12 +1480,12 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+555584586767</t>
+          <t>+5511940052132</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -1497,29 +1497,29 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+5511959504956</t>
+          <t>+555584586767</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+5519991884271</t>
+          <t>+5511959504956</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
@@ -1531,12 +1531,12 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+5521999546007</t>
+          <t>+5519991884271</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
@@ -1548,7 +1548,7 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+5521971985918</t>
+          <t>+5521999546007</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -1565,12 +1565,12 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+5511982403910</t>
+          <t>+5521971985918</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
@@ -1582,12 +1582,12 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+555194713402</t>
+          <t>+5511982403910</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -1599,12 +1599,12 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+5511979869629</t>
+          <t>+555194713402</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -1616,12 +1616,12 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+553491497775</t>
+          <t>+5511979869629</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -1633,12 +1633,12 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+5511952202576</t>
+          <t>+553491497775</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -1650,12 +1650,12 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+556496241313</t>
+          <t>+5511952202576</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
@@ -1667,12 +1667,12 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+5521966659271</t>
+          <t>+556496241313</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
@@ -1684,12 +1684,12 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+5511958383006</t>
+          <t>+5521966659271</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
@@ -1701,12 +1701,12 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+5512982473711</t>
+          <t>+5511958383006</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
@@ -1718,12 +1718,12 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+555193033662</t>
+          <t>+5512982473711</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
@@ -1735,29 +1735,29 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+5511932101366</t>
+          <t>+555193033662</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+553298344288</t>
+          <t>+5511932101366</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
@@ -1769,12 +1769,12 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+5519999605608</t>
+          <t>+553298344288</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
@@ -1786,27 +1786,27 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+56996163824</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="inlineStr"/>
+          <t>+5519999605608</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+5511986610154</t>
-        </is>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>+56996163824</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
           <t>2024-10-06</t>
@@ -1816,7 +1816,7 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+5511981755261</t>
+          <t>+5511986610154</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+5511970224460</t>
+          <t>+5511981755261</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
@@ -1850,12 +1850,12 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+553183201160</t>
+          <t>+5511970224460</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
@@ -1867,29 +1867,29 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+5519997544249</t>
+          <t>+553183201160</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+555384745327</t>
+          <t>+5519997544249</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
@@ -1901,12 +1901,12 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+5514996501813</t>
+          <t>+555384745327</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
@@ -1918,12 +1918,12 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+5511972435655</t>
+          <t>+5514996501813</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
@@ -1935,7 +1935,7 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+5511946397297</t>
+          <t>+5511972435655</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -1952,12 +1952,12 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+553397075362</t>
+          <t>+5511946397297</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
@@ -1969,12 +1969,12 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+5513991020783</t>
+          <t>+553397075362</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
@@ -1986,12 +1986,12 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+5521969440520</t>
+          <t>+5513991020783</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
@@ -2003,12 +2003,12 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+553193672938</t>
+          <t>+5521969440520</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
@@ -2020,12 +2020,12 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+5522981479241</t>
+          <t>+553193672938</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
@@ -2037,12 +2037,12 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+5521979251504</t>
+          <t>+5522981479241</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
@@ -2054,12 +2054,12 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+556198475033</t>
+          <t>+5521979251504</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
@@ -2071,12 +2071,12 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+5516992236142</t>
+          <t>+556198475033</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
@@ -2088,12 +2088,12 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+5511948893274</t>
+          <t>+5516992236142</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
@@ -2105,12 +2105,12 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+5521968278744</t>
+          <t>+5511948893274</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+555196384525</t>
+          <t>+5521968278744</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
@@ -2139,29 +2139,29 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+5511972915535</t>
+          <t>+555196384525</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+553180135415</t>
+          <t>+5511972915535</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
@@ -2173,29 +2173,29 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+5521992200288</t>
+          <t>+553180135415</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+556196779704</t>
+          <t>+5521992200288</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
@@ -2207,12 +2207,12 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+5511915810965</t>
+          <t>+556196779704</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
@@ -2224,12 +2224,12 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+5524999461825</t>
+          <t>+5511915810965</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
@@ -2241,12 +2241,12 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+556196698353</t>
+          <t>+5524999461825</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
@@ -2258,12 +2258,12 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+5513996671783</t>
+          <t>+556196698353</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
@@ -2275,12 +2275,12 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+5518996829002</t>
+          <t>+5513996671783</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
@@ -2292,12 +2292,12 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+5511991871576</t>
+          <t>+5518996829002</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
@@ -2309,12 +2309,12 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+5514981509955</t>
+          <t>+5511991871576</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
@@ -2326,12 +2326,12 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+555184777056</t>
+          <t>+5514981509955</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
@@ -2343,12 +2343,12 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+5513991081873</t>
+          <t>+555184777056</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
@@ -2360,12 +2360,12 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+555197040253</t>
+          <t>+5513991081873</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
@@ -2377,29 +2377,29 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+5511977945054</t>
+          <t>+555197040253</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+553496724472</t>
+          <t>+5511977945054</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
@@ -2411,12 +2411,12 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+553186960521</t>
+          <t>+553496724472</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
@@ -2428,12 +2428,12 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+5516988023377</t>
+          <t>+553186960521</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
@@ -2445,12 +2445,12 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+553492249633</t>
+          <t>+5516988023377</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
@@ -2462,12 +2462,12 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+5511996339968</t>
+          <t>+553492249633</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
@@ -2479,12 +2479,12 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+553899926253</t>
+          <t>+5511996339968</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
@@ -2496,12 +2496,12 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+555596010082</t>
+          <t>+553899926253</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
@@ -2513,12 +2513,12 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+5521984364734</t>
+          <t>+555596010082</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
@@ -2530,12 +2530,12 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+5511964334834</t>
+          <t>+5521984364734</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
@@ -2547,12 +2547,12 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+553196748836</t>
+          <t>+5511964334834</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
@@ -2564,12 +2564,12 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+556196182173</t>
+          <t>+553196748836</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
@@ -2581,12 +2581,12 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+5515988279142</t>
+          <t>+556196182173</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
@@ -2598,12 +2598,12 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+551974071078</t>
+          <t>+5515988279142</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
@@ -2615,12 +2615,12 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+5511943458186</t>
+          <t>+551974071078</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
@@ -2632,12 +2632,12 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+553175675075</t>
+          <t>+5511943458186</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
@@ -2649,12 +2649,12 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+558186914048</t>
+          <t>+553175675075</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
@@ -2666,12 +2666,12 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+5514997419977</t>
+          <t>+558186914048</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
@@ -2683,12 +2683,12 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+5511964838163</t>
+          <t>+5514997419977</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
@@ -2700,29 +2700,29 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+555191485515</t>
+          <t>+5511964838163</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+5521989929657</t>
+          <t>+555191485515</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
@@ -2734,12 +2734,12 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+5511986633336</t>
+          <t>+5521989929657</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
@@ -2751,7 +2751,7 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+5511963264394</t>
+          <t>+5511986633336</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
@@ -2768,12 +2768,12 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+555399629079</t>
+          <t>+5511963264394</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
@@ -2785,12 +2785,12 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+555194536598</t>
+          <t>+555399629079</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
@@ -2802,12 +2802,12 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+5516991290210</t>
+          <t>+555194536598</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
@@ -2819,12 +2819,12 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+5511985014090</t>
+          <t>+5516991290210</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
@@ -2836,7 +2836,7 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+5511971885642</t>
+          <t>+5511985014090</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
@@ -2853,12 +2853,12 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+556192235590</t>
+          <t>+5511971885642</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
@@ -2870,12 +2870,12 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+553197910058</t>
+          <t>+556192235590</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
@@ -2887,12 +2887,12 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+5511945037623</t>
+          <t>+553197910058</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
@@ -2904,12 +2904,12 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+558586569439</t>
+          <t>+5511945037623</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
@@ -2921,12 +2921,12 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+5511971176538</t>
+          <t>+558586569439</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
@@ -2938,7 +2938,7 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+5511934629890</t>
+          <t>+5511971176538</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
@@ -2955,29 +2955,29 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+5521971413810</t>
+          <t>+5511934629890</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+5511986546912</t>
+          <t>+5521971413810</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
@@ -2989,12 +2989,12 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+553171606494</t>
+          <t>+5511986546912</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
@@ -3006,7 +3006,7 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+553171858800</t>
+          <t>+553171606494</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
@@ -3023,12 +3023,12 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+5513996171453</t>
+          <t>+553171858800</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
@@ -3040,12 +3040,12 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+556191917174</t>
+          <t>+5513996171453</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
@@ -3057,12 +3057,12 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+555181699628</t>
+          <t>+556191917174</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
@@ -3074,12 +3074,12 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+558994526750</t>
+          <t>+555181699628</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
@@ -3091,12 +3091,12 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+5522999490720</t>
+          <t>+558994526750</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
@@ -3108,12 +3108,12 @@
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+5515996341306</t>
+          <t>+5522999490720</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
@@ -3125,12 +3125,12 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+555492618052</t>
+          <t>+5515996341306</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
@@ -3142,12 +3142,12 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+5512991532012</t>
+          <t>+555492618052</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
@@ -3159,12 +3159,12 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+556293410347</t>
+          <t>+5512991532012</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
@@ -3176,29 +3176,29 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+553171722790</t>
+          <t>+556293410347</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+555186041958</t>
+          <t>+553171722790</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
@@ -3210,12 +3210,12 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+5522999557124</t>
+          <t>+555186041958</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
@@ -3227,24 +3227,24 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+5511956194781</t>
+          <t>+5522999557124</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+5511949693265</t>
+          <t>+5511956194781</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
@@ -3261,12 +3261,12 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+553399550487</t>
+          <t>+5511949693265</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
@@ -3278,29 +3278,29 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+555193334094</t>
+          <t>+553399550487</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+553191181765</t>
+          <t>+555193334094</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
@@ -3312,12 +3312,12 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+553492868099</t>
+          <t>+553191181765</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
@@ -3329,12 +3329,12 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+556198163313</t>
+          <t>+553492868099</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
@@ -3346,12 +3346,12 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+556286223947</t>
+          <t>+556198163313</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
@@ -3363,12 +3363,12 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+5522992578488</t>
+          <t>+556286223947</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
@@ -3380,29 +3380,29 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+5519981594572</t>
+          <t>+5522992578488</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+556196054585</t>
+          <t>+5519981594572</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
@@ -3414,12 +3414,12 @@
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+5511987670856</t>
+          <t>+556196054585</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
@@ -3431,29 +3431,29 @@
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+556296704284</t>
+          <t>+5511987670856</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+5511993877662</t>
+          <t>+556296704284</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
@@ -3465,7 +3465,7 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+5511959898968</t>
+          <t>+5511993877662</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
@@ -3482,24 +3482,24 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+5519999136362</t>
+          <t>+5511959898968</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+5519993254501</t>
+          <t>+5519999136362</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
@@ -3516,12 +3516,12 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+556384939482</t>
+          <t>+5519993254501</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
@@ -3533,12 +3533,12 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+553187320810</t>
+          <t>+556384939482</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
@@ -3550,12 +3550,12 @@
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+553187320810</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
@@ -3567,7 +3567,7 @@
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+5511930092193</t>
+          <t>+5511966134418</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
@@ -3584,12 +3584,12 @@
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+5521977601201</t>
+          <t>+5511930092193</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
@@ -3601,24 +3601,24 @@
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+553897450448</t>
+          <t>+5521977601201</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+553899341338</t>
+          <t>+553897450448</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
@@ -3635,12 +3635,12 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+5521965730495</t>
+          <t>+553899341338</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
@@ -3652,29 +3652,29 @@
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+5512996345540</t>
+          <t>+5521965730495</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+553284127574</t>
+          <t>+5512996345540</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
@@ -3686,12 +3686,12 @@
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+553384499379</t>
+          <t>+553284127574</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
@@ -3703,12 +3703,12 @@
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+5511945704788</t>
+          <t>+553384499379</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
@@ -3720,29 +3720,29 @@
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+5522999416651</t>
+          <t>+5511945704788</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+553496487520</t>
+          <t>+5522999416651</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
@@ -3754,12 +3754,12 @@
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+5511953903531</t>
+          <t>+553496487520</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
@@ -3771,7 +3771,7 @@
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+5511963380338</t>
+          <t>+5511953903531</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
@@ -3788,12 +3788,12 @@
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+556181106946</t>
+          <t>+5511963380338</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
@@ -3805,12 +3805,12 @@
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+5521966430435</t>
+          <t>+556181106946</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
@@ -3822,24 +3822,24 @@
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+5517981343490</t>
+          <t>+5521966430435</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+5517992750891</t>
+          <t>+5517981343490</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
@@ -3856,12 +3856,12 @@
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+556194435831</t>
+          <t>+5517992750891</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
@@ -3873,7 +3873,7 @@
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>+556192815706</t>
+          <t>+556194435831</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
@@ -3890,29 +3890,29 @@
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>+555194681350</t>
+          <t>+556192815706</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>+5521990024205</t>
+          <t>+555194681350</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
@@ -3924,12 +3924,12 @@
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>+5516993340146</t>
+          <t>+5521990024205</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
@@ -3941,12 +3941,12 @@
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>+5511969710184</t>
+          <t>+5516993340146</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
@@ -3958,29 +3958,29 @@
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>+555184228607</t>
+          <t>+5511969710184</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+555184228607</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
@@ -3992,12 +3992,12 @@
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>+5516991501083</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
@@ -4009,12 +4009,12 @@
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+5516991501083</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
@@ -4026,12 +4026,12 @@
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>+5519974133120</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
@@ -4043,12 +4043,12 @@
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>+5511971165356</t>
+          <t>+5519974133120</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
@@ -4060,12 +4060,12 @@
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>+5528999143242</t>
+          <t>+5511971165356</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
@@ -4077,12 +4077,12 @@
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>+5521992992344</t>
+          <t>+5528999143242</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
@@ -4094,12 +4094,12 @@
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>+553199111438</t>
+          <t>+5521992992344</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
@@ -4111,29 +4111,29 @@
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>+5511991868062</t>
+          <t>+553199111438</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>+5521965163770</t>
+          <t>+5511991868062</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
@@ -4145,12 +4145,12 @@
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>+556191281418</t>
+          <t>+5521965163770</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
@@ -4162,12 +4162,12 @@
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>+5511970484790</t>
+          <t>+556191281418</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
@@ -4179,12 +4179,12 @@
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>+553888359308</t>
+          <t>+5511970484790</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
@@ -4196,12 +4196,12 @@
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>+5519999395027</t>
+          <t>+553888359308</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
@@ -4213,12 +4213,12 @@
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>+553187556222</t>
+          <t>+5519999395027</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
@@ -4230,12 +4230,12 @@
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>+556181344711</t>
+          <t>+553187556222</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
@@ -4247,12 +4247,12 @@
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>+5511937138186</t>
+          <t>+556181344711</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
@@ -4264,12 +4264,12 @@
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>+553175235564</t>
+          <t>+5511937138186</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
@@ -4281,12 +4281,12 @@
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>+5521970987542</t>
+          <t>+553175235564</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
@@ -4298,12 +4298,12 @@
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>+553398575480</t>
+          <t>+5521970987542</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
@@ -4315,29 +4315,29 @@
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>+553193590683</t>
+          <t>+553398575480</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>+5522997230806</t>
+          <t>+553193590683</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C229" s="2" t="inlineStr">
@@ -4349,12 +4349,12 @@
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>+5511985698796</t>
+          <t>+5522997230806</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
@@ -4366,12 +4366,12 @@
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>+5521965096539</t>
+          <t>+5511985698796</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
@@ -4383,7 +4383,7 @@
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>+5521986678801</t>
+          <t>+5521965096539</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
@@ -4400,12 +4400,12 @@
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>+555197496105</t>
+          <t>+5521986678801</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
@@ -4417,12 +4417,12 @@
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>+5511947650170</t>
+          <t>+555197496105</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
@@ -4434,12 +4434,12 @@
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>+553191829450</t>
+          <t>+5511947650170</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
@@ -4451,12 +4451,12 @@
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>+5511976440031</t>
+          <t>+553191829450</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
@@ -4468,12 +4468,12 @@
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>+556293286544</t>
+          <t>+5511976440031</t>
         </is>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C237" s="2" t="inlineStr">
@@ -4485,12 +4485,12 @@
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>+556194662595</t>
+          <t>+556293286544</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
@@ -4502,12 +4502,12 @@
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>+555181664215</t>
+          <t>+556194662595</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr">
@@ -4519,12 +4519,12 @@
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>+5521978927776</t>
+          <t>+555181664215</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr">
@@ -4536,46 +4536,46 @@
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>+553499089476</t>
+          <t>+5521978927776</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>+5524999964686</t>
+          <t>+553499089476</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>+5514997100570</t>
+          <t>+5524999964686</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
@@ -4587,12 +4587,12 @@
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>+5511956996383</t>
+          <t>+5514997100570</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
@@ -4604,12 +4604,12 @@
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>+5524999215405</t>
+          <t>+5511956996383</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
@@ -4621,12 +4621,12 @@
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>+5513974102524</t>
+          <t>+5524999215405</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
@@ -4638,12 +4638,12 @@
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>+5511985663846</t>
+          <t>+5513974102524</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
@@ -4655,29 +4655,29 @@
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>+5521997117322</t>
+          <t>+5511985663846</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>+5519997204476</t>
+          <t>+5521997117322</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C249" s="2" t="inlineStr">
@@ -4689,12 +4689,12 @@
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>+556296767169</t>
+          <t>+5519997204476</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
@@ -4706,12 +4706,12 @@
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>+555199100909</t>
+          <t>+556296767169</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
@@ -4723,12 +4723,12 @@
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>+5511960197823</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
@@ -4740,12 +4740,12 @@
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>+5516993905706</t>
+          <t>+5511960197823</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr">
@@ -4757,29 +4757,29 @@
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>+555491229014</t>
+          <t>+5516993905706</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>+553183316751</t>
+          <t>+555491229014</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>+5511960297061</t>
+          <t>+553183316751</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
@@ -4808,7 +4808,7 @@
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>+5511967618163</t>
+          <t>+5511960297061</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
@@ -4825,7 +4825,7 @@
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>+5511953782520</t>
+          <t>+5511967618163</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
@@ -4842,12 +4842,12 @@
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>+555194565879</t>
+          <t>+5511953782520</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
@@ -4859,12 +4859,12 @@
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>+5519987116584</t>
+          <t>+555194565879</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
@@ -4876,12 +4876,12 @@
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>+5511963669553</t>
+          <t>+5519987116584</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
@@ -4893,7 +4893,7 @@
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>+5511967026448</t>
+          <t>+5511963669553</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
@@ -4910,7 +4910,7 @@
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>+5511970838412</t>
+          <t>+5511967026448</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
@@ -4927,12 +4927,12 @@
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>+5519994161076</t>
+          <t>+5511970838412</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
@@ -4944,12 +4944,12 @@
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>+5512974073721</t>
+          <t>+5519994161076</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
@@ -4961,12 +4961,12 @@
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>+553899272884</t>
+          <t>+5512974073721</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
@@ -4978,29 +4978,29 @@
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>+5513974277521</t>
+          <t>+553899272884</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>+5511959480908</t>
+          <t>+5513974277521</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
@@ -5012,12 +5012,12 @@
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>+553173039716</t>
+          <t>+5511959480908</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
@@ -5029,12 +5029,12 @@
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>+5519983138652</t>
+          <t>+553173039716</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
@@ -5046,12 +5046,12 @@
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>+5516981621753</t>
+          <t>+5519983138652</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
@@ -5063,12 +5063,12 @@
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>+5513996269435</t>
+          <t>+5516981621753</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
@@ -5080,12 +5080,12 @@
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>+5511946858778</t>
+          <t>+5513996269435</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr">
@@ -5097,12 +5097,12 @@
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>+553498008945</t>
+          <t>+5511946858778</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>+555198093042</t>
+          <t>+553498008945</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
@@ -5131,12 +5131,12 @@
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>+5519992746058</t>
+          <t>+555198093042</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
@@ -5148,12 +5148,12 @@
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>+5511959327333</t>
+          <t>+5519992746058</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C277" s="2" t="inlineStr">
@@ -5165,12 +5165,12 @@
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>+5519991342511</t>
+          <t>+5511959327333</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C278" s="2" t="inlineStr">
@@ -5182,12 +5182,12 @@
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>+5511910662570</t>
+          <t>+5519991342511</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
@@ -5199,7 +5199,7 @@
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>+5511979754910</t>
+          <t>+5511910662570</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
@@ -5216,12 +5216,12 @@
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>+5519984563784</t>
+          <t>+5511979754910</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
@@ -5233,12 +5233,12 @@
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>+5524978358315</t>
+          <t>+5519984563784</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C282" s="2" t="inlineStr">
@@ -5250,12 +5250,12 @@
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>+5521964816197</t>
+          <t>+5524978358315</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
@@ -5267,12 +5267,12 @@
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>+554497202222</t>
+          <t>+5521964816197</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C284" s="2" t="inlineStr">
@@ -5284,12 +5284,12 @@
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>+553187980853</t>
+          <t>+554497202222</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C285" s="2" t="inlineStr">
@@ -5301,12 +5301,12 @@
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>+555191226749</t>
+          <t>+553187980853</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
@@ -5318,12 +5318,12 @@
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>+5511982048012</t>
+          <t>+555191226749</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
@@ -5335,7 +5335,7 @@
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>+5511960946166</t>
+          <t>+5511982048012</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
@@ -5352,12 +5352,12 @@
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>+5519991426273</t>
+          <t>+5511960946166</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C289" s="2" t="inlineStr">
@@ -5369,7 +5369,7 @@
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>+5519981472020</t>
+          <t>+5519991426273</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
@@ -5386,12 +5386,12 @@
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>+5521978835599</t>
+          <t>+5519981472020</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
@@ -5403,29 +5403,29 @@
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>+555180176562</t>
+          <t>+5521978835599</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>+5511942185569</t>
+          <t>+555180176562</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C293" s="2" t="inlineStr">
@@ -5437,7 +5437,7 @@
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>+5511947261969</t>
+          <t>+5511942185569</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
@@ -5454,12 +5454,12 @@
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>+5519992124887</t>
+          <t>+5511947261969</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
@@ -5471,12 +5471,12 @@
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>+553195359312</t>
+          <t>+5519992124887</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr">
@@ -5488,12 +5488,12 @@
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>+5511962993512</t>
+          <t>+553195359312</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C297" s="2" t="inlineStr">
@@ -5505,7 +5505,7 @@
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>+5511993564173</t>
+          <t>+5511962993512</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
@@ -5522,12 +5522,12 @@
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>+553391919105</t>
+          <t>+5511993564173</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
@@ -5539,12 +5539,12 @@
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>+5511985800906</t>
+          <t>+553391919105</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr">
@@ -5556,7 +5556,7 @@
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>+5511959248300</t>
+          <t>+5511985800906</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
@@ -5566,19 +5566,19 @@
       </c>
       <c r="C301" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>+5519994486599</t>
+          <t>+5511959248300</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C302" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>+5511987774053</t>
+          <t>+5519994486599</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C303" s="2" t="inlineStr">
@@ -5607,12 +5607,12 @@
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>+553184640938</t>
+          <t>+5511987774053</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C304" s="2" t="inlineStr">
@@ -5624,12 +5624,12 @@
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>+5521990575799</t>
+          <t>+553184640938</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C305" s="2" t="inlineStr">
@@ -5641,12 +5641,12 @@
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>+555191899807</t>
+          <t>+5521990575799</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
@@ -5658,12 +5658,12 @@
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>+556194027204</t>
+          <t>+555191899807</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C307" s="2" t="inlineStr">
@@ -5675,12 +5675,12 @@
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>+5516999494445</t>
+          <t>+556194027204</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
@@ -5692,12 +5692,12 @@
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>+5511952489850</t>
+          <t>+5516999494445</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C309" s="2" t="inlineStr">
@@ -5709,12 +5709,12 @@
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>+5521981400589</t>
+          <t>+5511952489850</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C310" s="2" t="inlineStr">
@@ -5726,12 +5726,12 @@
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>+5511957982446</t>
+          <t>+5521981400589</t>
         </is>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr">
@@ -5743,7 +5743,7 @@
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>+5511948883579</t>
+          <t>+5511957982446</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
@@ -5760,12 +5760,12 @@
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>+556284316928</t>
+          <t>+5511948883579</t>
         </is>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr">
@@ -5777,12 +5777,12 @@
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>+5511983534806</t>
+          <t>+556284316928</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C314" s="2" t="inlineStr">
@@ -5794,7 +5794,7 @@
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>+5511974919907</t>
+          <t>+5511983534806</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
@@ -5811,12 +5811,12 @@
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>+553298585881</t>
+          <t>+5511974919907</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr">
@@ -5828,12 +5828,12 @@
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>+5511996693536</t>
+          <t>+553298585881</t>
         </is>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C317" s="2" t="inlineStr">
@@ -5845,29 +5845,29 @@
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>+553196634240</t>
+          <t>+5511996693536</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C318" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="inlineStr">
         <is>
-          <t>+555186391577</t>
+          <t>+553196634240</t>
         </is>
       </c>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C319" s="2" t="inlineStr">
@@ -5879,7 +5879,7 @@
     <row r="320">
       <c r="A320" s="2" t="inlineStr">
         <is>
-          <t>+555194687691</t>
+          <t>+555186391577</t>
         </is>
       </c>
       <c r="B320" s="2" t="inlineStr">
@@ -5896,12 +5896,12 @@
     <row r="321">
       <c r="A321" s="2" t="inlineStr">
         <is>
-          <t>+5511913167865</t>
+          <t>+555194687691</t>
         </is>
       </c>
       <c r="B321" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C321" s="2" t="inlineStr">
@@ -5913,7 +5913,7 @@
     <row r="322">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t>+5511978691664</t>
+          <t>+5511913167865</t>
         </is>
       </c>
       <c r="B322" s="2" t="inlineStr">
@@ -5930,12 +5930,12 @@
     <row r="323">
       <c r="A323" s="2" t="inlineStr">
         <is>
-          <t>+553497201121</t>
+          <t>+5511978691664</t>
         </is>
       </c>
       <c r="B323" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C323" s="2" t="inlineStr">
@@ -5947,29 +5947,29 @@
     <row r="324">
       <c r="A324" s="2" t="inlineStr">
         <is>
-          <t>+558881220317</t>
+          <t>+553497201121</t>
         </is>
       </c>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C324" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="inlineStr">
         <is>
-          <t>+5511952172793</t>
+          <t>+558881220317</t>
         </is>
       </c>
       <c r="B325" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C325" s="2" t="inlineStr">
@@ -5981,12 +5981,12 @@
     <row r="326">
       <c r="A326" s="2" t="inlineStr">
         <is>
-          <t>+5513997769440</t>
+          <t>+5511952172793</t>
         </is>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C326" s="2" t="inlineStr">
@@ -5998,12 +5998,12 @@
     <row r="327">
       <c r="A327" s="2" t="inlineStr">
         <is>
-          <t>+5511989993229</t>
+          <t>+5513997769440</t>
         </is>
       </c>
       <c r="B327" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C327" s="2" t="inlineStr">
@@ -6015,7 +6015,7 @@
     <row r="328">
       <c r="A328" s="2" t="inlineStr">
         <is>
-          <t>+5511994902251</t>
+          <t>+5511989993229</t>
         </is>
       </c>
       <c r="B328" s="2" t="inlineStr">
@@ -6032,12 +6032,12 @@
     <row r="329">
       <c r="A329" s="2" t="inlineStr">
         <is>
-          <t>+5519993039822</t>
+          <t>+5511994902251</t>
         </is>
       </c>
       <c r="B329" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C329" s="2" t="inlineStr">
@@ -6049,12 +6049,12 @@
     <row r="330">
       <c r="A330" s="2" t="inlineStr">
         <is>
-          <t>+5511990067914</t>
+          <t>+5519993039822</t>
         </is>
       </c>
       <c r="B330" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C330" s="2" t="inlineStr">
@@ -6066,12 +6066,12 @@
     <row r="331">
       <c r="A331" s="2" t="inlineStr">
         <is>
-          <t>+5521966715011</t>
+          <t>+5511990067914</t>
         </is>
       </c>
       <c r="B331" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C331" s="2" t="inlineStr">
@@ -6083,7 +6083,7 @@
     <row r="332">
       <c r="A332" s="2" t="inlineStr">
         <is>
-          <t>+5521965551832</t>
+          <t>+5521966715011</t>
         </is>
       </c>
       <c r="B332" s="2" t="inlineStr">
@@ -6100,12 +6100,12 @@
     <row r="333">
       <c r="A333" s="2" t="inlineStr">
         <is>
-          <t>+555496011266</t>
+          <t>+5521965551832</t>
         </is>
       </c>
       <c r="B333" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C333" s="2" t="inlineStr">
@@ -6117,12 +6117,12 @@
     <row r="334">
       <c r="A334" s="2" t="inlineStr">
         <is>
-          <t>+5521965910269</t>
+          <t>+555496011266</t>
         </is>
       </c>
       <c r="B334" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C334" s="2" t="inlineStr">
@@ -6134,7 +6134,7 @@
     <row r="335">
       <c r="A335" s="2" t="inlineStr">
         <is>
-          <t>+5521981376833</t>
+          <t>+5521965910269</t>
         </is>
       </c>
       <c r="B335" s="2" t="inlineStr">
@@ -6144,19 +6144,19 @@
       </c>
       <c r="C335" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="inlineStr">
         <is>
-          <t>+5511986157257</t>
+          <t>+5521981376833</t>
         </is>
       </c>
       <c r="B336" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C336" s="2" t="inlineStr">
@@ -6168,12 +6168,12 @@
     <row r="337">
       <c r="A337" s="2" t="inlineStr">
         <is>
-          <t>+5512996683720</t>
+          <t>+5511986157257</t>
         </is>
       </c>
       <c r="B337" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C337" s="2" t="inlineStr">
@@ -6185,12 +6185,12 @@
     <row r="338">
       <c r="A338" s="2" t="inlineStr">
         <is>
-          <t>+5514996744793</t>
+          <t>+5512996683720</t>
         </is>
       </c>
       <c r="B338" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C338" s="2" t="inlineStr">
@@ -6202,12 +6202,12 @@
     <row r="339">
       <c r="A339" s="2" t="inlineStr">
         <is>
-          <t>+555199788369</t>
+          <t>+5514996744793</t>
         </is>
       </c>
       <c r="B339" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C339" s="2" t="inlineStr">
@@ -6219,29 +6219,29 @@
     <row r="340">
       <c r="A340" s="2" t="inlineStr">
         <is>
-          <t>+553199854571</t>
+          <t>+555199788369</t>
         </is>
       </c>
       <c r="B340" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C340" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="inlineStr">
         <is>
-          <t>+5511932110481</t>
+          <t>+553199854571</t>
         </is>
       </c>
       <c r="B341" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C341" s="2" t="inlineStr">
@@ -6253,12 +6253,12 @@
     <row r="342">
       <c r="A342" s="2" t="inlineStr">
         <is>
-          <t>+556193189092</t>
+          <t>+5511932110481</t>
         </is>
       </c>
       <c r="B342" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C342" s="2" t="inlineStr">
@@ -6270,12 +6270,12 @@
     <row r="343">
       <c r="A343" s="2" t="inlineStr">
         <is>
-          <t>+5517992036626</t>
+          <t>+556193189092</t>
         </is>
       </c>
       <c r="B343" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C343" s="2" t="inlineStr">
@@ -6287,29 +6287,29 @@
     <row r="344">
       <c r="A344" s="2" t="inlineStr">
         <is>
-          <t>+553199616643</t>
+          <t>+5517992036626</t>
         </is>
       </c>
       <c r="B344" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C344" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="inlineStr">
         <is>
-          <t>+5521977008499</t>
+          <t>+553199616643</t>
         </is>
       </c>
       <c r="B345" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C345" s="2" t="inlineStr">
@@ -6321,7 +6321,7 @@
     <row r="346">
       <c r="A346" s="2" t="inlineStr">
         <is>
-          <t>+5521977084479</t>
+          <t>+5521977008499</t>
         </is>
       </c>
       <c r="B346" s="2" t="inlineStr">
@@ -6338,29 +6338,29 @@
     <row r="347">
       <c r="A347" s="2" t="inlineStr">
         <is>
-          <t>+553496442965</t>
+          <t>+5521977084479</t>
         </is>
       </c>
       <c r="B347" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C347" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-02</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="inlineStr">
         <is>
-          <t>+5518997151251</t>
+          <t>+553496442965</t>
         </is>
       </c>
       <c r="B348" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C348" s="2" t="inlineStr">
@@ -6372,12 +6372,12 @@
     <row r="349">
       <c r="A349" s="2" t="inlineStr">
         <is>
-          <t>+556198606157</t>
+          <t>+5518997151251</t>
         </is>
       </c>
       <c r="B349" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C349" s="2" t="inlineStr">
@@ -6389,12 +6389,12 @@
     <row r="350">
       <c r="A350" s="2" t="inlineStr">
         <is>
-          <t>+555195284929</t>
+          <t>+556198606157</t>
         </is>
       </c>
       <c r="B350" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C350" s="2" t="inlineStr">
@@ -6406,12 +6406,12 @@
     <row r="351">
       <c r="A351" s="2" t="inlineStr">
         <is>
-          <t>+5511987594244</t>
+          <t>+555195284929</t>
         </is>
       </c>
       <c r="B351" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C351" s="2" t="inlineStr">
@@ -6423,7 +6423,7 @@
     <row r="352">
       <c r="A352" s="2" t="inlineStr">
         <is>
-          <t>+5511959227230</t>
+          <t>+5511987594244</t>
         </is>
       </c>
       <c r="B352" s="2" t="inlineStr">
@@ -6433,36 +6433,36 @@
       </c>
       <c r="C352" s="2" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="inlineStr">
         <is>
-          <t>+555599102946</t>
+          <t>+5511959227230</t>
         </is>
       </c>
       <c r="B353" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C353" s="2" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="inlineStr">
         <is>
-          <t>+5511970726796</t>
+          <t>+555599102946</t>
         </is>
       </c>
       <c r="B354" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C354" s="2" t="inlineStr">
@@ -6474,32 +6474,49 @@
     <row r="355">
       <c r="A355" s="2" t="inlineStr">
         <is>
-          <t>+5519996017926</t>
+          <t>+5511970726796</t>
         </is>
       </c>
       <c r="B355" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C355" s="2" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-28</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="inlineStr">
         <is>
+          <t>+5519996017926</t>
+        </is>
+      </c>
+      <c r="B356" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C356" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="inlineStr">
+        <is>
           <t>+5511949288154</t>
         </is>
       </c>
-      <c r="B356" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C356" s="2" t="inlineStr">
+      <c r="B357" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C357" s="2" t="inlineStr">
         <is>
           <t>2024-08-26</t>
         </is>

--- a/gabi.xlsx
+++ b/gabi.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C357"/>
+  <dimension ref="A1:C365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,12 +477,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+555384426124</t>
+          <t>+553499652553</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -494,12 +494,12 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+553186089276</t>
+          <t>+5511948117520</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -511,12 +511,12 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+553198253411</t>
+          <t>+557187306754</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>71</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -528,12 +528,12 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+5522981174795</t>
+          <t>+5521980137916</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -545,12 +545,12 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5521966501459</t>
+          <t>+553185411113</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -562,12 +562,12 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5518991568866</t>
+          <t>+559981971020</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -579,12 +579,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5511983641384</t>
+          <t>+5524999376084</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -596,12 +596,12 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5519971058370</t>
+          <t>+5511930927923</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -613,7 +613,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5511963499586</t>
+          <t>+5511962253510</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -623,150 +623,150 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+553192222396</t>
+          <t>+555384426124</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5515974032589</t>
+          <t>+553186089276</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5511994806816</t>
+          <t>+553198253411</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5521968506908</t>
+          <t>+5522981174795</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+553491610816</t>
+          <t>+5521966501459</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+553488055259</t>
+          <t>+5518991568866</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5515981337872</t>
+          <t>+5511983641384</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+553384677059</t>
+          <t>+5519971058370</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+5511948871594</t>
+          <t>+5511963499586</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -783,12 +783,12 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5519996299319</t>
+          <t>+553192222396</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -800,12 +800,12 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5511988552097</t>
+          <t>+5515974032589</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5521976781800</t>
+          <t>+5521968506908</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -834,12 +834,12 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+553591021541</t>
+          <t>+553491610816</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -851,12 +851,12 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+5516993604875</t>
+          <t>+553488055259</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -868,160 +868,160 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+5521965496502</t>
+          <t>+5515981337872</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+555499386416</t>
+          <t>+553384677059</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+553187596479</t>
+          <t>+5511948871594</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+559191270637</t>
+          <t>+5519996299319</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5521992810743</t>
+          <t>+5511988552097</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+5519971619301</t>
+          <t>+5521976781800</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+5521971839379</t>
+          <t>+553591021541</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+5511972930265</t>
+          <t>+5516993604875</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+5511933453600</t>
+          <t>+5521965496502</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+555491016875</t>
+          <t>+555499386416</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1031,87 +1031,87 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+5521989149541</t>
+          <t>+553187596479</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+5511965520814</t>
+          <t>+559191270637</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+5511940372227</t>
+          <t>+5521992810743</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+5521979503998</t>
+          <t>+5519971619301</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+556292340085</t>
+          <t>+5521971839379</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -1123,7 +1123,7 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+5511975721557</t>
+          <t>+5511972930265</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -1140,12 +1140,12 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+556192470699</t>
+          <t>+5511933453600</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
@@ -1157,12 +1157,12 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+554891421017</t>
+          <t>+555491016875</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -1174,92 +1174,92 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+556798473306</t>
+          <t>+5521989149541</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+5521987823541</t>
+          <t>+5511965520814</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+5517981571512</t>
+          <t>+5511940372227</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+556184421881</t>
+          <t>+5521979503998</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+5511940728898</t>
+          <t>+556292340085</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+5511947768319</t>
+          <t>+5511975721557</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -1269,116 +1269,116 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+5522997621623</t>
+          <t>+556192470699</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+5521994075389</t>
+          <t>+554891421017</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+5511981892366</t>
+          <t>+556798473306</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+555192717667</t>
+          <t>+5521987823541</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+5522997104652</t>
+          <t>+5517981571512</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+5522992752597</t>
+          <t>+556184421881</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+5511999318706</t>
+          <t>+5511940728898</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -1388,48 +1388,48 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+5521992761358</t>
+          <t>+5511947768319</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+556198289593</t>
+          <t>+5522997621623</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+5521979898353</t>
+          <t>+5521994075389</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
@@ -1439,14 +1439,14 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+5511951735066</t>
+          <t>+5511981892366</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
@@ -1456,65 +1456,65 @@
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+5521968066779</t>
+          <t>+555192717667</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+5511940052132</t>
+          <t>+5522997104652</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+555584586767</t>
+          <t>+5522992752597</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+5511959504956</t>
+          <t>+5511999318706</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -1524,48 +1524,48 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+5519991884271</t>
+          <t>+5521992761358</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+5521999546007</t>
+          <t>+556198289593</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+5521971985918</t>
+          <t>+5521979898353</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -1575,14 +1575,14 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+5511982403910</t>
+          <t>+5511951735066</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -1592,31 +1592,31 @@
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+555194713402</t>
+          <t>+5521968066779</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+5511979869629</t>
+          <t>+5511940052132</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -1626,31 +1626,31 @@
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+553491497775</t>
+          <t>+555584586767</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+5511952202576</t>
+          <t>+5511959504956</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -1667,12 +1667,12 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+556496241313</t>
+          <t>+5519991884271</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+5521966659271</t>
+          <t>+5521999546007</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -1701,12 +1701,12 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+5511958383006</t>
+          <t>+5521971985918</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
@@ -1718,12 +1718,12 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+5512982473711</t>
+          <t>+5511982403910</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
@@ -1735,7 +1735,7 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+555193033662</t>
+          <t>+555194713402</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+5511932101366</t>
+          <t>+5511979869629</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -1762,78 +1762,82 @@
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+553298344288</t>
+          <t>+553491497775</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+5519999605608</t>
+          <t>+5511952202576</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+56996163824</t>
-        </is>
-      </c>
-      <c r="B80" s="2" t="inlineStr"/>
+          <t>+556496241313</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+5511986610154</t>
+          <t>+5521966659271</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+5511981755261</t>
+          <t>+5511958383006</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
@@ -1843,116 +1847,112 @@
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+5511970224460</t>
+          <t>+5512982473711</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+553183201160</t>
+          <t>+555193033662</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+5519997544249</t>
+          <t>+5511932101366</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+555384745327</t>
+          <t>+553298344288</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+5514996501813</t>
+          <t>+5519999605608</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+5511972435655</t>
-        </is>
-      </c>
-      <c r="B88" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>+56996163824</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr"/>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+5511946397297</t>
+          <t>+5511986610154</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -1962,70 +1962,70 @@
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+553397075362</t>
+          <t>+5511981755261</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+5513991020783</t>
+          <t>+5511970224460</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+5521969440520</t>
+          <t>+553183201160</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+553193672938</t>
+          <t>+5519997544249</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
@@ -2037,12 +2037,12 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+5522981479241</t>
+          <t>+555384745327</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
@@ -2054,12 +2054,12 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+5521979251504</t>
+          <t>+5514996501813</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
@@ -2071,12 +2071,12 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+556198475033</t>
+          <t>+5511972435655</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
@@ -2088,12 +2088,12 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+5516992236142</t>
+          <t>+5511946397297</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
@@ -2105,12 +2105,12 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+5511948893274</t>
+          <t>+553397075362</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+5521968278744</t>
+          <t>+5513991020783</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
@@ -2139,12 +2139,12 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+555196384525</t>
+          <t>+5521969440520</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
@@ -2156,41 +2156,41 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+5511972915535</t>
+          <t>+553193672938</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+553180135415</t>
+          <t>+5522981479241</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+5521992200288</t>
+          <t>+5521979251504</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
@@ -2200,14 +2200,14 @@
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+556196779704</t>
+          <t>+556198475033</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -2217,121 +2217,121 @@
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+5511915810965</t>
+          <t>+5516992236142</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+5524999461825</t>
+          <t>+5511948893274</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+556196698353</t>
+          <t>+5521968278744</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+5513996671783</t>
+          <t>+555196384525</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+5518996829002</t>
+          <t>+5511972915535</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+5511991871576</t>
+          <t>+553180135415</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+5514981509955</t>
+          <t>+5521992200288</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
@@ -2343,12 +2343,12 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+555184777056</t>
+          <t>+556196779704</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
@@ -2360,12 +2360,12 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+5513991081873</t>
+          <t>+5511915810965</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
@@ -2377,12 +2377,12 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+555197040253</t>
+          <t>+5524999461825</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
@@ -2394,148 +2394,148 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+5511977945054</t>
+          <t>+556196698353</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+553496724472</t>
+          <t>+5513996671783</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+553186960521</t>
+          <t>+5518996829002</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+5516988023377</t>
+          <t>+5511991871576</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+553492249633</t>
+          <t>+5514981509955</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+5511996339968</t>
+          <t>+555184777056</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+553899926253</t>
+          <t>+5513991081873</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+555596010082</t>
+          <t>+555197040253</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+5521984364734</t>
+          <t>+5511977945054</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
@@ -2547,12 +2547,12 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+5511964334834</t>
+          <t>+553496724472</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
@@ -2564,7 +2564,7 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+553196748836</t>
+          <t>+553186960521</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
@@ -2581,12 +2581,12 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+556196182173</t>
+          <t>+5516988023377</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
@@ -2598,12 +2598,12 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+5515988279142</t>
+          <t>+553492249633</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
@@ -2615,12 +2615,12 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+551974071078</t>
+          <t>+5511996339968</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
@@ -2632,12 +2632,12 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+5511943458186</t>
+          <t>+553899926253</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
@@ -2649,12 +2649,12 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+553175675075</t>
+          <t>+555596010082</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
@@ -2666,12 +2666,12 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+558186914048</t>
+          <t>+5521984364734</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
@@ -2683,12 +2683,12 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+5514997419977</t>
+          <t>+5511964334834</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
@@ -2700,12 +2700,12 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+5511964838163</t>
+          <t>+553196748836</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
@@ -2717,58 +2717,58 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+555191485515</t>
+          <t>+556196182173</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+5521989929657</t>
+          <t>+5515988279142</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+5511986633336</t>
+          <t>+551974071078</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+5511963264394</t>
+          <t>+5511943458186</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
@@ -2778,65 +2778,65 @@
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+555399629079</t>
+          <t>+553175675075</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+555194536598</t>
+          <t>+558186914048</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+5516991290210</t>
+          <t>+5514997419977</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+5511985014090</t>
+          <t>+5511964838163</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
@@ -2846,19 +2846,19 @@
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+5511971885642</t>
+          <t>+555191485515</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
@@ -2870,12 +2870,12 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+556192235590</t>
+          <t>+5521989929657</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
@@ -2887,12 +2887,12 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+553197910058</t>
+          <t>+5511986633336</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
@@ -2904,7 +2904,7 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+5511945037623</t>
+          <t>+5511963264394</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
@@ -2921,12 +2921,12 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+558586569439</t>
+          <t>+555399629079</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
@@ -2938,12 +2938,12 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+5511971176538</t>
+          <t>+555194536598</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
@@ -2955,12 +2955,12 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+5511934629890</t>
+          <t>+5516991290210</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
@@ -2972,24 +2972,24 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+5521971413810</t>
+          <t>+5511985014090</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+5511986546912</t>
+          <t>+5511971885642</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
@@ -2999,31 +2999,31 @@
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+553171606494</t>
+          <t>+556192235590</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+553171858800</t>
+          <t>+553197910058</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
@@ -3033,87 +3033,87 @@
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+5513996171453</t>
+          <t>+5511945037623</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+556191917174</t>
+          <t>+558586569439</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+555181699628</t>
+          <t>+5511971176538</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+558994526750</t>
+          <t>+5511934629890</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+5522999490720</t>
+          <t>+5521971413810</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
@@ -3125,12 +3125,12 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+5515996341306</t>
+          <t>+5511986546912</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
@@ -3142,12 +3142,12 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+555492618052</t>
+          <t>+553171606494</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
@@ -3159,12 +3159,12 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+5512991532012</t>
+          <t>+553171858800</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
@@ -3176,12 +3176,12 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+556293410347</t>
+          <t>+5513996171453</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
@@ -3193,24 +3193,24 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+553171722790</t>
+          <t>+556191917174</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+555186041958</t>
+          <t>+555181699628</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
@@ -3220,354 +3220,354 @@
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+5522999557124</t>
+          <t>+558994526750</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+5511956194781</t>
+          <t>+5522999490720</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+5511949693265</t>
+          <t>+5515996341306</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+553399550487</t>
+          <t>+555492618052</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+555193334094</t>
+          <t>+5512991532012</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+553191181765</t>
+          <t>+556293410347</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+553492868099</t>
+          <t>+553171722790</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+556198163313</t>
+          <t>+555186041958</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+556286223947</t>
+          <t>+5522999557124</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+5522992578488</t>
+          <t>+5511956194781</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+5519981594572</t>
+          <t>+5511949693265</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+556196054585</t>
+          <t>+553399550487</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+5511987670856</t>
+          <t>+555193334094</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+556296704284</t>
+          <t>+553191181765</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+5511993877662</t>
+          <t>+553492868099</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+5511959898968</t>
+          <t>+556198163313</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+5519999136362</t>
+          <t>+556286223947</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+5519993254501</t>
+          <t>+5522992578488</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+556384939482</t>
+          <t>+5519981594572</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+553187320810</t>
+          <t>+556196054585</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+5511987670856</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
@@ -3577,150 +3577,150 @@
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+5511930092193</t>
+          <t>+556296704284</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+5521977601201</t>
+          <t>+5511993877662</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+553897450448</t>
+          <t>+5511959898968</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+553899341338</t>
+          <t>+5519999136362</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+5521965730495</t>
+          <t>+5519993254501</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+5512996345540</t>
+          <t>+556384939482</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+553284127574</t>
+          <t>+553187320810</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+553384499379</t>
+          <t>+5511966134418</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+5511945704788</t>
+          <t>+5511930092193</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
@@ -3730,303 +3730,303 @@
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+5522999416651</t>
+          <t>+5521977601201</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+553496487520</t>
+          <t>+553897450448</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+5511953903531</t>
+          <t>+553899341338</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+5511963380338</t>
+          <t>+5521965730495</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+556181106946</t>
+          <t>+5512996345540</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+5521966430435</t>
+          <t>+553284127574</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+5517981343490</t>
+          <t>+553384499379</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+5517992750891</t>
+          <t>+5511945704788</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>+556194435831</t>
+          <t>+5522999416651</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>+556192815706</t>
+          <t>+553496487520</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>+555194681350</t>
+          <t>+5511953903531</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>+5521990024205</t>
+          <t>+5511963380338</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>+5516993340146</t>
+          <t>+556181106946</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>+5511969710184</t>
+          <t>+5521966430435</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>+555184228607</t>
+          <t>+5517981343490</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+5517992750891</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>+5516991501083</t>
+          <t>+556194435831</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+556192815706</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
@@ -4036,87 +4036,87 @@
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>+5519974133120</t>
+          <t>+555194681350</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>+5511971165356</t>
+          <t>+5521990024205</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>+5528999143242</t>
+          <t>+5516993340146</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>+5521992992344</t>
+          <t>+5511969710184</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>+553199111438</t>
+          <t>+555184228607</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
@@ -4128,41 +4128,41 @@
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>+5511991868062</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>+5521965163770</t>
+          <t>+5516991501083</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>+556191281418</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
@@ -4172,99 +4172,99 @@
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>+5511970484790</t>
+          <t>+5519974133120</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>+553888359308</t>
+          <t>+5511971165356</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>+5519999395027</t>
+          <t>+5528999143242</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>+553187556222</t>
+          <t>+5521992992344</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>+556181344711</t>
+          <t>+553199111438</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>+5511937138186</t>
+          <t>+5511991868062</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
@@ -4281,12 +4281,12 @@
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>+553175235564</t>
+          <t>+5521965163770</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
@@ -4298,12 +4298,12 @@
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>+5521970987542</t>
+          <t>+556191281418</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
@@ -4315,12 +4315,12 @@
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>+553398575480</t>
+          <t>+5511970484790</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
@@ -4332,148 +4332,148 @@
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>+553193590683</t>
+          <t>+553888359308</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C229" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>+5522997230806</t>
+          <t>+5519999395027</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>+5511985698796</t>
+          <t>+553187556222</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>+5521965096539</t>
+          <t>+556181344711</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>+5521986678801</t>
+          <t>+5511937138186</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>+555197496105</t>
+          <t>+553175235564</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>+5511947650170</t>
+          <t>+5521970987542</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>+553191829450</t>
+          <t>+553398575480</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>+5511976440031</t>
+          <t>+553193590683</t>
         </is>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C237" s="2" t="inlineStr">
@@ -4485,12 +4485,12 @@
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>+556293286544</t>
+          <t>+5522997230806</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
@@ -4502,12 +4502,12 @@
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>+556194662595</t>
+          <t>+5511985698796</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr">
@@ -4519,12 +4519,12 @@
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>+555181664215</t>
+          <t>+5521965096539</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr">
@@ -4536,7 +4536,7 @@
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>+5521978927776</t>
+          <t>+5521986678801</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
@@ -4553,58 +4553,58 @@
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>+553499089476</t>
+          <t>+555197496105</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>+5524999964686</t>
+          <t>+5511947650170</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>+5514997100570</t>
+          <t>+553191829450</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>+5511956996383</t>
+          <t>+5511976440031</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
@@ -4614,65 +4614,65 @@
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>+5524999215405</t>
+          <t>+556293286544</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>+5513974102524</t>
+          <t>+556194662595</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>+5511985663846</t>
+          <t>+555181664215</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>+5521997117322</t>
+          <t>+5521978927776</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
@@ -4682,65 +4682,65 @@
       </c>
       <c r="C249" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>+5519997204476</t>
+          <t>+553499089476</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>+556296767169</t>
+          <t>+5524999964686</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>+555199100909</t>
+          <t>+5514997100570</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>+5511960197823</t>
+          <t>+5511956996383</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
@@ -4750,116 +4750,116 @@
       </c>
       <c r="C253" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>+5516993905706</t>
+          <t>+5524999215405</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>+555491229014</t>
+          <t>+5513974102524</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>+553183316751</t>
+          <t>+5511985663846</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>+5511960297061</t>
+          <t>+5521997117322</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>+5511967618163</t>
+          <t>+5519997204476</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>+5511953782520</t>
+          <t>+556296767169</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>+555194565879</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
@@ -4869,53 +4869,53 @@
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>+5519987116584</t>
+          <t>+5511960197823</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>+5511963669553</t>
+          <t>+5516993905706</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>+5511967026448</t>
+          <t>+555491229014</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
@@ -4927,12 +4927,12 @@
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>+5511970838412</t>
+          <t>+553183316751</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
@@ -4944,12 +4944,12 @@
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>+5519994161076</t>
+          <t>+5511960297061</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
@@ -4961,12 +4961,12 @@
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>+5512974073721</t>
+          <t>+5511967618163</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
@@ -4978,12 +4978,12 @@
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>+553899272884</t>
+          <t>+5511953782520</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
@@ -4995,148 +4995,148 @@
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>+5513974277521</t>
+          <t>+555194565879</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>+5511959480908</t>
+          <t>+5519987116584</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>+553173039716</t>
+          <t>+5511963669553</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>+5519983138652</t>
+          <t>+5511967026448</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>+5516981621753</t>
+          <t>+5511970838412</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>+5513996269435</t>
+          <t>+5519994161076</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>+5511946858778</t>
+          <t>+5512974073721</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>+553498008945</t>
+          <t>+553899272884</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>+555198093042</t>
+          <t>+5513974277521</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
@@ -5148,12 +5148,12 @@
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>+5519992746058</t>
+          <t>+5511959480908</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C277" s="2" t="inlineStr">
@@ -5165,12 +5165,12 @@
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>+5511959327333</t>
+          <t>+553173039716</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C278" s="2" t="inlineStr">
@@ -5182,7 +5182,7 @@
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>+5519991342511</t>
+          <t>+5519983138652</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
@@ -5199,12 +5199,12 @@
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>+5511910662570</t>
+          <t>+5516981621753</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
@@ -5216,12 +5216,12 @@
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>+5511979754910</t>
+          <t>+5513996269435</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
@@ -5233,12 +5233,12 @@
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>+5519984563784</t>
+          <t>+5511946858778</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C282" s="2" t="inlineStr">
@@ -5250,12 +5250,12 @@
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>+5524978358315</t>
+          <t>+553498008945</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
@@ -5267,12 +5267,12 @@
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>+5521964816197</t>
+          <t>+555198093042</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C284" s="2" t="inlineStr">
@@ -5284,12 +5284,12 @@
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>+554497202222</t>
+          <t>+5519992746058</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C285" s="2" t="inlineStr">
@@ -5301,12 +5301,12 @@
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>+553187980853</t>
+          <t>+5511959327333</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
@@ -5318,12 +5318,12 @@
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>+555191226749</t>
+          <t>+5519991342511</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
@@ -5335,7 +5335,7 @@
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>+5511982048012</t>
+          <t>+5511910662570</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
@@ -5352,7 +5352,7 @@
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>+5511960946166</t>
+          <t>+5511979754910</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
@@ -5369,7 +5369,7 @@
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>+5519991426273</t>
+          <t>+5519984563784</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
@@ -5386,12 +5386,12 @@
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>+5519981472020</t>
+          <t>+5524978358315</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
@@ -5403,7 +5403,7 @@
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>+5521978835599</t>
+          <t>+5521964816197</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
@@ -5420,148 +5420,148 @@
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>+555180176562</t>
+          <t>+554497202222</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C293" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>+5511942185569</t>
+          <t>+553187980853</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C294" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>+5511947261969</t>
+          <t>+555191226749</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>+5519992124887</t>
+          <t>+5511982048012</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>+553195359312</t>
+          <t>+5511960946166</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C297" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>+5511962993512</t>
+          <t>+5519991426273</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>+5511993564173</t>
+          <t>+5519981472020</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>+553391919105</t>
+          <t>+5521978835599</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>+5511985800906</t>
+          <t>+555180176562</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr">
@@ -5573,7 +5573,7 @@
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>+5511959248300</t>
+          <t>+5511942185569</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
@@ -5583,48 +5583,48 @@
       </c>
       <c r="C302" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>+5519994486599</t>
+          <t>+5511947261969</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C303" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>+5511987774053</t>
+          <t>+5519992124887</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C304" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>+553184640938</t>
+          <t>+553195359312</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
@@ -5634,82 +5634,82 @@
       </c>
       <c r="C305" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>+5521990575799</t>
+          <t>+5511962993512</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>+555191899807</t>
+          <t>+5511993564173</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C307" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>+556194027204</t>
+          <t>+553391919105</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>+5516999494445</t>
+          <t>+5511985800906</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C309" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>+5511952489850</t>
+          <t>+5511959248300</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
@@ -5726,12 +5726,12 @@
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>+5521981400589</t>
+          <t>+5519994486599</t>
         </is>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr">
@@ -5743,7 +5743,7 @@
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>+5511957982446</t>
+          <t>+5511987774053</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
@@ -5760,12 +5760,12 @@
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>+5511948883579</t>
+          <t>+553184640938</t>
         </is>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr">
@@ -5777,12 +5777,12 @@
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>+556284316928</t>
+          <t>+5521990575799</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C314" s="2" t="inlineStr">
@@ -5794,12 +5794,12 @@
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>+5511983534806</t>
+          <t>+555191899807</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr">
@@ -5811,12 +5811,12 @@
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>+5511974919907</t>
+          <t>+556194027204</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr">
@@ -5828,12 +5828,12 @@
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>+553298585881</t>
+          <t>+5516999494445</t>
         </is>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C317" s="2" t="inlineStr">
@@ -5845,7 +5845,7 @@
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>+5511996693536</t>
+          <t>+5511952489850</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
@@ -5862,75 +5862,75 @@
     <row r="319">
       <c r="A319" s="2" t="inlineStr">
         <is>
-          <t>+553196634240</t>
+          <t>+5521981400589</t>
         </is>
       </c>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C319" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="inlineStr">
         <is>
-          <t>+555186391577</t>
+          <t>+5511957982446</t>
         </is>
       </c>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C320" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="inlineStr">
         <is>
-          <t>+555194687691</t>
+          <t>+5511948883579</t>
         </is>
       </c>
       <c r="B321" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C321" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t>+5511913167865</t>
+          <t>+556284316928</t>
         </is>
       </c>
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C322" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="inlineStr">
         <is>
-          <t>+5511978691664</t>
+          <t>+5511983534806</t>
         </is>
       </c>
       <c r="B323" s="2" t="inlineStr">
@@ -5940,48 +5940,48 @@
       </c>
       <c r="C323" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="inlineStr">
         <is>
-          <t>+553497201121</t>
+          <t>+5511974919907</t>
         </is>
       </c>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C324" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="inlineStr">
         <is>
-          <t>+558881220317</t>
+          <t>+553298585881</t>
         </is>
       </c>
       <c r="B325" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C325" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="inlineStr">
         <is>
-          <t>+5511952172793</t>
+          <t>+5511996693536</t>
         </is>
       </c>
       <c r="B326" s="2" t="inlineStr">
@@ -5991,82 +5991,82 @@
       </c>
       <c r="C326" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="inlineStr">
         <is>
-          <t>+5513997769440</t>
+          <t>+553196634240</t>
         </is>
       </c>
       <c r="B327" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C327" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="inlineStr">
         <is>
-          <t>+5511989993229</t>
+          <t>+555186391577</t>
         </is>
       </c>
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C328" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="inlineStr">
         <is>
-          <t>+5511994902251</t>
+          <t>+555194687691</t>
         </is>
       </c>
       <c r="B329" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C329" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="inlineStr">
         <is>
-          <t>+5519993039822</t>
+          <t>+5511913167865</t>
         </is>
       </c>
       <c r="B330" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C330" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="inlineStr">
         <is>
-          <t>+5511990067914</t>
+          <t>+5511978691664</t>
         </is>
       </c>
       <c r="B331" s="2" t="inlineStr">
@@ -6076,36 +6076,36 @@
       </c>
       <c r="C331" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="inlineStr">
         <is>
-          <t>+5521966715011</t>
+          <t>+553497201121</t>
         </is>
       </c>
       <c r="B332" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C332" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="inlineStr">
         <is>
-          <t>+5521965551832</t>
+          <t>+558881220317</t>
         </is>
       </c>
       <c r="B333" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C333" s="2" t="inlineStr">
@@ -6117,12 +6117,12 @@
     <row r="334">
       <c r="A334" s="2" t="inlineStr">
         <is>
-          <t>+555496011266</t>
+          <t>+5511952172793</t>
         </is>
       </c>
       <c r="B334" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C334" s="2" t="inlineStr">
@@ -6134,12 +6134,12 @@
     <row r="335">
       <c r="A335" s="2" t="inlineStr">
         <is>
-          <t>+5521965910269</t>
+          <t>+5513997769440</t>
         </is>
       </c>
       <c r="B335" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C335" s="2" t="inlineStr">
@@ -6151,24 +6151,24 @@
     <row r="336">
       <c r="A336" s="2" t="inlineStr">
         <is>
-          <t>+5521981376833</t>
+          <t>+5511989993229</t>
         </is>
       </c>
       <c r="B336" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C336" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="inlineStr">
         <is>
-          <t>+5511986157257</t>
+          <t>+5511994902251</t>
         </is>
       </c>
       <c r="B337" s="2" t="inlineStr">
@@ -6178,345 +6178,481 @@
       </c>
       <c r="C337" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="inlineStr">
         <is>
-          <t>+5512996683720</t>
+          <t>+5519993039822</t>
         </is>
       </c>
       <c r="B338" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C338" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="inlineStr">
         <is>
-          <t>+5514996744793</t>
+          <t>+5511990067914</t>
         </is>
       </c>
       <c r="B339" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C339" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="inlineStr">
         <is>
-          <t>+555199788369</t>
+          <t>+5521966715011</t>
         </is>
       </c>
       <c r="B340" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C340" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="inlineStr">
         <is>
-          <t>+553199854571</t>
+          <t>+5521965551832</t>
         </is>
       </c>
       <c r="B341" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C341" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="inlineStr">
         <is>
-          <t>+5511932110481</t>
+          <t>+555496011266</t>
         </is>
       </c>
       <c r="B342" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C342" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="inlineStr">
         <is>
-          <t>+556193189092</t>
+          <t>+5521965910269</t>
         </is>
       </c>
       <c r="B343" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C343" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="inlineStr">
         <is>
-          <t>+5517992036626</t>
+          <t>+5521981376833</t>
         </is>
       </c>
       <c r="B344" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C344" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="inlineStr">
         <is>
-          <t>+553199616643</t>
+          <t>+5511986157257</t>
         </is>
       </c>
       <c r="B345" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C345" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="inlineStr">
         <is>
-          <t>+5521977008499</t>
+          <t>+5512996683720</t>
         </is>
       </c>
       <c r="B346" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C346" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="inlineStr">
         <is>
-          <t>+5521977084479</t>
+          <t>+5514996744793</t>
         </is>
       </c>
       <c r="B347" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C347" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="inlineStr">
         <is>
-          <t>+553496442965</t>
+          <t>+555199788369</t>
         </is>
       </c>
       <c r="B348" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C348" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="inlineStr">
         <is>
-          <t>+5518997151251</t>
+          <t>+553199854571</t>
         </is>
       </c>
       <c r="B349" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C349" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="inlineStr">
         <is>
-          <t>+556198606157</t>
+          <t>+5511932110481</t>
         </is>
       </c>
       <c r="B350" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C350" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="inlineStr">
         <is>
-          <t>+555195284929</t>
+          <t>+556193189092</t>
         </is>
       </c>
       <c r="B351" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C351" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="inlineStr">
         <is>
-          <t>+5511987594244</t>
+          <t>+5517992036626</t>
         </is>
       </c>
       <c r="B352" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C352" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="inlineStr">
         <is>
-          <t>+5511959227230</t>
+          <t>+553199616643</t>
         </is>
       </c>
       <c r="B353" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C353" s="2" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-09-02</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="inlineStr">
         <is>
-          <t>+555599102946</t>
+          <t>+5521977008499</t>
         </is>
       </c>
       <c r="B354" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C354" s="2" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-02</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="inlineStr">
         <is>
-          <t>+5511970726796</t>
+          <t>+5521977084479</t>
         </is>
       </c>
       <c r="B355" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C355" s="2" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-02</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="inlineStr">
         <is>
-          <t>+5519996017926</t>
+          <t>+553496442965</t>
         </is>
       </c>
       <c r="B356" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C356" s="2" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="inlineStr">
         <is>
+          <t>+5518997151251</t>
+        </is>
+      </c>
+      <c r="B357" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C357" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="inlineStr">
+        <is>
+          <t>+556198606157</t>
+        </is>
+      </c>
+      <c r="B358" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C358" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="inlineStr">
+        <is>
+          <t>+555195284929</t>
+        </is>
+      </c>
+      <c r="B359" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C359" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="inlineStr">
+        <is>
+          <t>+5511987594244</t>
+        </is>
+      </c>
+      <c r="B360" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C360" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="inlineStr">
+        <is>
+          <t>+5511959227230</t>
+        </is>
+      </c>
+      <c r="B361" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C361" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="inlineStr">
+        <is>
+          <t>+555599102946</t>
+        </is>
+      </c>
+      <c r="B362" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C362" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="inlineStr">
+        <is>
+          <t>+5511970726796</t>
+        </is>
+      </c>
+      <c r="B363" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C363" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="inlineStr">
+        <is>
+          <t>+5519996017926</t>
+        </is>
+      </c>
+      <c r="B364" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C364" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="inlineStr">
+        <is>
           <t>+5511949288154</t>
         </is>
       </c>
-      <c r="B357" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C357" s="2" t="inlineStr">
+      <c r="B365" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C365" s="2" t="inlineStr">
         <is>
           <t>2024-08-26</t>
         </is>

--- a/gabi.xlsx
+++ b/gabi.xlsx
@@ -477,75 +477,75 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+553499652553</t>
+          <t>+553183244902</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5511948117520</t>
+          <t>+553198943550</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+557187306754</t>
+          <t>+5521974870034</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+5521980137916</t>
+          <t>+553798453948</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+553185411113</t>
+          <t>+553198679282</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -555,104 +555,104 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+559981971020</t>
+          <t>+5514996538302</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5524999376084</t>
+          <t>+5511939276730</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5511930927923</t>
+          <t>+5514981378883</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5511962253510</t>
+          <t>+555597001361</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+555384426124</t>
+          <t>+5522981073430</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+553186089276</t>
+          <t>+554192693346</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -664,12 +664,12 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+553198253411</t>
+          <t>+5511948117520</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -681,12 +681,12 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5522981174795</t>
+          <t>+5521980137916</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5521966501459</t>
+          <t>+553185411113</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5518991568866</t>
+          <t>+559981971020</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -732,12 +732,12 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5511983641384</t>
+          <t>+5524999376084</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+5519971058370</t>
+          <t>+5511962253510</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -766,24 +766,24 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+5511963499586</t>
+          <t>+555384426124</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+553192222396</t>
+          <t>+553186089276</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -793,31 +793,31 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5515974032589</t>
+          <t>+553198253411</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5521968506908</t>
+          <t>+5521966501459</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -827,36 +827,36 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+553491610816</t>
+          <t>+5519971058370</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+553488055259</t>
+          <t>+5515974032589</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+5515981337872</t>
+          <t>+5521968506908</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -885,12 +885,12 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+553384677059</t>
+          <t>+553491610816</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+5511948871594</t>
+          <t>+553488055259</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -919,12 +919,12 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+5519996299319</t>
+          <t>+553384677059</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5511988552097</t>
+          <t>+5519996299319</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -953,12 +953,12 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+5521976781800</t>
+          <t>+5511988552097</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -970,12 +970,12 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+553591021541</t>
+          <t>+5521976781800</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -987,12 +987,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+5516993604875</t>
+          <t>+553591021541</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -1004,29 +1004,29 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+5521965496502</t>
+          <t>+5516993604875</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+555499386416</t>
+          <t>+5521965496502</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">

--- a/gabi.xlsx
+++ b/gabi.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C365"/>
+  <dimension ref="A1:C347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,335 +477,335 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+553183244902</t>
+          <t>+557598672769</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+553198943550</t>
+          <t>+556186516353</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5521974870034</t>
+          <t>+553186055296</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+553798453948</t>
+          <t>+556296693495</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+553198679282</t>
+          <t>+553897420620</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5514996538302</t>
+          <t>+5521979071909</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5511939276730</t>
+          <t>+553898066752</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5514981378883</t>
+          <t>+556196229391</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+555597001361</t>
+          <t>+555481664496</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5522981073430</t>
+          <t>+553498832518</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+554192693346</t>
+          <t>+5511965003707</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5511948117520</t>
+          <t>+553498757145</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5521980137916</t>
+          <t>+5511972238951</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+553185411113</t>
+          <t>+5513997184863</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+559981971020</t>
+          <t>+5511963924242</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5524999376084</t>
+          <t>+553183244902</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+5511962253510</t>
+          <t>+5521974870034</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+555384426124</t>
+          <t>+5514996538302</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+553186089276</t>
+          <t>+5514981378883</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+553198253411</t>
+          <t>+5521980137916</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5521966501459</t>
+          <t>+559981971020</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -834,12 +834,12 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+5519971058370</t>
+          <t>+5524999376084</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -851,80 +851,80 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+5515974032589</t>
+          <t>+5511962253510</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+5521968506908</t>
+          <t>+555384426124</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+553491610816</t>
+          <t>+553186089276</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+553488055259</t>
+          <t>+5521966501459</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+553384677059</t>
+          <t>+5515974032589</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5519996299319</t>
+          <t>+553488055259</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -953,12 +953,12 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+5511988552097</t>
+          <t>+553384677059</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -970,12 +970,12 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+5521976781800</t>
+          <t>+5519996299319</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -987,12 +987,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+553591021541</t>
+          <t>+5511988552097</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+5516993604875</t>
+          <t>+5521976781800</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -1021,46 +1021,46 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+5521965496502</t>
+          <t>+553591021541</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+553187596479</t>
+          <t>+5516993604875</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+559191270637</t>
+          <t>+5521965496502</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -1072,63 +1072,63 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+5521992810743</t>
+          <t>+5511992200087</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+5519971619301</t>
+          <t>+559191270637</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+5521971839379</t>
+          <t>+5519971619301</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+5511972930265</t>
+          <t>+5521971839379</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -1140,7 +1140,7 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+5511933453600</t>
+          <t>+5511972930265</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -1157,12 +1157,12 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+555491016875</t>
+          <t>+5511933453600</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -1174,12 +1174,12 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+5521989149541</t>
+          <t>+555491016875</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -1191,12 +1191,12 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+5511965520814</t>
+          <t>+5521989149541</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -1208,7 +1208,7 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+5511940372227</t>
+          <t>+5511965520814</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -1225,12 +1225,12 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+5521979503998</t>
+          <t>+5511940372227</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -1242,12 +1242,12 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+556292340085</t>
+          <t>+5521979503998</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -1259,12 +1259,12 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+5511975721557</t>
+          <t>+556292340085</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -1276,12 +1276,12 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+556192470699</t>
+          <t>+5511975721557</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -1293,12 +1293,12 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+554891421017</t>
+          <t>+556192470699</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -1310,29 +1310,29 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+556798473306</t>
+          <t>+554891421017</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+5521987823541</t>
+          <t>+556798473306</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
@@ -1344,12 +1344,12 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+5517981571512</t>
+          <t>+5521987823541</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+556184421881</t>
+          <t>+5517981571512</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -1378,24 +1378,24 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+5511940728898</t>
+          <t>+556184421881</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+5511947768319</t>
+          <t>+5511940728898</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -1412,12 +1412,12 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+5522997621623</t>
+          <t>+5511947768319</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -1429,12 +1429,12 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+5521994075389</t>
+          <t>+5522997621623</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -1446,29 +1446,29 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+5511981892366</t>
+          <t>+5521994075389</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+555192717667</t>
+          <t>+5511981892366</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
@@ -1480,12 +1480,12 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+5522997104652</t>
+          <t>+555192717667</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+5522992752597</t>
+          <t>+5522997104652</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -1507,36 +1507,36 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+5511999318706</t>
+          <t>+5522992752597</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+5521992761358</t>
+          <t>+5511999318706</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
@@ -1548,29 +1548,29 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+556198289593</t>
+          <t>+5521992761358</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+5521979898353</t>
+          <t>+556198289593</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
@@ -1582,12 +1582,12 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+5511951735066</t>
+          <t>+5521979898353</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -1599,12 +1599,12 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+5521968066779</t>
+          <t>+5511951735066</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -1616,12 +1616,12 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+5511940052132</t>
+          <t>+5521968066779</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -1633,12 +1633,12 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+555584586767</t>
+          <t>+5511940052132</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -1650,17 +1650,17 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+5511959504956</t>
+          <t>+555584586767</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
@@ -2020,12 +2020,12 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+5519997544249</t>
+          <t>+555384745327</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
@@ -2037,12 +2037,12 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+555384745327</t>
+          <t>+5514996501813</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
@@ -2054,12 +2054,12 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+5514996501813</t>
+          <t>+5511972435655</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
@@ -2071,7 +2071,7 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+5511972435655</t>
+          <t>+5511946397297</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -2088,12 +2088,12 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+5511946397297</t>
+          <t>+553397075362</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
@@ -2105,12 +2105,12 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+553397075362</t>
+          <t>+5513991020783</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+5513991020783</t>
+          <t>+5521969440520</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
@@ -2139,12 +2139,12 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+5521969440520</t>
+          <t>+553193672938</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
@@ -2156,12 +2156,12 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+553193672938</t>
+          <t>+5522981479241</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
@@ -2173,12 +2173,12 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+5522981479241</t>
+          <t>+5521979251504</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
@@ -2190,12 +2190,12 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+5521979251504</t>
+          <t>+556198475033</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
@@ -2207,12 +2207,12 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+556198475033</t>
+          <t>+5516992236142</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
@@ -2224,12 +2224,12 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+5516992236142</t>
+          <t>+5511948893274</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
@@ -2241,12 +2241,12 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+5511948893274</t>
+          <t>+5521968278744</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
@@ -2258,12 +2258,12 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+5521968278744</t>
+          <t>+555196384525</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
@@ -2275,29 +2275,29 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+555196384525</t>
+          <t>+5511972915535</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+5511972915535</t>
+          <t>+553180135415</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
@@ -2309,29 +2309,29 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+553180135415</t>
+          <t>+5521992200288</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+5521992200288</t>
+          <t>+556196779704</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
@@ -2343,12 +2343,12 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+556196779704</t>
+          <t>+5511915810965</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
@@ -2360,12 +2360,12 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+5511915810965</t>
+          <t>+5524999461825</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
@@ -2377,12 +2377,12 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+5524999461825</t>
+          <t>+556196698353</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
@@ -2394,12 +2394,12 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+556196698353</t>
+          <t>+5513996671783</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
@@ -2411,12 +2411,12 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+5513996671783</t>
+          <t>+5511991871576</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
@@ -2428,12 +2428,12 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+5518996829002</t>
+          <t>+5514981509955</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
@@ -2445,12 +2445,12 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+5511991871576</t>
+          <t>+555184777056</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
@@ -2462,12 +2462,12 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+5514981509955</t>
+          <t>+5513991081873</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
@@ -2479,7 +2479,7 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+555184777056</t>
+          <t>+555197040253</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
@@ -2496,46 +2496,46 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+5513991081873</t>
+          <t>+5511977945054</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+555197040253</t>
+          <t>+553496724472</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+5511977945054</t>
+          <t>+553186960521</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
@@ -2547,12 +2547,12 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+553496724472</t>
+          <t>+5516988023377</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
@@ -2564,12 +2564,12 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+553186960521</t>
+          <t>+553492249633</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
@@ -2581,12 +2581,12 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+5516988023377</t>
+          <t>+5511996339968</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
@@ -2598,12 +2598,12 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+553492249633</t>
+          <t>+553899926253</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
@@ -2615,12 +2615,12 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+5511996339968</t>
+          <t>+555596010082</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
@@ -2632,12 +2632,12 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+553899926253</t>
+          <t>+5521984364734</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
@@ -2649,12 +2649,12 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+555596010082</t>
+          <t>+553196748836</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
@@ -2666,12 +2666,12 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+5521984364734</t>
+          <t>+556196182173</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
@@ -2683,12 +2683,12 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+5511964334834</t>
+          <t>+5515988279142</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
@@ -2700,12 +2700,12 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+553196748836</t>
+          <t>+551974071078</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
@@ -2717,12 +2717,12 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+556196182173</t>
+          <t>+5511943458186</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
@@ -2734,12 +2734,12 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+5515988279142</t>
+          <t>+553175675075</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
@@ -2751,12 +2751,12 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+551974071078</t>
+          <t>+558186914048</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
@@ -2768,12 +2768,12 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+5511943458186</t>
+          <t>+5514997419977</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
@@ -2785,12 +2785,12 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+553175675075</t>
+          <t>+5511964838163</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
@@ -2802,41 +2802,41 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+558186914048</t>
+          <t>+555191485515</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+5514997419977</t>
+          <t>+5521989929657</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+5511964838163</t>
+          <t>+5511986633336</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
@@ -2846,19 +2846,19 @@
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+555191485515</t>
+          <t>+5511963264394</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
@@ -2870,12 +2870,12 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+5521989929657</t>
+          <t>+555399629079</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
@@ -2887,12 +2887,12 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+5511986633336</t>
+          <t>+555194536598</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
@@ -2904,12 +2904,12 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+5511963264394</t>
+          <t>+5516991290210</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
@@ -2921,12 +2921,12 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+555399629079</t>
+          <t>+5511985014090</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
@@ -2938,12 +2938,12 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+555194536598</t>
+          <t>+5511971885642</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
@@ -2955,12 +2955,12 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+5516991290210</t>
+          <t>+556192235590</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
@@ -2972,12 +2972,12 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+5511985014090</t>
+          <t>+553197910058</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
@@ -2989,7 +2989,7 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+5511971885642</t>
+          <t>+5511945037623</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
@@ -3006,12 +3006,12 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+556192235590</t>
+          <t>+558586569439</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
@@ -3023,12 +3023,12 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+553197910058</t>
+          <t>+5511971176538</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
@@ -3040,7 +3040,7 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+5511945037623</t>
+          <t>+5511934629890</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
@@ -3057,24 +3057,24 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+558586569439</t>
+          <t>+5521971413810</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+5511971176538</t>
+          <t>+5511986546912</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
@@ -3084,36 +3084,36 @@
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+5511934629890</t>
+          <t>+553171606494</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+5521971413810</t>
+          <t>+553171858800</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
@@ -3125,12 +3125,12 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+5511986546912</t>
+          <t>+5513996171453</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
@@ -3142,12 +3142,12 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+553171606494</t>
+          <t>+556191917174</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
@@ -3159,12 +3159,12 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+553171858800</t>
+          <t>+555181699628</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
@@ -3176,12 +3176,12 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+5513996171453</t>
+          <t>+558994526750</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
@@ -3193,12 +3193,12 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+556191917174</t>
+          <t>+5522999490720</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
@@ -3210,12 +3210,12 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+555181699628</t>
+          <t>+5515996341306</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
@@ -3227,12 +3227,12 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+558994526750</t>
+          <t>+555492618052</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
@@ -3244,12 +3244,12 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+5522999490720</t>
+          <t>+5512991532012</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
@@ -3261,12 +3261,12 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+5515996341306</t>
+          <t>+556293410347</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
@@ -3278,165 +3278,165 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+555492618052</t>
+          <t>+553171722790</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+5512991532012</t>
+          <t>+555186041958</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+556293410347</t>
+          <t>+5522999557124</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+553171722790</t>
+          <t>+5511956194781</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+555186041958</t>
+          <t>+5511949693265</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+5522999557124</t>
+          <t>+553399550487</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+5511956194781</t>
+          <t>+555193334094</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+5511949693265</t>
+          <t>+553191181765</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+553399550487</t>
+          <t>+553492868099</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+555193334094</t>
+          <t>+556198163313</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
@@ -3448,12 +3448,12 @@
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+553191181765</t>
+          <t>+556286223947</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
@@ -3465,12 +3465,12 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+553492868099</t>
+          <t>+5522992578488</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
@@ -3482,126 +3482,126 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+556198163313</t>
+          <t>+5519981594572</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+556286223947</t>
+          <t>+556196054585</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+5522992578488</t>
+          <t>+5511987670856</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+5519981594572</t>
+          <t>+5511993877662</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+556196054585</t>
+          <t>+5519999136362</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+5511987670856</t>
+          <t>+5519993254501</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+556296704284</t>
+          <t>+553187320810</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+5511993877662</t>
+          <t>+5511966134418</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
@@ -3611,14 +3611,14 @@
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+5511959898968</t>
+          <t>+5511930092193</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
@@ -3628,19 +3628,19 @@
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+5519999136362</t>
+          <t>+5521977601201</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
@@ -3652,364 +3652,364 @@
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+5519993254501</t>
+          <t>+553897450448</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+556384939482</t>
+          <t>+553899341338</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+553187320810</t>
+          <t>+5521965730495</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+5512996345540</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+5511930092193</t>
+          <t>+553284127574</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+5521977601201</t>
+          <t>+553384499379</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+553897450448</t>
+          <t>+5522999416651</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+553899341338</t>
+          <t>+553496487520</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+5521965730495</t>
+          <t>+5511963380338</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+5512996345540</t>
+          <t>+556181106946</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+553284127574</t>
+          <t>+5521966430435</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+553384499379</t>
+          <t>+5517981343490</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+5511945704788</t>
+          <t>+556194435831</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>+5522999416651</t>
+          <t>+556192815706</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>+553496487520</t>
+          <t>+555194681350</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>+5511953903531</t>
+          <t>+5521990024205</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>+5511963380338</t>
+          <t>+5516993340146</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>+556181106946</t>
+          <t>+5511969710184</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>+5521966430435</t>
+          <t>+555184228607</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>+5517981343490</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>+5517992750891</t>
+          <t>+5516991501083</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>+556194435831</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
@@ -4019,257 +4019,257 @@
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>+556192815706</t>
+          <t>+5519974133120</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>+555194681350</t>
+          <t>+5511971165356</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>+5521990024205</t>
+          <t>+5528999143242</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>+5516993340146</t>
+          <t>+5521992992344</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>+5511969710184</t>
+          <t>+553199111438</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>+555184228607</t>
+          <t>+5511991868062</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+5521965163770</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>+5516991501083</t>
+          <t>+556191281418</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+5511970484790</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>+5519974133120</t>
+          <t>+553888359308</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>+5511971165356</t>
+          <t>+5519999395027</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>+5528999143242</t>
+          <t>+553187556222</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>+5521992992344</t>
+          <t>+556181344711</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>+553199111438</t>
+          <t>+5511937138186</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>+5511991868062</t>
+          <t>+553175235564</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
@@ -4281,7 +4281,7 @@
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>+5521965163770</t>
+          <t>+5521970987542</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
@@ -4298,12 +4298,12 @@
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>+556191281418</t>
+          <t>+553398575480</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
@@ -4315,165 +4315,165 @@
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>+5511970484790</t>
+          <t>+553193590683</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>+553888359308</t>
+          <t>+5522997230806</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C229" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>+5519999395027</t>
+          <t>+5511985698796</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>+553187556222</t>
+          <t>+5521965096539</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>+556181344711</t>
+          <t>+5521986678801</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>+5511937138186</t>
+          <t>+555197496105</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>+553175235564</t>
+          <t>+5511947650170</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>+5521970987542</t>
+          <t>+553191829450</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>+553398575480</t>
+          <t>+5511976440031</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>+553193590683</t>
+          <t>+556293286544</t>
         </is>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C237" s="2" t="inlineStr">
@@ -4485,12 +4485,12 @@
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>+5522997230806</t>
+          <t>+556194662595</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
@@ -4502,12 +4502,12 @@
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>+5511985698796</t>
+          <t>+555181664215</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr">
@@ -4519,7 +4519,7 @@
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>+5521965096539</t>
+          <t>+5521978927776</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
@@ -4536,211 +4536,211 @@
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>+5521986678801</t>
+          <t>+553499089476</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>+555197496105</t>
+          <t>+5524999964686</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>+5511947650170</t>
+          <t>+5514997100570</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>+553191829450</t>
+          <t>+5511956996383</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>+5511976440031</t>
+          <t>+5524999215405</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>+556293286544</t>
+          <t>+5521997117322</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>+556194662595</t>
+          <t>+5519997204476</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>+555181664215</t>
+          <t>+556296767169</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>+5521978927776</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C249" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>+553499089476</t>
+          <t>+555491229014</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>+5524999964686</t>
+          <t>+553183316751</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>+5514997100570</t>
+          <t>+5511960297061</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>+5511956996383</t>
+          <t>+5511967618163</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
@@ -4750,393 +4750,393 @@
       </c>
       <c r="C253" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>+5524999215405</t>
+          <t>+5511953782520</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>+5513974102524</t>
+          <t>+555194565879</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>+5511985663846</t>
+          <t>+5519987116584</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>+5521997117322</t>
+          <t>+5511963669553</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>+5519997204476</t>
+          <t>+5511967026448</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>+556296767169</t>
+          <t>+5511970838412</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>+555199100909</t>
+          <t>+5519994161076</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>+5511960197823</t>
+          <t>+5512974073721</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>+5516993905706</t>
+          <t>+553899272884</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>+555491229014</t>
+          <t>+5513974277521</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>+553183316751</t>
+          <t>+5511959480908</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>+5511960297061</t>
+          <t>+553173039716</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>+5511967618163</t>
+          <t>+5519983138652</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>+5511953782520</t>
+          <t>+5516981621753</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>+555194565879</t>
+          <t>+5513996269435</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>+5519987116584</t>
+          <t>+5511946858778</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>+5511963669553</t>
+          <t>+553498008945</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>+5511967026448</t>
+          <t>+555198093042</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>+5511970838412</t>
+          <t>+5519992746058</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>+5519994161076</t>
+          <t>+5511959327333</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>+5512974073721</t>
+          <t>+5519991342511</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>+553899272884</t>
+          <t>+5511910662570</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>+5513974277521</t>
+          <t>+5511979754910</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
@@ -5148,12 +5148,12 @@
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>+5511959480908</t>
+          <t>+5519984563784</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C277" s="2" t="inlineStr">
@@ -5165,12 +5165,12 @@
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>+553173039716</t>
+          <t>+5524978358315</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C278" s="2" t="inlineStr">
@@ -5182,12 +5182,12 @@
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>+5519983138652</t>
+          <t>+5521964816197</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
@@ -5199,12 +5199,12 @@
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>+5516981621753</t>
+          <t>+553187980853</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
@@ -5216,12 +5216,12 @@
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>+5513996269435</t>
+          <t>+555191226749</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
@@ -5233,7 +5233,7 @@
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>+5511946858778</t>
+          <t>+5511982048012</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
@@ -5250,12 +5250,12 @@
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>+553498008945</t>
+          <t>+5511960946166</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
@@ -5267,12 +5267,12 @@
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>+555198093042</t>
+          <t>+5519991426273</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C284" s="2" t="inlineStr">
@@ -5284,7 +5284,7 @@
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>+5519992746058</t>
+          <t>+5519981472020</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
@@ -5301,12 +5301,12 @@
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>+5511959327333</t>
+          <t>+5521978835599</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
@@ -5318,24 +5318,24 @@
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>+5519991342511</t>
+          <t>+555180176562</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>+5511910662570</t>
+          <t>+5511942185569</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
@@ -5345,14 +5345,14 @@
       </c>
       <c r="C288" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>+5511979754910</t>
+          <t>+5511947261969</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
@@ -5362,14 +5362,14 @@
       </c>
       <c r="C289" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>+5519984563784</t>
+          <t>+5519992124887</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
@@ -5379,116 +5379,116 @@
       </c>
       <c r="C290" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>+5524978358315</t>
+          <t>+553195359312</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>+5521964816197</t>
+          <t>+5511962993512</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>+554497202222</t>
+          <t>+5511993564173</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C293" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>+553187980853</t>
+          <t>+5511985800906</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C294" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>+555191226749</t>
+          <t>+5511959248300</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>+5511982048012</t>
+          <t>+5519994486599</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>+5511960946166</t>
+          <t>+5511987774053</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
@@ -5498,82 +5498,82 @@
       </c>
       <c r="C297" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>+5519991426273</t>
+          <t>+553184640938</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>+5519981472020</t>
+          <t>+5521990575799</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>+5521978835599</t>
+          <t>+555191899807</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>+555180176562</t>
+          <t>+556194027204</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>+5511942185569</t>
+          <t>+5511952489850</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
@@ -5583,82 +5583,82 @@
       </c>
       <c r="C302" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>+5511947261969</t>
+          <t>+5521981400589</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C303" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>+5519992124887</t>
+          <t>+5511957982446</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C304" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>+553195359312</t>
+          <t>+5511948883579</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C305" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>+5511962993512</t>
+          <t>+556284316928</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>+5511993564173</t>
+          <t>+5511974919907</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
@@ -5668,31 +5668,31 @@
       </c>
       <c r="C307" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>+553391919105</t>
+          <t>+553298585881</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>+5511985800906</t>
+          <t>+5511996693536</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
@@ -5702,150 +5702,150 @@
       </c>
       <c r="C309" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>+5511959248300</t>
+          <t>+553196634240</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C310" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>+5519994486599</t>
+          <t>+555186391577</t>
         </is>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>+5511987774053</t>
+          <t>+555194687691</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>+553184640938</t>
+          <t>+5511913167865</t>
         </is>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>+5521990575799</t>
+          <t>+5511978691664</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C314" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>+555191899807</t>
+          <t>+553497201121</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>+556194027204</t>
+          <t>+558881220317</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>+5516999494445</t>
+          <t>+5513997769440</t>
         </is>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C317" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>+5511952489850</t>
+          <t>+5511989993229</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
@@ -5855,48 +5855,48 @@
       </c>
       <c r="C318" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="inlineStr">
         <is>
-          <t>+5521981400589</t>
+          <t>+5511994902251</t>
         </is>
       </c>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C319" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="inlineStr">
         <is>
-          <t>+5511957982446</t>
+          <t>+5519993039822</t>
         </is>
       </c>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C320" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="inlineStr">
         <is>
-          <t>+5511948883579</t>
+          <t>+5511990067914</t>
         </is>
       </c>
       <c r="B321" s="2" t="inlineStr">
@@ -5906,405 +5906,405 @@
       </c>
       <c r="C321" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t>+556284316928</t>
+          <t>+5521966715011</t>
         </is>
       </c>
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C322" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="inlineStr">
         <is>
-          <t>+5511983534806</t>
+          <t>+5521965551832</t>
         </is>
       </c>
       <c r="B323" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C323" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="inlineStr">
         <is>
-          <t>+5511974919907</t>
+          <t>+555496011266</t>
         </is>
       </c>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C324" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="inlineStr">
         <is>
-          <t>+553298585881</t>
+          <t>+5521965910269</t>
         </is>
       </c>
       <c r="B325" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C325" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="inlineStr">
         <is>
-          <t>+5511996693536</t>
+          <t>+5521981376833</t>
         </is>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C326" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="inlineStr">
         <is>
-          <t>+553196634240</t>
+          <t>+5511986157257</t>
         </is>
       </c>
       <c r="B327" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C327" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="inlineStr">
         <is>
-          <t>+555186391577</t>
+          <t>+5512996683720</t>
         </is>
       </c>
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C328" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="inlineStr">
         <is>
-          <t>+555194687691</t>
+          <t>+5514996744793</t>
         </is>
       </c>
       <c r="B329" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C329" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="inlineStr">
         <is>
-          <t>+5511913167865</t>
+          <t>+555199788369</t>
         </is>
       </c>
       <c r="B330" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C330" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="inlineStr">
         <is>
-          <t>+5511978691664</t>
+          <t>+553199854571</t>
         </is>
       </c>
       <c r="B331" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C331" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="inlineStr">
         <is>
-          <t>+553497201121</t>
+          <t>+5511932110481</t>
         </is>
       </c>
       <c r="B332" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C332" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="inlineStr">
         <is>
-          <t>+558881220317</t>
+          <t>+556193189092</t>
         </is>
       </c>
       <c r="B333" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C333" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="inlineStr">
         <is>
-          <t>+5511952172793</t>
+          <t>+5517992036626</t>
         </is>
       </c>
       <c r="B334" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C334" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="inlineStr">
         <is>
-          <t>+5513997769440</t>
+          <t>+553199616643</t>
         </is>
       </c>
       <c r="B335" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C335" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-02</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="inlineStr">
         <is>
-          <t>+5511989993229</t>
+          <t>+5521977008499</t>
         </is>
       </c>
       <c r="B336" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C336" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-02</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="inlineStr">
         <is>
-          <t>+5511994902251</t>
+          <t>+5521977084479</t>
         </is>
       </c>
       <c r="B337" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C337" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-02</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="inlineStr">
         <is>
-          <t>+5519993039822</t>
+          <t>+553496442965</t>
         </is>
       </c>
       <c r="B338" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C338" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="inlineStr">
         <is>
-          <t>+5511990067914</t>
+          <t>+5518997151251</t>
         </is>
       </c>
       <c r="B339" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C339" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="inlineStr">
         <is>
-          <t>+5521966715011</t>
+          <t>+556198606157</t>
         </is>
       </c>
       <c r="B340" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C340" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="inlineStr">
         <is>
-          <t>+5521965551832</t>
+          <t>+555195284929</t>
         </is>
       </c>
       <c r="B341" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C341" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="inlineStr">
         <is>
-          <t>+555496011266</t>
+          <t>+5511987594244</t>
         </is>
       </c>
       <c r="B342" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C342" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="inlineStr">
         <is>
-          <t>+5521965910269</t>
+          <t>+5511959227230</t>
         </is>
       </c>
       <c r="B343" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C343" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-08-29</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="inlineStr">
         <is>
-          <t>+5521981376833</t>
+          <t>+555599102946</t>
         </is>
       </c>
       <c r="B344" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C344" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-08-28</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="inlineStr">
         <is>
-          <t>+5511986157257</t>
+          <t>+5511970726796</t>
         </is>
       </c>
       <c r="B345" s="2" t="inlineStr">
@@ -6314,345 +6314,39 @@
       </c>
       <c r="C345" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-08-28</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="inlineStr">
         <is>
-          <t>+5512996683720</t>
+          <t>+5519996017926</t>
         </is>
       </c>
       <c r="B346" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C346" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-08-27</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="inlineStr">
         <is>
-          <t>+5514996744793</t>
+          <t>+5511949288154</t>
         </is>
       </c>
       <c r="B347" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C347" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="2" t="inlineStr">
-        <is>
-          <t>+555199788369</t>
-        </is>
-      </c>
-      <c r="B348" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="C348" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="2" t="inlineStr">
-        <is>
-          <t>+553199854571</t>
-        </is>
-      </c>
-      <c r="B349" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="C349" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="2" t="inlineStr">
-        <is>
-          <t>+5511932110481</t>
-        </is>
-      </c>
-      <c r="B350" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C350" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="2" t="inlineStr">
-        <is>
-          <t>+556193189092</t>
-        </is>
-      </c>
-      <c r="B351" s="2" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="C351" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="2" t="inlineStr">
-        <is>
-          <t>+5517992036626</t>
-        </is>
-      </c>
-      <c r="B352" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C352" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="2" t="inlineStr">
-        <is>
-          <t>+553199616643</t>
-        </is>
-      </c>
-      <c r="B353" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="C353" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="2" t="inlineStr">
-        <is>
-          <t>+5521977008499</t>
-        </is>
-      </c>
-      <c r="B354" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C354" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="2" t="inlineStr">
-        <is>
-          <t>+5521977084479</t>
-        </is>
-      </c>
-      <c r="B355" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C355" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="2" t="inlineStr">
-        <is>
-          <t>+553496442965</t>
-        </is>
-      </c>
-      <c r="B356" s="2" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="C356" s="2" t="inlineStr">
-        <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="2" t="inlineStr">
-        <is>
-          <t>+5518997151251</t>
-        </is>
-      </c>
-      <c r="B357" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="C357" s="2" t="inlineStr">
-        <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="2" t="inlineStr">
-        <is>
-          <t>+556198606157</t>
-        </is>
-      </c>
-      <c r="B358" s="2" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="C358" s="2" t="inlineStr">
-        <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="2" t="inlineStr">
-        <is>
-          <t>+555195284929</t>
-        </is>
-      </c>
-      <c r="B359" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="C359" s="2" t="inlineStr">
-        <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="2" t="inlineStr">
-        <is>
-          <t>+5511987594244</t>
-        </is>
-      </c>
-      <c r="B360" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C360" s="2" t="inlineStr">
-        <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="2" t="inlineStr">
-        <is>
-          <t>+5511959227230</t>
-        </is>
-      </c>
-      <c r="B361" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C361" s="2" t="inlineStr">
-        <is>
-          <t>2024-08-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="2" t="inlineStr">
-        <is>
-          <t>+555599102946</t>
-        </is>
-      </c>
-      <c r="B362" s="2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="C362" s="2" t="inlineStr">
-        <is>
-          <t>2024-08-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="2" t="inlineStr">
-        <is>
-          <t>+5511970726796</t>
-        </is>
-      </c>
-      <c r="B363" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C363" s="2" t="inlineStr">
-        <is>
-          <t>2024-08-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="2" t="inlineStr">
-        <is>
-          <t>+5519996017926</t>
-        </is>
-      </c>
-      <c r="B364" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="C364" s="2" t="inlineStr">
-        <is>
-          <t>2024-08-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="2" t="inlineStr">
-        <is>
-          <t>+5511949288154</t>
-        </is>
-      </c>
-      <c r="B365" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C365" s="2" t="inlineStr">
         <is>
           <t>2024-08-26</t>
         </is>

--- a/gabi.xlsx
+++ b/gabi.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C347"/>
+  <dimension ref="A1:C364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,92 +477,92 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+557598672769</t>
+          <t>+553183770096</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-28</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+556186516353</t>
+          <t>+5519996110953</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+553186055296</t>
+          <t>+5511920187983</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+556296693495</t>
+          <t>+5521995614358</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+553897420620</t>
+          <t>+5521966851284</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5521979071909</t>
+          <t>+5521994302471</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -572,575 +572,571 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+553898066752</t>
+          <t>+5521993228759</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+556196229391</t>
+          <t>+553798221148</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+555481664496</t>
+          <t>+5511932408926</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+553498832518</t>
+          <t>+5511966568578</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5511965003707</t>
+          <t>+555182236662</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+553498757145</t>
+          <t>+5524981243416</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5511972238951</t>
+          <t>+5521972450764</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5513997184863</t>
+          <t>+5521981700721</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5511963924242</t>
+          <t>+558594487666</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+553183244902</t>
+          <t>+5512988438943</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+5521974870034</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
+          <t>+41766906567</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+5514996538302</t>
+          <t>+557598672769</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5514981378883</t>
+          <t>+556186516353</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5521980137916</t>
+          <t>+553186055296</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+559981971020</t>
+          <t>+556296693495</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+5524999376084</t>
+          <t>+553897420620</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+5511962253510</t>
+          <t>+5521979071909</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+555384426124</t>
+          <t>+553898066752</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+553186089276</t>
+          <t>+556196229391</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+5521966501459</t>
+          <t>+555481664496</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+5515974032589</t>
+          <t>+553498832518</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+553488055259</t>
+          <t>+5511965003707</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+553384677059</t>
+          <t>+553498757145</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+5519996299319</t>
+          <t>+5511972238951</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+5511988552097</t>
+          <t>+5513997184863</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+5521976781800</t>
+          <t>+5511963924242</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+553591021541</t>
+          <t>+553183244902</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+5516993604875</t>
+          <t>+5521974870034</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+5521965496502</t>
+          <t>+5514996538302</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+5511992200087</t>
+          <t>+5514981378883</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+559191270637</t>
+          <t>+5521980137916</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+5519971619301</t>
+          <t>+559981971020</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+5521971839379</t>
+          <t>+5524999376084</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+5511972930265</t>
+          <t>+5511962253510</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -1150,48 +1146,48 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+5511933453600</t>
+          <t>+555384426124</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+555491016875</t>
+          <t>+553186089276</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+5521989149541</t>
+          <t>+5521966501459</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -1201,82 +1197,82 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+5511965520814</t>
+          <t>+5515974032589</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+5511940372227</t>
+          <t>+553488055259</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+5521979503998</t>
+          <t>+553384677059</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+556292340085</t>
+          <t>+5519996299319</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+5511975721557</t>
+          <t>+5511988552097</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -1286,65 +1282,65 @@
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+556192470699</t>
+          <t>+5521976781800</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+554891421017</t>
+          <t>+553591021541</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+556798473306</t>
+          <t>+5516993604875</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+5521987823541</t>
+          <t>+5521965496502</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -1354,405 +1350,405 @@
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+5517981571512</t>
+          <t>+5511992200087</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+556184421881</t>
+          <t>+559191270637</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+5511940728898</t>
+          <t>+5519971619301</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+5511947768319</t>
+          <t>+5521971839379</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+5522997621623</t>
+          <t>+5511972930265</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+5521994075389</t>
+          <t>+5511933453600</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+5511981892366</t>
+          <t>+555491016875</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+555192717667</t>
+          <t>+5521989149541</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+5522997104652</t>
+          <t>+5511965520814</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+5522992752597</t>
+          <t>+5511940372227</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+5511999318706</t>
+          <t>+5521979503998</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+5521992761358</t>
+          <t>+556292340085</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+556198289593</t>
+          <t>+5511975721557</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+5521979898353</t>
+          <t>+556192470699</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+5511951735066</t>
+          <t>+554891421017</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+5521968066779</t>
+          <t>+556798473306</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+5511940052132</t>
+          <t>+5521987823541</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+555584586767</t>
+          <t>+5517981571512</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+5519991884271</t>
+          <t>+556184421881</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+5521999546007</t>
+          <t>+5511940728898</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+5521971985918</t>
+          <t>+5511947768319</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+5511982403910</t>
+          <t>+5522997621623</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+555194713402</t>
+          <t>+5521994075389</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+5511979869629</t>
+          <t>+5511981892366</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -1762,133 +1758,133 @@
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+553491497775</t>
+          <t>+555192717667</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+5511952202576</t>
+          <t>+5522997104652</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+556496241313</t>
+          <t>+5522992752597</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+5521966659271</t>
+          <t>+5511999318706</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+5511958383006</t>
+          <t>+5521992761358</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+5512982473711</t>
+          <t>+556198289593</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+555193033662</t>
+          <t>+5521979898353</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+5511932101366</t>
+          <t>+5511951735066</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -1898,180 +1894,184 @@
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+553298344288</t>
+          <t>+5521968066779</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+5519999605608</t>
+          <t>+5511940052132</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+56996163824</t>
-        </is>
-      </c>
-      <c r="B88" s="2" t="inlineStr"/>
+          <t>+555584586767</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+5511986610154</t>
+          <t>+5519991884271</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+5511981755261</t>
+          <t>+5521999546007</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+5511970224460</t>
+          <t>+5521971985918</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+553183201160</t>
+          <t>+5511982403910</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+555384745327</t>
+          <t>+555194713402</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+5514996501813</t>
+          <t>+5511979869629</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+5511972435655</t>
+          <t>+553491497775</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+5511946397297</t>
+          <t>+5511952202576</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -2081,201 +2081,197 @@
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+553397075362</t>
+          <t>+556496241313</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+5513991020783</t>
+          <t>+5521966659271</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+5521969440520</t>
+          <t>+5511958383006</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+553193672938</t>
+          <t>+5512982473711</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+5522981479241</t>
+          <t>+555193033662</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+5521979251504</t>
+          <t>+5511932101366</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+556198475033</t>
+          <t>+553298344288</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+5516992236142</t>
+          <t>+5519999605608</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+5511948893274</t>
-        </is>
-      </c>
-      <c r="B105" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>+56996163824</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr"/>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+5521968278744</t>
+          <t>+5511986610154</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+555196384525</t>
+          <t>+5511981755261</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+5511972915535</t>
+          <t>+5511970224460</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -2285,14 +2281,14 @@
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+553180135415</t>
+          <t>+553183201160</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
@@ -2302,48 +2298,48 @@
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+5521992200288</t>
+          <t>+555384745327</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+556196779704</t>
+          <t>+5514996501813</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+5511915810965</t>
+          <t>+5511972435655</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
@@ -2353,48 +2349,48 @@
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+5524999461825</t>
+          <t>+5511946397297</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+556196698353</t>
+          <t>+553397075362</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+5513996671783</t>
+          <t>+5513991020783</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -2404,269 +2400,269 @@
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+5511991871576</t>
+          <t>+5521969440520</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+5514981509955</t>
+          <t>+553193672938</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+555184777056</t>
+          <t>+5522981479241</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+5513991081873</t>
+          <t>+5521979251504</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+555197040253</t>
+          <t>+556198475033</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+5511977945054</t>
+          <t>+5516992236142</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+553496724472</t>
+          <t>+5511948893274</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+553186960521</t>
+          <t>+5521968278744</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+5516988023377</t>
+          <t>+555196384525</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+553492249633</t>
+          <t>+5511972915535</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+5511996339968</t>
+          <t>+553180135415</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+553899926253</t>
+          <t>+5521992200288</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+555596010082</t>
+          <t>+556196779704</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+5521984364734</t>
+          <t>+5511915810965</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+553196748836</t>
+          <t>+5524999461825</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+556196182173</t>
+          <t>+556196698353</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
@@ -2676,116 +2672,116 @@
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+5515988279142</t>
+          <t>+5513996671783</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+551974071078</t>
+          <t>+5511991871576</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+5511943458186</t>
+          <t>+5514981509955</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+553175675075</t>
+          <t>+555184777056</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+558186914048</t>
+          <t>+5513991081873</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+5514997419977</t>
+          <t>+555197040253</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+5511964838163</t>
+          <t>+5511977945054</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
@@ -2802,160 +2798,160 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+555191485515</t>
+          <t>+553496724472</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+5521989929657</t>
+          <t>+553186960521</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+5511986633336</t>
+          <t>+5516988023377</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+5511963264394</t>
+          <t>+553492249633</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+555399629079</t>
+          <t>+5511996339968</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+555194536598</t>
+          <t>+553899926253</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+5516991290210</t>
+          <t>+555596010082</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+5511985014090</t>
+          <t>+5521984364734</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+5511971885642</t>
+          <t>+553196748836</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+556192235590</t>
+          <t>+556196182173</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
@@ -2965,116 +2961,116 @@
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+553197910058</t>
+          <t>+5515988279142</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+5511945037623</t>
+          <t>+551974071078</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+558586569439</t>
+          <t>+5511943458186</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+5511971176538</t>
+          <t>+553175675075</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+5511934629890</t>
+          <t>+558186914048</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+5521971413810</t>
+          <t>+5514997419977</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+5511986546912</t>
+          <t>+5511964838163</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
@@ -3084,252 +3080,252 @@
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+553171606494</t>
+          <t>+555191485515</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+553171858800</t>
+          <t>+5521989929657</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+5513996171453</t>
+          <t>+5511986633336</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+556191917174</t>
+          <t>+5511963264394</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+555181699628</t>
+          <t>+555399629079</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+558994526750</t>
+          <t>+555194536598</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+5522999490720</t>
+          <t>+5516991290210</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+5515996341306</t>
+          <t>+5511985014090</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+555492618052</t>
+          <t>+5511971885642</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+5512991532012</t>
+          <t>+556192235590</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+556293410347</t>
+          <t>+553197910058</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+553171722790</t>
+          <t>+5511945037623</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+555186041958</t>
+          <t>+558586569439</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+5522999557124</t>
+          <t>+5511971176538</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+5511956194781</t>
+          <t>+5511934629890</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
@@ -3339,65 +3335,65 @@
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+5511949693265</t>
+          <t>+5521971413810</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+553399550487</t>
+          <t>+5511986546912</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+555193334094</t>
+          <t>+553171606494</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+553191181765</t>
+          <t>+553171858800</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
@@ -3407,31 +3403,31 @@
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+553492868099</t>
+          <t>+5513996171453</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+556198163313</t>
+          <t>+556191917174</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
@@ -3441,184 +3437,184 @@
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+556286223947</t>
+          <t>+555181699628</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+5522992578488</t>
+          <t>+558994526750</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+5519981594572</t>
+          <t>+5522999490720</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+556196054585</t>
+          <t>+5515996341306</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+5511987670856</t>
+          <t>+555492618052</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+5511993877662</t>
+          <t>+5512991532012</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+5519999136362</t>
+          <t>+556293410347</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+5519993254501</t>
+          <t>+553171722790</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+553187320810</t>
+          <t>+555186041958</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+5522999557124</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+5511930092193</t>
+          <t>+5511956194781</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
@@ -3628,133 +3624,133 @@
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+5521977601201</t>
+          <t>+5511949693265</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+553897450448</t>
+          <t>+553399550487</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+553899341338</t>
+          <t>+555193334094</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+5521965730495</t>
+          <t>+553191181765</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+5512996345540</t>
+          <t>+553492868099</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+553284127574</t>
+          <t>+556198163313</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+553384499379</t>
+          <t>+556286223947</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+5522999416651</t>
+          <t>+5522992578488</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
@@ -3764,388 +3760,388 @@
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+553496487520</t>
+          <t>+5519981594572</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+5511963380338</t>
+          <t>+556196054585</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+556181106946</t>
+          <t>+5511987670856</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+5521966430435</t>
+          <t>+5511993877662</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+5517981343490</t>
+          <t>+5519999136362</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+556194435831</t>
+          <t>+5519993254501</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>+556192815706</t>
+          <t>+553187320810</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>+555194681350</t>
+          <t>+5511966134418</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>+5521990024205</t>
+          <t>+5511930092193</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>+5516993340146</t>
+          <t>+5521977601201</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>+5511969710184</t>
+          <t>+553897450448</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>+555184228607</t>
+          <t>+553899341338</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+5521965730495</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>+5516991501083</t>
+          <t>+5512996345540</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+553284127574</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>+5519974133120</t>
+          <t>+553384499379</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>+5511971165356</t>
+          <t>+5522999416651</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>+5528999143242</t>
+          <t>+553496487520</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>+5521992992344</t>
+          <t>+5511963380338</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>+553199111438</t>
+          <t>+556181106946</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>+5511991868062</t>
+          <t>+5521966430435</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>+5521965163770</t>
+          <t>+5517981343490</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>+556191281418</t>
+          <t>+556194435831</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
@@ -4155,218 +4151,218 @@
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>+5511970484790</t>
+          <t>+556192815706</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>+553888359308</t>
+          <t>+555194681350</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>+5519999395027</t>
+          <t>+5521990024205</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>+553187556222</t>
+          <t>+5516993340146</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>+556181344711</t>
+          <t>+5511969710184</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>+5511937138186</t>
+          <t>+555184228607</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>+553175235564</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>+5521970987542</t>
+          <t>+5516991501083</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>+553398575480</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>+553193590683</t>
+          <t>+5519974133120</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>+5522997230806</t>
+          <t>+5511971165356</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C229" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>+5511985698796</t>
+          <t>+5528999143242</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>+5521965096539</t>
+          <t>+5521992992344</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
@@ -4376,82 +4372,82 @@
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>+5521986678801</t>
+          <t>+553199111438</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>+555197496105</t>
+          <t>+5511991868062</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>+5511947650170</t>
+          <t>+5521965163770</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>+553191829450</t>
+          <t>+556191281418</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>+5511976440031</t>
+          <t>+5511970484790</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
@@ -4461,286 +4457,286 @@
       </c>
       <c r="C236" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>+556293286544</t>
+          <t>+553888359308</t>
         </is>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C237" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>+556194662595</t>
+          <t>+5519999395027</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>+555181664215</t>
+          <t>+553187556222</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>+5521978927776</t>
+          <t>+556181344711</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>+553499089476</t>
+          <t>+5511937138186</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>+5524999964686</t>
+          <t>+553175235564</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>+5514997100570</t>
+          <t>+5521970987542</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>+5511956996383</t>
+          <t>+553398575480</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>+5524999215405</t>
+          <t>+553193590683</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>+5521997117322</t>
+          <t>+5522997230806</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>+5519997204476</t>
+          <t>+5511985698796</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>+556296767169</t>
+          <t>+5521965096539</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>+555199100909</t>
+          <t>+5521986678801</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C249" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>+555491229014</t>
+          <t>+555197496105</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>+553183316751</t>
+          <t>+5511947650170</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>+5511960297061</t>
+          <t>+553191829450</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>+5511967618163</t>
+          <t>+5511976440031</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
@@ -4750,269 +4746,269 @@
       </c>
       <c r="C253" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>+5511953782520</t>
+          <t>+556293286544</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>+555194565879</t>
+          <t>+556194662595</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>+5519987116584</t>
+          <t>+555181664215</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>+5511963669553</t>
+          <t>+5521978927776</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>+5511967026448</t>
+          <t>+553499089476</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>+5511970838412</t>
+          <t>+5524999964686</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>+5519994161076</t>
+          <t>+5514997100570</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>+5512974073721</t>
+          <t>+5511956996383</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>+553899272884</t>
+          <t>+5524999215405</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>+5513974277521</t>
+          <t>+5521997117322</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>+5511959480908</t>
+          <t>+5519997204476</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>+553173039716</t>
+          <t>+556296767169</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>+5519983138652</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>+5516981621753</t>
+          <t>+555491229014</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>+5513996269435</t>
+          <t>+553183316751</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>+5511946858778</t>
+          <t>+5511960297061</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
@@ -5022,99 +5018,99 @@
       </c>
       <c r="C269" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>+553498008945</t>
+          <t>+5511967618163</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>+555198093042</t>
+          <t>+5511953782520</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>+5519992746058</t>
+          <t>+555194565879</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>+5511959327333</t>
+          <t>+5519987116584</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>+5519991342511</t>
+          <t>+5511963669553</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>+5511910662570</t>
+          <t>+5511967026448</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
@@ -5124,14 +5120,14 @@
       </c>
       <c r="C275" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>+5511979754910</t>
+          <t>+5511970838412</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
@@ -5141,14 +5137,14 @@
       </c>
       <c r="C276" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>+5519984563784</t>
+          <t>+5519994161076</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
@@ -5158,53 +5154,53 @@
       </c>
       <c r="C277" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>+5524978358315</t>
+          <t>+5512974073721</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C278" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>+5521964816197</t>
+          <t>+553899272884</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>+553187980853</t>
+          <t>+5513974277521</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
@@ -5216,12 +5212,12 @@
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>+555191226749</t>
+          <t>+5511959480908</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
@@ -5233,12 +5229,12 @@
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>+5511982048012</t>
+          <t>+553173039716</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C282" s="2" t="inlineStr">
@@ -5250,12 +5246,12 @@
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>+5511960946166</t>
+          <t>+5519983138652</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
@@ -5267,12 +5263,12 @@
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>+5519991426273</t>
+          <t>+5516981621753</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C284" s="2" t="inlineStr">
@@ -5284,12 +5280,12 @@
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>+5519981472020</t>
+          <t>+5513996269435</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C285" s="2" t="inlineStr">
@@ -5301,12 +5297,12 @@
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>+5521978835599</t>
+          <t>+5511946858778</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
@@ -5318,92 +5314,92 @@
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>+555180176562</t>
+          <t>+553498008945</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>+5511942185569</t>
+          <t>+555198093042</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C288" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>+5511947261969</t>
+          <t>+5519992746058</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C289" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>+5519992124887</t>
+          <t>+5511959327333</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C290" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>+553195359312</t>
+          <t>+5519991342511</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>+5511962993512</t>
+          <t>+5511910662570</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
@@ -5413,14 +5409,14 @@
       </c>
       <c r="C292" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>+5511993564173</t>
+          <t>+5511979754910</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
@@ -5430,167 +5426,167 @@
       </c>
       <c r="C293" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>+5511985800906</t>
+          <t>+5519984563784</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C294" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>+5511959248300</t>
+          <t>+5524978358315</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>+5519994486599</t>
+          <t>+5521964816197</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>+5511987774053</t>
+          <t>+553187980853</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C297" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>+553184640938</t>
+          <t>+555191226749</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>+5521990575799</t>
+          <t>+5511982048012</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>+555191899807</t>
+          <t>+5511960946166</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>+556194027204</t>
+          <t>+5519991426273</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>+5511952489850</t>
+          <t>+5519981472020</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C302" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>+5521981400589</t>
+          <t>+5521978835599</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
@@ -5600,31 +5596,31 @@
       </c>
       <c r="C303" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>+5511957982446</t>
+          <t>+555180176562</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C304" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>+5511948883579</t>
+          <t>+5511942185569</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
@@ -5634,65 +5630,65 @@
       </c>
       <c r="C305" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>+556284316928</t>
+          <t>+5511947261969</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>+5511974919907</t>
+          <t>+5519992124887</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C307" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>+553298585881</t>
+          <t>+553195359312</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>+5511996693536</t>
+          <t>+5511962993512</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
@@ -5702,82 +5698,82 @@
       </c>
       <c r="C309" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>+553196634240</t>
+          <t>+5511993564173</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C310" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>+555186391577</t>
+          <t>+5511985800906</t>
         </is>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>+555194687691</t>
+          <t>+5511959248300</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>+5511913167865</t>
+          <t>+5519994486599</t>
         </is>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>+5511978691664</t>
+          <t>+5511987774053</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
@@ -5787,82 +5783,82 @@
       </c>
       <c r="C314" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>+553497201121</t>
+          <t>+553184640938</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>+558881220317</t>
+          <t>+5521990575799</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>+5513997769440</t>
+          <t>+555191899807</t>
         </is>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C317" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>+5511989993229</t>
+          <t>+556194027204</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C318" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="inlineStr">
         <is>
-          <t>+5511994902251</t>
+          <t>+5511952489850</t>
         </is>
       </c>
       <c r="B319" s="2" t="inlineStr">
@@ -5872,31 +5868,31 @@
       </c>
       <c r="C319" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="inlineStr">
         <is>
-          <t>+5519993039822</t>
+          <t>+5521981400589</t>
         </is>
       </c>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C320" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="inlineStr">
         <is>
-          <t>+5511990067914</t>
+          <t>+5511957982446</t>
         </is>
       </c>
       <c r="B321" s="2" t="inlineStr">
@@ -5906,447 +5902,736 @@
       </c>
       <c r="C321" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t>+5521966715011</t>
+          <t>+5511948883579</t>
         </is>
       </c>
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C322" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="inlineStr">
         <is>
-          <t>+5521965551832</t>
+          <t>+556284316928</t>
         </is>
       </c>
       <c r="B323" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C323" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="inlineStr">
         <is>
-          <t>+555496011266</t>
+          <t>+5511974919907</t>
         </is>
       </c>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C324" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="inlineStr">
         <is>
-          <t>+5521965910269</t>
+          <t>+553298585881</t>
         </is>
       </c>
       <c r="B325" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C325" s="2" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="inlineStr">
         <is>
-          <t>+5521981376833</t>
+          <t>+5511996693536</t>
         </is>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C326" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="inlineStr">
         <is>
-          <t>+5511986157257</t>
+          <t>+553196634240</t>
         </is>
       </c>
       <c r="B327" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C327" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="inlineStr">
         <is>
-          <t>+5512996683720</t>
+          <t>+555186391577</t>
         </is>
       </c>
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C328" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="inlineStr">
         <is>
-          <t>+5514996744793</t>
+          <t>+555194687691</t>
         </is>
       </c>
       <c r="B329" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C329" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="inlineStr">
         <is>
-          <t>+555199788369</t>
+          <t>+5511913167865</t>
         </is>
       </c>
       <c r="B330" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C330" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="inlineStr">
         <is>
-          <t>+553199854571</t>
+          <t>+5511978691664</t>
         </is>
       </c>
       <c r="B331" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C331" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="inlineStr">
         <is>
-          <t>+5511932110481</t>
+          <t>+553497201121</t>
         </is>
       </c>
       <c r="B332" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C332" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-08</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="inlineStr">
         <is>
-          <t>+556193189092</t>
+          <t>+558881220317</t>
         </is>
       </c>
       <c r="B333" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C333" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="inlineStr">
         <is>
-          <t>+5517992036626</t>
+          <t>+5513997769440</t>
         </is>
       </c>
       <c r="B334" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C334" s="2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="inlineStr">
         <is>
-          <t>+553199616643</t>
+          <t>+5511989993229</t>
         </is>
       </c>
       <c r="B335" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C335" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="inlineStr">
         <is>
-          <t>+5521977008499</t>
+          <t>+5511994902251</t>
         </is>
       </c>
       <c r="B336" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C336" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="inlineStr">
         <is>
-          <t>+5521977084479</t>
+          <t>+5519993039822</t>
         </is>
       </c>
       <c r="B337" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C337" s="2" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="inlineStr">
         <is>
-          <t>+553496442965</t>
+          <t>+5511990067914</t>
         </is>
       </c>
       <c r="B338" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C338" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="inlineStr">
         <is>
-          <t>+5518997151251</t>
+          <t>+5521966715011</t>
         </is>
       </c>
       <c r="B339" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C339" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="inlineStr">
         <is>
-          <t>+556198606157</t>
+          <t>+5521965551832</t>
         </is>
       </c>
       <c r="B340" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C340" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="inlineStr">
         <is>
-          <t>+555195284929</t>
+          <t>+555496011266</t>
         </is>
       </c>
       <c r="B341" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C341" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="inlineStr">
         <is>
-          <t>+5511987594244</t>
+          <t>+5521965910269</t>
         </is>
       </c>
       <c r="B342" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C342" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-07</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="inlineStr">
         <is>
-          <t>+5511959227230</t>
+          <t>+5521981376833</t>
         </is>
       </c>
       <c r="B343" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C343" s="2" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="inlineStr">
         <is>
-          <t>+555599102946</t>
+          <t>+5511986157257</t>
         </is>
       </c>
       <c r="B344" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C344" s="2" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="inlineStr">
         <is>
-          <t>+5511970726796</t>
+          <t>+5512996683720</t>
         </is>
       </c>
       <c r="B345" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C345" s="2" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="inlineStr">
         <is>
-          <t>+5519996017926</t>
+          <t>+5514996744793</t>
         </is>
       </c>
       <c r="B346" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C346" s="2" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-06</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="inlineStr">
         <is>
+          <t>+555199788369</t>
+        </is>
+      </c>
+      <c r="B347" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C347" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="inlineStr">
+        <is>
+          <t>+553199854571</t>
+        </is>
+      </c>
+      <c r="B348" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C348" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="inlineStr">
+        <is>
+          <t>+5511932110481</t>
+        </is>
+      </c>
+      <c r="B349" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C349" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="inlineStr">
+        <is>
+          <t>+556193189092</t>
+        </is>
+      </c>
+      <c r="B350" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C350" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="inlineStr">
+        <is>
+          <t>+5517992036626</t>
+        </is>
+      </c>
+      <c r="B351" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C351" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="inlineStr">
+        <is>
+          <t>+553199616643</t>
+        </is>
+      </c>
+      <c r="B352" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C352" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="inlineStr">
+        <is>
+          <t>+5521977008499</t>
+        </is>
+      </c>
+      <c r="B353" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C353" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="inlineStr">
+        <is>
+          <t>+5521977084479</t>
+        </is>
+      </c>
+      <c r="B354" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C354" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="inlineStr">
+        <is>
+          <t>+553496442965</t>
+        </is>
+      </c>
+      <c r="B355" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C355" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="inlineStr">
+        <is>
+          <t>+5518997151251</t>
+        </is>
+      </c>
+      <c r="B356" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C356" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="inlineStr">
+        <is>
+          <t>+556198606157</t>
+        </is>
+      </c>
+      <c r="B357" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C357" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="inlineStr">
+        <is>
+          <t>+555195284929</t>
+        </is>
+      </c>
+      <c r="B358" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C358" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="inlineStr">
+        <is>
+          <t>+5511987594244</t>
+        </is>
+      </c>
+      <c r="B359" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C359" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="inlineStr">
+        <is>
+          <t>+5511959227230</t>
+        </is>
+      </c>
+      <c r="B360" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C360" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="inlineStr">
+        <is>
+          <t>+555599102946</t>
+        </is>
+      </c>
+      <c r="B361" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C361" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="inlineStr">
+        <is>
+          <t>+5511970726796</t>
+        </is>
+      </c>
+      <c r="B362" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C362" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="inlineStr">
+        <is>
+          <t>+5519996017926</t>
+        </is>
+      </c>
+      <c r="B363" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C363" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="inlineStr">
+        <is>
           <t>+5511949288154</t>
         </is>
       </c>
-      <c r="B347" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C347" s="2" t="inlineStr">
+      <c r="B364" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C364" s="2" t="inlineStr">
         <is>
           <t>2024-08-26</t>
         </is>

--- a/gabi.xlsx
+++ b/gabi.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C364"/>
+  <dimension ref="A1:C291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,29 +477,29 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+553183770096</t>
+          <t>+5511917964655</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-10-29</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5519996110953</t>
+          <t>+5511932408926</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -511,7 +511,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5511920187983</t>
+          <t>+5511966568578</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -528,12 +528,12 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+5521995614358</t>
+          <t>+5524981243416</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -545,14 +545,10 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5521966851284</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
+          <t>+41766906567</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr"/>
       <c r="C6" s="2" t="inlineStr">
         <is>
           <t>2024-10-27</t>
@@ -562,581 +558,585 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5521994302471</t>
+          <t>+553186055296</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5521993228759</t>
+          <t>+553897420620</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+553798221148</t>
+          <t>+555195140432</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5511932408926</t>
+          <t>+556196229391</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5511966568578</t>
+          <t>+555481664496</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+555182236662</t>
+          <t>+553183244902</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5524981243416</t>
+          <t>+559981971020</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5521972450764</t>
+          <t>+5524999376084</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5521981700721</t>
+          <t>+5511962253510</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+558594487666</t>
+          <t>+553186089276</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5512988438943</t>
+          <t>+5521966501459</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+41766906567</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr"/>
+          <t>+553384677059</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+557598672769</t>
+          <t>+5521976781800</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+556186516353</t>
+          <t>+5516993604875</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+553186055296</t>
+          <t>+5521965496502</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+556296693495</t>
+          <t>+5511972930265</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+553897420620</t>
+          <t>+5511933453600</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+5521979071909</t>
+          <t>+5511965520814</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+553898066752</t>
+          <t>+556292340085</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+556196229391</t>
+          <t>+5511975721557</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+555481664496</t>
+          <t>+556192470699</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+553498832518</t>
+          <t>+5521987823541</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5511965003707</t>
+          <t>+5517981571512</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+553498757145</t>
+          <t>+5511940728898</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+5511972238951</t>
+          <t>+5521994075389</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+5513997184863</t>
+          <t>+5511981892366</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+5511963924242</t>
+          <t>+5522992752597</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+553183244902</t>
+          <t>+5521992761358</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+5521974870034</t>
+          <t>+556198289593</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+5514996538302</t>
+          <t>+5521979898353</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+5514981378883</t>
+          <t>+5521968066779</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+5521980137916</t>
+          <t>+5519991884271</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+559981971020</t>
+          <t>+555194713402</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+5524999376084</t>
+          <t>+553491497775</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+5511962253510</t>
+          <t>+5511952202576</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -1146,116 +1146,116 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+555384426124</t>
+          <t>+556496241313</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+553186089276</t>
+          <t>+5521966659271</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+5521966501459</t>
+          <t>+5512982473711</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+5515974032589</t>
+          <t>+555193033662</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+553488055259</t>
+          <t>+5511932101366</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+553384677059</t>
+          <t>+553298344288</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+5519996299319</t>
+          <t>+5519999605608</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -1265,252 +1265,248 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+5511988552097</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>+56996163824</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr"/>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+5521976781800</t>
+          <t>+5511986610154</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+553591021541</t>
+          <t>+5511970224460</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+5516993604875</t>
+          <t>+553183201160</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+5521965496502</t>
+          <t>+555384745327</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+5511992200087</t>
+          <t>+5514996501813</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+559191270637</t>
+          <t>+5511972435655</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+5519971619301</t>
+          <t>+5511946397297</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+5521971839379</t>
+          <t>+553397075362</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+5511972930265</t>
+          <t>+553193672938</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+5511933453600</t>
+          <t>+5522981479241</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+555491016875</t>
+          <t>+5521979251504</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+5521989149541</t>
+          <t>+556198475033</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+5511965520814</t>
+          <t>+5516992236142</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+5511940372227</t>
+          <t>+5511948893274</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -1520,14 +1516,14 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+5521979503998</t>
+          <t>+5521968278744</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -1537,473 +1533,473 @@
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+556292340085</t>
+          <t>+555196384525</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+5511975721557</t>
+          <t>+556196779704</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+556192470699</t>
+          <t>+5511915810965</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+554891421017</t>
+          <t>+5524999461825</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+556798473306</t>
+          <t>+5513996671783</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+5521987823541</t>
+          <t>+5511991871576</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+5517981571512</t>
+          <t>+5514981509955</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+556184421881</t>
+          <t>+555184777056</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+5511940728898</t>
+          <t>+5513991081873</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+5511947768319</t>
+          <t>+555197040253</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+5522997621623</t>
+          <t>+5511977945054</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+5521994075389</t>
+          <t>+553496724472</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+5511981892366</t>
+          <t>+553186960521</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+555192717667</t>
+          <t>+5516988023377</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+5522997104652</t>
+          <t>+553492249633</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+5522992752597</t>
+          <t>+5511996339968</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+5511999318706</t>
+          <t>+553899926253</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+5521992761358</t>
+          <t>+555596010082</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+556198289593</t>
+          <t>+5521984364734</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+5521979898353</t>
+          <t>+553196748836</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+5511951735066</t>
+          <t>+556196182173</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+5521968066779</t>
+          <t>+5515988279142</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+5511940052132</t>
+          <t>+551974071078</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+555584586767</t>
+          <t>+5511943458186</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+5519991884271</t>
+          <t>+553175675075</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+5521999546007</t>
+          <t>+558186914048</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+5521971985918</t>
+          <t>+5514997419977</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+5511982403910</t>
+          <t>+5511964838163</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
@@ -2013,14 +2009,14 @@
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+555194713402</t>
+          <t>+555191485515</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
@@ -2030,48 +2026,48 @@
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+5511979869629</t>
+          <t>+5521989929657</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+553491497775</t>
+          <t>+5511986633336</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+5511952202576</t>
+          <t>+5511963264394</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -2081,163 +2077,167 @@
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+556496241313</t>
+          <t>+555399629079</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+5521966659271</t>
+          <t>+555194536598</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+5511958383006</t>
+          <t>+5516991290210</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+5512982473711</t>
+          <t>+5511971885642</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+555193033662</t>
+          <t>+556192235590</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+5511932101366</t>
+          <t>+553197910058</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+553298344288</t>
+          <t>+5511945037623</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+5519999605608</t>
+          <t>+558586569439</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+56996163824</t>
-        </is>
-      </c>
-      <c r="B105" s="2" t="inlineStr"/>
+          <t>+5511971176538</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+5511986610154</t>
+          <t>+5511934629890</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
@@ -2247,31 +2247,31 @@
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+5511981755261</t>
+          <t>+5521971413810</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+5511970224460</t>
+          <t>+5511986546912</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -2281,14 +2281,14 @@
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+553183201160</t>
+          <t>+553171606494</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
@@ -2298,286 +2298,286 @@
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+555384745327</t>
+          <t>+553171858800</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+5514996501813</t>
+          <t>+5513996171453</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+5511972435655</t>
+          <t>+556191917174</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+5511946397297</t>
+          <t>+555181699628</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+553397075362</t>
+          <t>+558994526750</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+5513991020783</t>
+          <t>+5522999490720</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+5521969440520</t>
+          <t>+5515996341306</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+553193672938</t>
+          <t>+555492618052</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+5522981479241</t>
+          <t>+5512991532012</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+5521979251504</t>
+          <t>+556293410347</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+556198475033</t>
+          <t>+553171722790</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+5516992236142</t>
+          <t>+555186041958</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+5511948893274</t>
+          <t>+5522999557124</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+5521968278744</t>
+          <t>+5511956194781</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+555196384525</t>
+          <t>+5511949693265</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+5511972915535</t>
+          <t>+555193334094</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+553180135415</t>
+          <t>+553191181765</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
@@ -2587,31 +2587,31 @@
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+5521992200288</t>
+          <t>+553492868099</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+556196779704</t>
+          <t>+556198163313</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
@@ -2621,82 +2621,82 @@
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+5511915810965</t>
+          <t>+556286223947</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+5524999461825</t>
+          <t>+5522992578488</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+556196698353</t>
+          <t>+5519981594572</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+5513996671783</t>
+          <t>+556196054585</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+5511991871576</t>
+          <t>+5511993877662</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
@@ -2706,252 +2706,252 @@
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+5514981509955</t>
+          <t>+5519999136362</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+555184777056</t>
+          <t>+5519993254501</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+5513991081873</t>
+          <t>+553187320810</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+555197040253</t>
+          <t>+5511930092193</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+5511977945054</t>
+          <t>+5521977601201</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+553496724472</t>
+          <t>+553897450448</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+553186960521</t>
+          <t>+553899341338</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+5516988023377</t>
+          <t>+5521965730495</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+553492249633</t>
+          <t>+5512996345540</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+5511996339968</t>
+          <t>+553284127574</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+553899926253</t>
+          <t>+553384499379</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+555596010082</t>
+          <t>+5522999416651</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+5521984364734</t>
+          <t>+553496487520</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+553196748836</t>
+          <t>+5511963380338</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+556196182173</t>
+          <t>+556181106946</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
@@ -2961,269 +2961,269 @@
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+5515988279142</t>
+          <t>+5521966430435</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+551974071078</t>
+          <t>+5517981343490</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+5511943458186</t>
+          <t>+556194435831</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+553175675075</t>
+          <t>+556192815706</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+558186914048</t>
+          <t>+555194681350</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+5514997419977</t>
+          <t>+5521990024205</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+5511964838163</t>
+          <t>+5516993340146</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+555191485515</t>
+          <t>+5511969710184</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+5521989929657</t>
+          <t>+555184228607</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+5511986633336</t>
+          <t>+5516991501083</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+5511963264394</t>
+          <t>+5519974133120</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+555399629079</t>
+          <t>+5511971165356</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+555194536598</t>
+          <t>+5528999143242</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+5516991290210</t>
+          <t>+5521992992344</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+5511985014090</t>
+          <t>+553199111438</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+5511971885642</t>
+          <t>+5511991868062</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
@@ -3233,48 +3233,48 @@
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+556192235590</t>
+          <t>+5521965163770</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+553197910058</t>
+          <t>+556191281418</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+5511945037623</t>
+          <t>+5511970484790</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
@@ -3284,82 +3284,82 @@
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+558586569439</t>
+          <t>+553888359308</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+5511971176538</t>
+          <t>+5519999395027</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+5511934629890</t>
+          <t>+553187556222</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+5521971413810</t>
+          <t>+556181344711</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+5511986546912</t>
+          <t>+5511937138186</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
@@ -3369,14 +3369,14 @@
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+553171606494</t>
+          <t>+553175235564</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
@@ -3386,422 +3386,422 @@
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+553171858800</t>
+          <t>+5521970987542</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+5513996171453</t>
+          <t>+553398575480</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+556191917174</t>
+          <t>+553193590683</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+555181699628</t>
+          <t>+5522997230806</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+558994526750</t>
+          <t>+5511985698796</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+5522999490720</t>
+          <t>+5521965096539</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+5515996341306</t>
+          <t>+5521986678801</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+555492618052</t>
+          <t>+555197496105</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+5512991532012</t>
+          <t>+5511947650170</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+556293410347</t>
+          <t>+553191829450</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+553171722790</t>
+          <t>+5511976440031</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+555186041958</t>
+          <t>+556293286544</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+5522999557124</t>
+          <t>+555181664215</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+5511956194781</t>
+          <t>+5521978927776</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+5511949693265</t>
+          <t>+553499089476</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+553399550487</t>
+          <t>+5524999964686</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+555193334094</t>
+          <t>+5514997100570</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+553191181765</t>
+          <t>+5511956996383</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+553492868099</t>
+          <t>+5524999215405</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+556198163313</t>
+          <t>+5521997117322</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+556286223947</t>
+          <t>+5519997204476</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+5522992578488</t>
+          <t>+556296767169</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+5519981594572</t>
+          <t>+555491229014</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+556196054585</t>
+          <t>+553183316751</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+5511987670856</t>
+          <t>+5511960297061</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
@@ -3811,14 +3811,14 @@
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+5511993877662</t>
+          <t>+5511967618163</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
@@ -3828,65 +3828,65 @@
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+5519999136362</t>
+          <t>+5511953782520</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+5519993254501</t>
+          <t>+555194565879</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>+553187320810</t>
+          <t>+5519987116584</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+5511963669553</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
@@ -3896,14 +3896,14 @@
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>+5511930092193</t>
+          <t>+5511967026448</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
@@ -3913,422 +3913,422 @@
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>+5521977601201</t>
+          <t>+5511970838412</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>+553897450448</t>
+          <t>+5519994161076</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>+553899341338</t>
+          <t>+5512974073721</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>+5521965730495</t>
+          <t>+553899272884</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>+5512996345540</t>
+          <t>+5513974277521</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>+553284127574</t>
+          <t>+5511959480908</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>+553384499379</t>
+          <t>+553173039716</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>+5522999416651</t>
+          <t>+5519983138652</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>+553496487520</t>
+          <t>+5516981621753</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>+5511963380338</t>
+          <t>+5513996269435</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>+556181106946</t>
+          <t>+5511946858778</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>+5521966430435</t>
+          <t>+553498008945</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>+5517981343490</t>
+          <t>+555198093042</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>+556194435831</t>
+          <t>+5519992746058</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>+556192815706</t>
+          <t>+5511959327333</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>+555194681350</t>
+          <t>+5519991342511</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>+5521990024205</t>
+          <t>+5511910662570</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>+5516993340146</t>
+          <t>+5511979754910</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t